--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="200">
   <si>
     <t>工作日期 </t>
   </si>
@@ -155,9 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.01.26 </t>
-  </si>
-  <si>
     <t> 08:12,19:08 </t>
   </si>
   <si>
@@ -176,412 +173,466 @@
     <t> 0016005131 </t>
   </si>
   <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t> 2019.01.28 </t>
+  </si>
+  <si>
+    <t> 07:46,20:41 </t>
+  </si>
+  <si>
+    <t> 1.00 </t>
+  </si>
+  <si>
+    <t> 工作日 </t>
+  </si>
+  <si>
+    <t> 2019.01.29 </t>
+  </si>
+  <si>
+    <t> 07:43,20:50 </t>
+  </si>
+  <si>
+    <t> 2019.01.30 </t>
+  </si>
+  <si>
+    <t> 07:52,20:31 </t>
+  </si>
+  <si>
+    <t> 2019.01.31 </t>
+  </si>
+  <si>
+    <t> 07:46,20:13 </t>
+  </si>
+  <si>
+    <t> 2019.02.01 </t>
+  </si>
+  <si>
+    <t> 07:43,19:40 </t>
+  </si>
+  <si>
+    <t> 2019.02.02 </t>
+  </si>
+  <si>
+    <t> 08:02,17:32 </t>
+  </si>
+  <si>
+    <t> 2019.02.03 </t>
+  </si>
+  <si>
+    <t> 07:48,17:53 </t>
+  </si>
+  <si>
+    <t> 2019.02.04 </t>
+  </si>
+  <si>
+    <t> 2019.02.05 </t>
+  </si>
+  <si>
+    <t> 节假日 </t>
+  </si>
+  <si>
+    <t> 2019.02.06 </t>
+  </si>
+  <si>
+    <t> 2019.02.07 </t>
+  </si>
+  <si>
+    <t> 2019.02.08 </t>
+  </si>
+  <si>
+    <t> 2019.02.09 </t>
+  </si>
+  <si>
+    <t> 2019.02.10 </t>
+  </si>
+  <si>
+    <t> 2019.02.11 </t>
+  </si>
+  <si>
+    <t> 2019.02.12 </t>
+  </si>
+  <si>
+    <t> 2019.02.13 </t>
+  </si>
+  <si>
+    <t> 2019.02.14 </t>
+  </si>
+  <si>
+    <t> 2019.02.15 </t>
+  </si>
+  <si>
+    <t> 2019.02.16 </t>
+  </si>
+  <si>
+    <t> 2019.02.17 </t>
+  </si>
+  <si>
+    <t> 2019.02.18 </t>
+  </si>
+  <si>
+    <t> 07:45,20:15 </t>
+  </si>
+  <si>
+    <t> 2019.02.19 </t>
+  </si>
+  <si>
+    <t> 07:49,21:08 </t>
+  </si>
+  <si>
+    <t> 2019.02.20 </t>
+  </si>
+  <si>
+    <t> 07:54,20:35 </t>
+  </si>
+  <si>
+    <t> 2019.02.21 </t>
+  </si>
+  <si>
+    <t> 07:48,21:17 </t>
+  </si>
+  <si>
+    <t> 2019.02.22 </t>
+  </si>
+  <si>
+    <t> 07:50,19:35 </t>
+  </si>
+  <si>
+    <t> 2019.02.23 </t>
+  </si>
+  <si>
+    <t> 2019.02.24 </t>
+  </si>
+  <si>
+    <t> 2019.02.25 </t>
+  </si>
+  <si>
+    <t> 07:47,21:25 </t>
+  </si>
+  <si>
+    <t>2019.02.26 </t>
+  </si>
+  <si>
+    <t> 07:49,20:52 </t>
+  </si>
+  <si>
+    <t> 2019.02.27 </t>
+  </si>
+  <si>
+    <t> 07:49,20:48 </t>
+  </si>
+  <si>
+    <t> 2019.02.28 </t>
+  </si>
+  <si>
+    <t> 07:45,21:02 </t>
+  </si>
+  <si>
+    <t>2019.01.01 </t>
+  </si>
+  <si>
+    <t> 08:02,21:39 </t>
+  </si>
+  <si>
+    <t> 2019.01.02 </t>
+  </si>
+  <si>
+    <t> 07:32,21:14 </t>
+  </si>
+  <si>
+    <t> 2019.01.03 </t>
+  </si>
+  <si>
+    <t> 07:34,20:55 </t>
+  </si>
+  <si>
+    <t> 2019.01.04 </t>
+  </si>
+  <si>
+    <t> 07:34,18:30 </t>
+  </si>
+  <si>
+    <t> 2019.01.05 </t>
+  </si>
+  <si>
+    <t> 2019.01.06 </t>
+  </si>
+  <si>
+    <t> 2019.01.07 </t>
+  </si>
+  <si>
+    <t> 07:32,20:12 </t>
+  </si>
+  <si>
+    <t> 2019.01.08 </t>
+  </si>
+  <si>
+    <t> 07:49,20:34 </t>
+  </si>
+  <si>
+    <t> 2019.01.09 </t>
+  </si>
+  <si>
+    <t> 07:43,20:40 </t>
+  </si>
+  <si>
+    <t> 2019.01.10 </t>
+  </si>
+  <si>
+    <t> 07:42,20:19 </t>
+  </si>
+  <si>
+    <t> 2019.01.11 </t>
+  </si>
+  <si>
+    <t> 07:32,20:46 </t>
+  </si>
+  <si>
+    <t> 2019.01.12 </t>
+  </si>
+  <si>
+    <t> 2019.01.13 </t>
+  </si>
+  <si>
+    <t> 2019.01.14 </t>
+  </si>
+  <si>
+    <t> 08:10,20:50 </t>
+  </si>
+  <si>
+    <t> 2019.01.15 </t>
+  </si>
+  <si>
+    <t> 07:38,20:51 </t>
+  </si>
+  <si>
+    <t> 2019.01.16 </t>
+  </si>
+  <si>
+    <t> 07:43,20:27 </t>
+  </si>
+  <si>
+    <t> 2019.01.17 </t>
+  </si>
+  <si>
+    <t> 07:37,20:52 </t>
+  </si>
+  <si>
+    <t> 2019.01.18 </t>
+  </si>
+  <si>
+    <t> 08:03,17:34 </t>
+  </si>
+  <si>
+    <t> 2019.01.19 </t>
+  </si>
+  <si>
+    <t> 2019.01.20 </t>
+  </si>
+  <si>
+    <t> 2019.01.21 </t>
+  </si>
+  <si>
+    <t> 07:37,20:19 </t>
+  </si>
+  <si>
+    <t> 2019.01.22 </t>
+  </si>
+  <si>
+    <t> 07:28,20:25 </t>
+  </si>
+  <si>
+    <t> 2019.01.23 </t>
+  </si>
+  <si>
+    <t> 07:41,20:47 </t>
+  </si>
+  <si>
+    <t> 2019.01.24 </t>
+  </si>
+  <si>
+    <t> 07:39,21:42 </t>
+  </si>
+  <si>
+    <t> 2019.01.25 </t>
+  </si>
+  <si>
+    <t> 07:59,21:03 </t>
+  </si>
+  <si>
+    <t> 07:50,20:10 </t>
+  </si>
+  <si>
+    <t> 17.50 </t>
+  </si>
+  <si>
+    <t> 2019.03.02 </t>
+  </si>
+  <si>
+    <t> 2019.03.03 </t>
+  </si>
+  <si>
+    <t> 2019.03.04 </t>
+  </si>
+  <si>
+    <t> 07:41,21:25 </t>
+  </si>
+  <si>
+    <t> 2019.03.05 </t>
+  </si>
+  <si>
+    <t> 07:32,21:08 </t>
+  </si>
+  <si>
+    <t> 2019.03.06 </t>
+  </si>
+  <si>
+    <t> 07:59,20:06 </t>
+  </si>
+  <si>
+    <t> 2019.03.07 </t>
+  </si>
+  <si>
+    <t> 07:27,21:32 </t>
+  </si>
+  <si>
+    <t> 2019.03.08 </t>
+  </si>
+  <si>
+    <t> 07:42,20:09 </t>
+  </si>
+  <si>
+    <t> 2019.03.09 </t>
+  </si>
+  <si>
+    <t> 2019.03.10 </t>
+  </si>
+  <si>
+    <t> 2019.03.11 </t>
+  </si>
+  <si>
+    <t> 07:32,21:21 </t>
+  </si>
+  <si>
+    <t> 2019.03.12 </t>
+  </si>
+  <si>
+    <t> 2019.03.13 </t>
+  </si>
+  <si>
+    <t> 2019.03.14 </t>
+  </si>
+  <si>
+    <t> 2019.03.15 </t>
+  </si>
+  <si>
+    <t> 2019.03.16 </t>
+  </si>
+  <si>
+    <t> 2019.03.17 </t>
+  </si>
+  <si>
+    <t> 2019.03.18 </t>
+  </si>
+  <si>
+    <t> 2019.03.19 </t>
+  </si>
+  <si>
+    <t> 2019.03.20 </t>
+  </si>
+  <si>
+    <t> 2019.03.21 </t>
+  </si>
+  <si>
+    <t> 2019.03.22 </t>
+  </si>
+  <si>
+    <t> 2019.03.23 </t>
+  </si>
+  <si>
+    <t> 2019.03.24 </t>
+  </si>
+  <si>
+    <t> 2019.03.25 </t>
+  </si>
+  <si>
+    <t> 2019.03.26 </t>
+  </si>
+  <si>
+    <t> 2019.03.27 </t>
+  </si>
+  <si>
+    <t> 2019.03.28 </t>
+  </si>
+  <si>
+    <t> 2019.03.29 </t>
+  </si>
+  <si>
+    <t> 2019.03.30 </t>
+  </si>
+  <si>
+    <t> 2019.03.31 </t>
+  </si>
+  <si>
+    <t> 07:46,21:33 </t>
+  </si>
+  <si>
+    <t> 07:45,22:17 </t>
+  </si>
+  <si>
+    <t> 07:55,21:32 </t>
+  </si>
+  <si>
+    <t> 07:45,20:51 </t>
+  </si>
+  <si>
+    <t> 07:50,21:16 </t>
+  </si>
+  <si>
+    <t> 1.00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019.01.26 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t> 2019.01.27 </t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t> 2019.01.28 </t>
-  </si>
-  <si>
-    <t> 07:46,20:41 </t>
-  </si>
-  <si>
-    <t> 1.00 </t>
-  </si>
-  <si>
-    <t> 工作日 </t>
-  </si>
-  <si>
-    <t> 2019.01.29 </t>
-  </si>
-  <si>
-    <t> 07:43,20:50 </t>
-  </si>
-  <si>
-    <t> 2019.01.30 </t>
-  </si>
-  <si>
-    <t> 07:52,20:31 </t>
-  </si>
-  <si>
-    <t> 2019.01.31 </t>
-  </si>
-  <si>
-    <t> 07:46,20:13 </t>
-  </si>
-  <si>
-    <t> 2019.02.01 </t>
-  </si>
-  <si>
-    <t> 07:43,19:40 </t>
-  </si>
-  <si>
-    <t> 2019.02.02 </t>
-  </si>
-  <si>
-    <t> 08:02,17:32 </t>
-  </si>
-  <si>
-    <t> 2019.02.03 </t>
-  </si>
-  <si>
-    <t> 07:48,17:53 </t>
-  </si>
-  <si>
-    <t> 2019.02.04 </t>
-  </si>
-  <si>
-    <t> 2019.02.05 </t>
-  </si>
-  <si>
-    <t> 节假日 </t>
-  </si>
-  <si>
-    <t> 2019.02.06 </t>
-  </si>
-  <si>
-    <t> 2019.02.07 </t>
-  </si>
-  <si>
-    <t> 2019.02.08 </t>
-  </si>
-  <si>
-    <t> 2019.02.09 </t>
-  </si>
-  <si>
-    <t> 2019.02.10 </t>
-  </si>
-  <si>
-    <t> 2019.02.11 </t>
-  </si>
-  <si>
-    <t> 2019.02.12 </t>
-  </si>
-  <si>
-    <t> 2019.02.13 </t>
-  </si>
-  <si>
-    <t> 2019.02.14 </t>
-  </si>
-  <si>
-    <t> 2019.02.15 </t>
-  </si>
-  <si>
-    <t> 2019.02.16 </t>
-  </si>
-  <si>
-    <t> 2019.02.17 </t>
-  </si>
-  <si>
-    <t> 2019.02.18 </t>
-  </si>
-  <si>
-    <t> 07:45,20:15 </t>
-  </si>
-  <si>
-    <t> 2019.02.19 </t>
-  </si>
-  <si>
-    <t> 07:49,21:08 </t>
-  </si>
-  <si>
-    <t> 2019.02.20 </t>
-  </si>
-  <si>
-    <t> 07:54,20:35 </t>
-  </si>
-  <si>
-    <t> 2019.02.21 </t>
-  </si>
-  <si>
-    <t> 07:48,21:17 </t>
-  </si>
-  <si>
-    <t> 2019.02.22 </t>
-  </si>
-  <si>
-    <t> 07:50,19:35 </t>
-  </si>
-  <si>
-    <t> 2019.02.23 </t>
-  </si>
-  <si>
-    <t> 2019.02.24 </t>
-  </si>
-  <si>
-    <t> 2019.02.25 </t>
-  </si>
-  <si>
-    <t> 07:47,21:25 </t>
-  </si>
-  <si>
-    <t>2019.02.26 </t>
-  </si>
-  <si>
-    <t> 07:49,20:52 </t>
-  </si>
-  <si>
-    <t> 2019.02.27 </t>
-  </si>
-  <si>
-    <t> 07:49,20:48 </t>
-  </si>
-  <si>
-    <t> 2019.02.28 </t>
-  </si>
-  <si>
-    <t> 07:45,21:02 </t>
-  </si>
-  <si>
-    <t>2019.01.01 </t>
-  </si>
-  <si>
-    <t> 08:02,21:39 </t>
-  </si>
-  <si>
-    <t> 2019.01.02 </t>
-  </si>
-  <si>
-    <t> 07:32,21:14 </t>
-  </si>
-  <si>
-    <t> 2019.01.03 </t>
-  </si>
-  <si>
-    <t> 07:34,20:55 </t>
-  </si>
-  <si>
-    <t> 2019.01.04 </t>
-  </si>
-  <si>
-    <t> 07:34,18:30 </t>
-  </si>
-  <si>
-    <t> 2019.01.05 </t>
-  </si>
-  <si>
-    <t> 2019.01.06 </t>
-  </si>
-  <si>
-    <t> 2019.01.07 </t>
-  </si>
-  <si>
-    <t> 07:32,20:12 </t>
-  </si>
-  <si>
-    <t> 2019.01.08 </t>
-  </si>
-  <si>
-    <t> 07:49,20:34 </t>
-  </si>
-  <si>
-    <t> 2019.01.09 </t>
-  </si>
-  <si>
-    <t> 07:43,20:40 </t>
-  </si>
-  <si>
-    <t> 2019.01.10 </t>
-  </si>
-  <si>
-    <t> 07:42,20:19 </t>
-  </si>
-  <si>
-    <t> 2019.01.11 </t>
-  </si>
-  <si>
-    <t> 07:32,20:46 </t>
-  </si>
-  <si>
-    <t> 2019.01.12 </t>
-  </si>
-  <si>
-    <t> 2019.01.13 </t>
-  </si>
-  <si>
-    <t> 2019.01.14 </t>
-  </si>
-  <si>
-    <t> 08:10,20:50 </t>
-  </si>
-  <si>
-    <t> 2019.01.15 </t>
-  </si>
-  <si>
-    <t> 07:38,20:51 </t>
-  </si>
-  <si>
-    <t> 2019.01.16 </t>
-  </si>
-  <si>
-    <t> 07:43,20:27 </t>
-  </si>
-  <si>
-    <t> 2019.01.17 </t>
-  </si>
-  <si>
-    <t> 07:37,20:52 </t>
-  </si>
-  <si>
-    <t> 2019.01.18 </t>
-  </si>
-  <si>
-    <t> 08:03,17:34 </t>
-  </si>
-  <si>
-    <t> 2019.01.19 </t>
-  </si>
-  <si>
-    <t> 2019.01.20 </t>
-  </si>
-  <si>
-    <t> 2019.01.21 </t>
-  </si>
-  <si>
-    <t> 07:37,20:19 </t>
-  </si>
-  <si>
-    <t> 2019.01.22 </t>
-  </si>
-  <si>
-    <t> 07:28,20:25 </t>
-  </si>
-  <si>
-    <t> 2019.01.23 </t>
-  </si>
-  <si>
-    <t> 07:41,20:47 </t>
-  </si>
-  <si>
-    <t> 2019.01.24 </t>
-  </si>
-  <si>
-    <t> 07:39,21:42 </t>
-  </si>
-  <si>
-    <t> 2019.01.25 </t>
-  </si>
-  <si>
-    <t> 07:59,21:03 </t>
-  </si>
-  <si>
-    <t> 2019.03.01 </t>
-  </si>
-  <si>
-    <t> 07:50,20:10 </t>
-  </si>
-  <si>
-    <t> 17.50 </t>
-  </si>
-  <si>
-    <t> 2019.03.02 </t>
-  </si>
-  <si>
-    <t> 2019.03.03 </t>
-  </si>
-  <si>
-    <t> 2019.03.04 </t>
-  </si>
-  <si>
-    <t> 07:41,21:25 </t>
-  </si>
-  <si>
-    <t> 2019.03.05 </t>
-  </si>
-  <si>
-    <t> 07:32,21:08 </t>
-  </si>
-  <si>
-    <t> 2019.03.06 </t>
-  </si>
-  <si>
-    <t> 07:59,20:06 </t>
-  </si>
-  <si>
-    <t> 2019.03.07 </t>
-  </si>
-  <si>
-    <t> 07:27,21:32 </t>
-  </si>
-  <si>
-    <t> 2019.03.08 </t>
-  </si>
-  <si>
-    <t> 07:42,20:09 </t>
-  </si>
-  <si>
-    <t> 2019.03.09 </t>
-  </si>
-  <si>
-    <t> 2019.03.10 </t>
-  </si>
-  <si>
-    <t> 2019.03.11 </t>
-  </si>
-  <si>
-    <t> 07:32,21:21 </t>
-  </si>
-  <si>
-    <t> 2019.03.12 </t>
-  </si>
-  <si>
-    <t> 2019.03.13 </t>
-  </si>
-  <si>
-    <t> 2019.03.14 </t>
-  </si>
-  <si>
-    <t> 2019.03.15 </t>
-  </si>
-  <si>
-    <t> 2019.03.16 </t>
-  </si>
-  <si>
-    <t> 2019.03.17 </t>
-  </si>
-  <si>
-    <t> 2019.03.18 </t>
-  </si>
-  <si>
-    <t> 2019.03.19 </t>
-  </si>
-  <si>
-    <t> 2019.03.20 </t>
-  </si>
-  <si>
-    <t> 2019.03.21 </t>
-  </si>
-  <si>
-    <t> 2019.03.22 </t>
-  </si>
-  <si>
-    <t> 2019.03.23 </t>
-  </si>
-  <si>
-    <t> 2019.03.24 </t>
-  </si>
-  <si>
-    <t> 2019.03.25 </t>
-  </si>
-  <si>
-    <t> 2019.03.26 </t>
-  </si>
-  <si>
-    <t> 2019.03.27 </t>
-  </si>
-  <si>
-    <t> 2019.03.28 </t>
-  </si>
-  <si>
-    <t> 2019.03.29 </t>
-  </si>
-  <si>
-    <t> 2019.03.30 </t>
-  </si>
-  <si>
-    <t> 2019.03.31 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 07:48,21:34 </t>
+  </si>
+  <si>
+    <t> 07:45,20:41 </t>
+  </si>
+  <si>
+    <t> 07:45,20:53 </t>
+  </si>
+  <si>
+    <t> 10:01,20:51 </t>
+  </si>
+  <si>
+    <t> 08:04,21:07 </t>
+  </si>
+  <si>
+    <t>2019.03.01 </t>
+  </si>
+  <si>
+    <t> 07:59,20:18 </t>
+  </si>
+  <si>
+    <t> 07:54,20:08 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 07:54,21:08 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 07:54,17:08 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -935,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1115,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,11 +1415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1601,13 +1655,13 @@
         <v>21:39</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
@@ -1633,21 +1687,21 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL3" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM3" s="30"/>
       <c r="AN3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO3" s="17"/>
     </row>
@@ -1681,19 +1735,19 @@
         <v>21:14</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
@@ -1717,21 +1771,21 @@
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK4" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL4" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO4" s="17"/>
     </row>
@@ -1765,19 +1819,19 @@
         <v>20:55</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -1801,21 +1855,21 @@
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI5" s="30"/>
       <c r="AJ5" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK5" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM5" s="30"/>
       <c r="AN5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO5" s="17"/>
     </row>
@@ -1849,19 +1903,19 @@
         <v>18:30</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -1885,19 +1939,19 @@
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK6" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="30"/>
       <c r="AM6" s="30"/>
       <c r="AN6" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="17"/>
     </row>
@@ -1931,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -1963,17 +2017,17 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
       <c r="AH7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI7" s="30"/>
       <c r="AJ7" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK7" s="30"/>
       <c r="AL7" s="30"/>
       <c r="AM7" s="30"/>
       <c r="AN7" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO7" s="17"/>
     </row>
@@ -2007,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -2039,17 +2093,17 @@
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
       <c r="AH8" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK8" s="30"/>
       <c r="AL8" s="30"/>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO8" s="17"/>
     </row>
@@ -2083,19 +2137,19 @@
         <v>20:12</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -2119,21 +2173,21 @@
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" s="30"/>
       <c r="AJ9" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK9" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM9" s="30"/>
       <c r="AN9" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO9" s="17"/>
     </row>
@@ -2167,19 +2221,19 @@
         <v>20:34</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -2203,21 +2257,21 @@
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM10" s="30"/>
       <c r="AN10" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO10" s="17"/>
     </row>
@@ -2251,19 +2305,19 @@
         <v>20:40</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -2287,21 +2341,21 @@
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
       <c r="AH11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK11" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL11" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM11" s="30"/>
       <c r="AN11" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO11" s="17"/>
     </row>
@@ -2335,19 +2389,19 @@
         <v>20:19</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -2371,21 +2425,21 @@
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
       <c r="AH12" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK12" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL12" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM12" s="30"/>
       <c r="AN12" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO12" s="17"/>
     </row>
@@ -2419,19 +2473,19 @@
         <v>20:46</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -2455,21 +2509,21 @@
       <c r="AF13" s="30"/>
       <c r="AG13" s="30"/>
       <c r="AH13" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK13" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM13" s="30"/>
       <c r="AN13" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO13" s="17"/>
     </row>
@@ -2503,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
@@ -2535,17 +2589,17 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
       <c r="AN14" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO14" s="17"/>
     </row>
@@ -2579,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
@@ -2611,17 +2665,17 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="30"/>
       <c r="AH15" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI15" s="30"/>
       <c r="AJ15" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
       <c r="AN15" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO15" s="17"/>
     </row>
@@ -2655,19 +2709,19 @@
         <v>20:50</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
@@ -2691,21 +2745,21 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI16" s="30"/>
       <c r="AJ16" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK16" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL16" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM16" s="30"/>
       <c r="AN16" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="17"/>
     </row>
@@ -2739,19 +2793,19 @@
         <v>20:51</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -2775,21 +2829,21 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI17" s="30"/>
       <c r="AJ17" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK17" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL17" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM17" s="30"/>
       <c r="AN17" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO17" s="17"/>
     </row>
@@ -2823,19 +2877,19 @@
         <v>20:27</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
@@ -2859,21 +2913,21 @@
       <c r="AF18" s="30"/>
       <c r="AG18" s="30"/>
       <c r="AH18" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI18" s="30"/>
       <c r="AJ18" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK18" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL18" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM18" s="30"/>
       <c r="AN18" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO18" s="17"/>
     </row>
@@ -2907,19 +2961,19 @@
         <v>20:52</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
@@ -2943,21 +2997,21 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK19" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL19" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM19" s="30"/>
       <c r="AN19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO19" s="17"/>
     </row>
@@ -2991,19 +3045,19 @@
         <v>17:34</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
@@ -3027,19 +3081,19 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="30"/>
       <c r="AH20" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI20" s="30"/>
       <c r="AJ20" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL20" s="30"/>
       <c r="AM20" s="30"/>
       <c r="AN20" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO20" s="17"/>
     </row>
@@ -3073,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
@@ -3105,17 +3159,17 @@
       <c r="AF21" s="30"/>
       <c r="AG21" s="30"/>
       <c r="AH21" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI21" s="30"/>
       <c r="AJ21" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK21" s="30"/>
       <c r="AL21" s="30"/>
       <c r="AM21" s="30"/>
       <c r="AN21" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO21" s="17"/>
     </row>
@@ -3149,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
@@ -3181,17 +3235,17 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="30"/>
       <c r="AH22" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI22" s="30"/>
       <c r="AJ22" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK22" s="30"/>
       <c r="AL22" s="30"/>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO22" s="17"/>
     </row>
@@ -3225,19 +3279,19 @@
         <v>20:19</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
@@ -3261,21 +3315,21 @@
       <c r="AF23" s="30"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK23" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO23" s="17"/>
     </row>
@@ -3309,19 +3363,19 @@
         <v>20:25</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
@@ -3345,21 +3399,21 @@
       <c r="AF24" s="30"/>
       <c r="AG24" s="30"/>
       <c r="AH24" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK24" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO24" s="17"/>
     </row>
@@ -3393,19 +3447,19 @@
         <v>20:47</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
@@ -3429,21 +3483,21 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI25" s="30"/>
       <c r="AJ25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK25" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL25" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO25" s="17"/>
     </row>
@@ -3477,19 +3531,19 @@
         <v>21:42</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
@@ -3513,21 +3567,21 @@
       <c r="AF26" s="30"/>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI26" s="30"/>
       <c r="AJ26" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK26" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO26" s="17"/>
     </row>
@@ -3561,19 +3615,19 @@
         <v>21:03</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
@@ -3597,21 +3651,21 @@
       <c r="AF27" s="30"/>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK27" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO27" s="17"/>
     </row>
@@ -4986,10 +5040,10 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5224,13 +5278,13 @@
         <v>19:08</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
@@ -5256,19 +5310,19 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>47</v>
       </c>
       <c r="AL3" s="30"/>
       <c r="AM3" s="30"/>
       <c r="AN3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO3" s="17"/>
     </row>
@@ -5302,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -5334,17 +5388,17 @@
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="30"/>
       <c r="AL4" s="30"/>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO4" s="17"/>
     </row>
@@ -5378,19 +5432,19 @@
         <v>20:41</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="L5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -5414,21 +5468,21 @@
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI5" s="30"/>
       <c r="AJ5" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK5" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL5" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM5" s="30"/>
       <c r="AN5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO5" s="17"/>
     </row>
@@ -5462,19 +5516,19 @@
         <v>20:50</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -5498,21 +5552,21 @@
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK6" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM6" s="30"/>
       <c r="AN6" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="17"/>
     </row>
@@ -5546,19 +5600,19 @@
         <v>20:31</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -5582,21 +5636,21 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
       <c r="AH7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI7" s="30"/>
       <c r="AJ7" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM7" s="30"/>
       <c r="AN7" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO7" s="17"/>
     </row>
@@ -5630,19 +5684,19 @@
         <v>20:13</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
@@ -5666,21 +5720,21 @@
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
       <c r="AH8" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK8" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO8" s="17"/>
     </row>
@@ -5714,19 +5768,19 @@
         <v>19:40</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -5750,19 +5804,19 @@
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" s="30"/>
       <c r="AJ9" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK9" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL9" s="30"/>
       <c r="AM9" s="30"/>
       <c r="AN9" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO9" s="17"/>
     </row>
@@ -5796,19 +5850,19 @@
         <v>17:32</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -5832,19 +5886,19 @@
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL10" s="30"/>
       <c r="AM10" s="30"/>
       <c r="AN10" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO10" s="17"/>
     </row>
@@ -5878,19 +5932,19 @@
         <v>17:53</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -5914,19 +5968,19 @@
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
       <c r="AH11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK11" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL11" s="30"/>
       <c r="AM11" s="30"/>
       <c r="AN11" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO11" s="17"/>
     </row>
@@ -5960,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -5992,17 +6046,17 @@
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
       <c r="AH12" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="30"/>
       <c r="AM12" s="30"/>
       <c r="AN12" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO12" s="17"/>
     </row>
@@ -6036,13 +6090,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
@@ -6068,17 +6122,17 @@
       <c r="AF13" s="30"/>
       <c r="AG13" s="30"/>
       <c r="AH13" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
       <c r="AM13" s="30"/>
       <c r="AN13" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO13" s="17"/>
     </row>
@@ -6112,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
@@ -6144,17 +6198,17 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
       <c r="AN14" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO14" s="17"/>
     </row>
@@ -6188,13 +6242,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
@@ -6220,17 +6274,17 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="30"/>
       <c r="AH15" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI15" s="30"/>
       <c r="AJ15" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
       <c r="AN15" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO15" s="17"/>
     </row>
@@ -6264,13 +6318,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
@@ -6296,17 +6350,17 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI16" s="30"/>
       <c r="AJ16" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK16" s="30"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
       <c r="AN16" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="17"/>
     </row>
@@ -6340,13 +6394,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
@@ -6372,17 +6426,17 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI17" s="30"/>
       <c r="AJ17" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK17" s="30"/>
       <c r="AL17" s="30"/>
       <c r="AM17" s="30"/>
       <c r="AN17" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO17" s="17"/>
     </row>
@@ -6416,13 +6470,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -6448,17 +6502,17 @@
       <c r="AF18" s="30"/>
       <c r="AG18" s="30"/>
       <c r="AH18" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI18" s="30"/>
       <c r="AJ18" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK18" s="30"/>
       <c r="AL18" s="30"/>
       <c r="AM18" s="30"/>
       <c r="AN18" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO18" s="17"/>
     </row>
@@ -6492,16 +6546,16 @@
         <v>0</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -6515,7 +6569,7 @@
       <c r="U19" s="30"/>
       <c r="V19" s="30"/>
       <c r="W19" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
@@ -6528,17 +6582,17 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK19" s="30"/>
       <c r="AL19" s="30"/>
       <c r="AM19" s="30"/>
       <c r="AN19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO19" s="17"/>
     </row>
@@ -6572,16 +6626,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
@@ -6595,7 +6649,7 @@
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
       <c r="W20" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X20" s="30"/>
       <c r="Y20" s="30"/>
@@ -6608,17 +6662,17 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="30"/>
       <c r="AH20" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI20" s="30"/>
       <c r="AJ20" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK20" s="30"/>
       <c r="AL20" s="30"/>
       <c r="AM20" s="30"/>
       <c r="AN20" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO20" s="17"/>
     </row>
@@ -6652,16 +6706,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
@@ -6675,7 +6729,7 @@
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
       <c r="W21" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X21" s="30"/>
       <c r="Y21" s="30"/>
@@ -6688,17 +6742,17 @@
       <c r="AF21" s="30"/>
       <c r="AG21" s="30"/>
       <c r="AH21" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI21" s="30"/>
       <c r="AJ21" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK21" s="30"/>
       <c r="AL21" s="30"/>
       <c r="AM21" s="30"/>
       <c r="AN21" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO21" s="17"/>
     </row>
@@ -6732,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
@@ -6755,7 +6809,7 @@
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
       <c r="W22" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X22" s="30"/>
       <c r="Y22" s="30"/>
@@ -6768,17 +6822,17 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="30"/>
       <c r="AH22" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI22" s="30"/>
       <c r="AJ22" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK22" s="30"/>
       <c r="AL22" s="30"/>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO22" s="17"/>
     </row>
@@ -6812,16 +6866,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -6835,7 +6889,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
       <c r="W23" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X23" s="30"/>
       <c r="Y23" s="30"/>
@@ -6848,17 +6902,17 @@
       <c r="AF23" s="30"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK23" s="30"/>
       <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO23" s="17"/>
     </row>
@@ -6892,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -6924,17 +6978,17 @@
       <c r="AF24" s="30"/>
       <c r="AG24" s="30"/>
       <c r="AH24" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK24" s="30"/>
       <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO24" s="17"/>
     </row>
@@ -6968,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -7000,17 +7054,17 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI25" s="30"/>
       <c r="AJ25" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK25" s="30"/>
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO25" s="17"/>
     </row>
@@ -7044,19 +7098,19 @@
         <v>20:15</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
@@ -7080,21 +7134,21 @@
       <c r="AF26" s="30"/>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI26" s="30"/>
       <c r="AJ26" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK26" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL26" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO26" s="17"/>
     </row>
@@ -7128,19 +7182,19 @@
         <v>21:08</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
@@ -7164,21 +7218,21 @@
       <c r="AF27" s="30"/>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK27" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL27" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO27" s="17"/>
     </row>
@@ -7212,19 +7266,19 @@
         <v>20:35</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
@@ -7248,21 +7302,21 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
       <c r="AH28" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI28" s="30"/>
       <c r="AJ28" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK28" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL28" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM28" s="30"/>
       <c r="AN28" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO28" s="17"/>
     </row>
@@ -7296,19 +7350,19 @@
         <v>21:17</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
@@ -7332,21 +7386,21 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
       <c r="AH29" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI29" s="30"/>
       <c r="AJ29" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK29" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL29" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO29" s="17"/>
     </row>
@@ -7380,19 +7434,19 @@
         <v>19:35</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
@@ -7416,19 +7470,19 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK30" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO30" s="17"/>
     </row>
@@ -7462,13 +7516,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -7494,17 +7548,17 @@
       <c r="AF31" s="30"/>
       <c r="AG31" s="30"/>
       <c r="AH31" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI31" s="30"/>
       <c r="AJ31" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK31" s="30"/>
       <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO31" s="17"/>
     </row>
@@ -7538,13 +7592,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -7570,17 +7624,17 @@
       <c r="AF32" s="30"/>
       <c r="AG32" s="30"/>
       <c r="AH32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI32" s="30"/>
       <c r="AJ32" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO32" s="17"/>
     </row>
@@ -7614,19 +7668,19 @@
         <v>21:25</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
@@ -7650,21 +7704,21 @@
       <c r="AF33" s="30"/>
       <c r="AG33" s="30"/>
       <c r="AH33" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI33" s="30"/>
       <c r="AJ33" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK33" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL33" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO33" s="17"/>
     </row>
@@ -7698,19 +7752,19 @@
         <v>20:52</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
@@ -7734,21 +7788,21 @@
       <c r="AF34" s="30"/>
       <c r="AG34" s="30"/>
       <c r="AH34" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI34" s="30"/>
       <c r="AJ34" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK34" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL34" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO34" s="17"/>
     </row>
@@ -7782,19 +7836,19 @@
         <v>20:48</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M35" s="30"/>
       <c r="N35" s="30"/>
@@ -7818,21 +7872,21 @@
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
       <c r="AH35" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI35" s="30"/>
       <c r="AJ35" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK35" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL35" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO35" s="17"/>
     </row>
@@ -7866,19 +7920,19 @@
         <v>21:02</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
@@ -7902,21 +7956,21 @@
       <c r="AF36" s="30"/>
       <c r="AG36" s="30"/>
       <c r="AH36" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI36" s="30"/>
       <c r="AJ36" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK36" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL36" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO36" s="17"/>
     </row>
@@ -8714,11 +8768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8754,7 +8808,7 @@
       </c>
       <c r="B1" s="20">
         <f>ROUND(G1/60,2)</f>
-        <v>19.850000000000001</v>
+        <v>70.78</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>36</v>
@@ -8764,7 +8818,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="22">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>1191</v>
+        <v>4247</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="29"/>
@@ -8954,19 +9008,19 @@
         <v>20:10</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
@@ -8990,21 +9044,21 @@
       <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL3" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM3" s="30"/>
       <c r="AN3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO3" s="17"/>
     </row>
@@ -9038,13 +9092,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -9070,17 +9124,17 @@
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" s="30"/>
       <c r="AL4" s="30"/>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO4" s="17"/>
     </row>
@@ -9114,13 +9168,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -9146,17 +9200,17 @@
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI5" s="30"/>
       <c r="AJ5" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="30"/>
       <c r="AL5" s="30"/>
       <c r="AM5" s="30"/>
       <c r="AN5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO5" s="17"/>
     </row>
@@ -9190,19 +9244,19 @@
         <v>21:25</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
@@ -9226,21 +9280,21 @@
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK6" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL6" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM6" s="30"/>
       <c r="AN6" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO6" s="17"/>
     </row>
@@ -9274,19 +9328,19 @@
         <v>21:08</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -9310,21 +9364,21 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
       <c r="AH7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI7" s="30"/>
       <c r="AJ7" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK7" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL7" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM7" s="30"/>
       <c r="AN7" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO7" s="17"/>
     </row>
@@ -9358,19 +9412,19 @@
         <v>20:06</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
@@ -9394,21 +9448,21 @@
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
       <c r="AH8" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK8" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO8" s="17"/>
     </row>
@@ -9442,19 +9496,19 @@
         <v>21:32</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
@@ -9478,21 +9532,21 @@
       <c r="AF9" s="30"/>
       <c r="AG9" s="30"/>
       <c r="AH9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" s="30"/>
       <c r="AJ9" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK9" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL9" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM9" s="30"/>
       <c r="AN9" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO9" s="17"/>
     </row>
@@ -9526,19 +9580,19 @@
         <v>20:09</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
@@ -9562,21 +9616,21 @@
       <c r="AF10" s="30"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL10" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM10" s="30"/>
       <c r="AN10" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO10" s="17"/>
     </row>
@@ -9610,13 +9664,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -9642,17 +9696,17 @@
       <c r="AF11" s="30"/>
       <c r="AG11" s="30"/>
       <c r="AH11" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" s="30"/>
       <c r="AL11" s="30"/>
       <c r="AM11" s="30"/>
       <c r="AN11" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO11" s="17"/>
     </row>
@@ -9686,13 +9740,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -9718,17 +9772,17 @@
       <c r="AF12" s="30"/>
       <c r="AG12" s="30"/>
       <c r="AH12" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="30"/>
       <c r="AM12" s="30"/>
       <c r="AN12" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO12" s="17"/>
     </row>
@@ -9762,19 +9816,19 @@
         <v>21:21</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
@@ -9798,32 +9852,32 @@
       <c r="AF13" s="30"/>
       <c r="AG13" s="30"/>
       <c r="AH13" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK13" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AL13" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM13" s="30"/>
       <c r="AN13" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO13" s="17"/>
     </row>
     <row r="14" spans="1:41" ht="15" thickBot="1">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="B14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C14" s="26">
         <f t="shared" si="2"/>
@@ -9831,33 +9885,35 @@
       </c>
       <c r="D14" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G14" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>22:17</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -9880,28 +9936,32 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI14" s="30"/>
       <c r="AJ14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM14" s="30"/>
       <c r="AN14" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO14" s="17"/>
     </row>
     <row r="15" spans="1:41" ht="15" thickBot="1">
       <c r="A15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="B15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C15" s="26">
         <f t="shared" si="2"/>
@@ -9909,33 +9969,35 @@
       </c>
       <c r="D15" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G15" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G15" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:33</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
@@ -9958,28 +10020,32 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="30"/>
       <c r="AH15" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI15" s="30"/>
       <c r="AJ15" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM15" s="30"/>
       <c r="AN15" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO15" s="17"/>
     </row>
     <row r="16" spans="1:41" ht="15" thickBot="1">
       <c r="A16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="B16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C16" s="26">
         <f t="shared" si="2"/>
@@ -9987,33 +10053,35 @@
       </c>
       <c r="D16" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G16" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:32</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -10036,28 +10104,32 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
       <c r="AH16" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI16" s="30"/>
       <c r="AJ16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK16" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL16" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM16" s="30"/>
       <c r="AN16" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="17"/>
     </row>
     <row r="17" spans="1:41" ht="15" thickBot="1">
       <c r="A17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="B17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="C17" s="26">
         <f t="shared" si="2"/>
@@ -10065,33 +10137,35 @@
       </c>
       <c r="D17" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:51</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
@@ -10114,17 +10188,21 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="30"/>
       <c r="AH17" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI17" s="30"/>
       <c r="AJ17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM17" s="30"/>
       <c r="AN17" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO17" s="17"/>
     </row>
@@ -10158,13 +10236,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
@@ -10190,17 +10268,17 @@
       <c r="AF18" s="30"/>
       <c r="AG18" s="30"/>
       <c r="AH18" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI18" s="30"/>
       <c r="AJ18" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK18" s="30"/>
       <c r="AL18" s="30"/>
       <c r="AM18" s="30"/>
       <c r="AN18" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO18" s="17"/>
     </row>
@@ -10234,13 +10312,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
@@ -10266,28 +10344,28 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK19" s="30"/>
       <c r="AL19" s="30"/>
       <c r="AM19" s="30"/>
       <c r="AN19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO19" s="17"/>
     </row>
     <row r="20" spans="1:41" ht="15" thickBot="1">
       <c r="A20" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="B20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C20" s="26">
         <f t="shared" si="2"/>
@@ -10295,33 +10373,35 @@
       </c>
       <c r="D20" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:16</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -10344,28 +10424,32 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="30"/>
       <c r="AH20" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI20" s="30"/>
       <c r="AJ20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK20" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL20" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM20" s="30"/>
       <c r="AN20" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO20" s="17"/>
     </row>
     <row r="21" spans="1:41" ht="15" thickBot="1">
       <c r="A21" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="B21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="C21" s="26">
         <f t="shared" si="2"/>
@@ -10373,33 +10457,35 @@
       </c>
       <c r="D21" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G21" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:34</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
@@ -10422,28 +10508,32 @@
       <c r="AF21" s="30"/>
       <c r="AG21" s="30"/>
       <c r="AH21" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI21" s="30"/>
       <c r="AJ21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK21" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL21" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM21" s="30"/>
       <c r="AN21" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO21" s="17"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="B22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C22" s="26">
         <f t="shared" si="2"/>
@@ -10451,33 +10541,35 @@
       </c>
       <c r="D22" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G22" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:41</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
@@ -10500,28 +10592,32 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="30"/>
       <c r="AH22" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI22" s="30"/>
       <c r="AJ22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK22" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL22" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO22" s="17"/>
     </row>
     <row r="23" spans="1:41" ht="15" thickBot="1">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="B23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="C23" s="26">
         <f t="shared" si="2"/>
@@ -10529,33 +10625,35 @@
       </c>
       <c r="D23" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G23" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:53</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -10578,28 +10676,32 @@
       <c r="AF23" s="30"/>
       <c r="AG23" s="30"/>
       <c r="AH23" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI23" s="30"/>
       <c r="AJ23" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL23" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO23" s="17"/>
     </row>
     <row r="24" spans="1:41" ht="15" thickBot="1">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="B24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C24" s="26">
         <f t="shared" si="2"/>
@@ -10607,33 +10709,35 @@
       </c>
       <c r="D24" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E24" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G24" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:47</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
@@ -10656,24 +10760,28 @@
       <c r="AF24" s="30"/>
       <c r="AG24" s="30"/>
       <c r="AH24" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI24" s="30"/>
       <c r="AJ24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK24" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL24" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO24" s="17"/>
     </row>
     <row r="25" spans="1:41" ht="15" thickBot="1">
       <c r="A25" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.85</v>
       </c>
       <c r="B25" s="26">
         <f t="shared" si="1"/>
@@ -10681,32 +10789,32 @@
       </c>
       <c r="C25" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="D25" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="E25" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G25" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G25" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:51</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -10732,17 +10840,21 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI25" s="30"/>
       <c r="AJ25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
+      <c r="AL25" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO25" s="17"/>
     </row>
@@ -10776,13 +10888,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -10808,28 +10920,28 @@
       <c r="AF26" s="30"/>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI26" s="30"/>
       <c r="AJ26" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK26" s="30"/>
       <c r="AL26" s="30"/>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO26" s="17"/>
     </row>
     <row r="27" spans="1:41" ht="15" thickBot="1">
       <c r="A27" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="B27" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C27" s="26">
         <f t="shared" si="2"/>
@@ -10837,33 +10949,35 @@
       </c>
       <c r="D27" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="E27" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="F27" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G27" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:07</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
@@ -10886,28 +11000,32 @@
       <c r="AF27" s="30"/>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI27" s="30"/>
       <c r="AJ27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK27" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL27" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO27" s="17"/>
     </row>
     <row r="28" spans="1:41" ht="15" thickBot="1">
       <c r="A28" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C28" s="26">
         <f t="shared" si="2"/>
@@ -10915,33 +11033,35 @@
       </c>
       <c r="D28" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="E28" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="F28" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G28" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:18</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
@@ -10964,28 +11084,32 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
       <c r="AH28" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI28" s="30"/>
       <c r="AJ28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="AK28" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM28" s="30"/>
       <c r="AN28" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO28" s="17"/>
     </row>
     <row r="29" spans="1:41" ht="15" thickBot="1">
       <c r="A29" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="B29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C29" s="26">
         <f t="shared" si="2"/>
@@ -10993,31 +11117,31 @@
       </c>
       <c r="D29" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="E29" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="F29" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G29" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:08</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>50</v>
+        <v>177</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -11042,28 +11166,28 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
       <c r="AH29" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI29" s="30"/>
       <c r="AJ29" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK29" s="30"/>
       <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO29" s="17"/>
     </row>
     <row r="30" spans="1:41" ht="15" thickBot="1">
       <c r="A30" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="B30" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C30" s="26">
         <f t="shared" si="2"/>
@@ -11071,31 +11195,31 @@
       </c>
       <c r="D30" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="E30" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G30" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:08</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>50</v>
+        <v>178</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
@@ -11120,17 +11244,17 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK30" s="30"/>
       <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO30" s="17"/>
     </row>
@@ -11149,31 +11273,31 @@
       </c>
       <c r="D31" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="E31" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="G31" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>17:08</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>50</v>
+        <v>179</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
@@ -11198,17 +11322,17 @@
       <c r="AF31" s="30"/>
       <c r="AG31" s="30"/>
       <c r="AH31" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI31" s="30"/>
       <c r="AJ31" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK31" s="30"/>
       <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO31" s="17"/>
     </row>
@@ -11242,13 +11366,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -11274,17 +11398,17 @@
       <c r="AF32" s="30"/>
       <c r="AG32" s="30"/>
       <c r="AH32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI32" s="30"/>
       <c r="AJ32" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO32" s="17"/>
     </row>
@@ -11318,13 +11442,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -11350,17 +11474,17 @@
       <c r="AF33" s="30"/>
       <c r="AG33" s="30"/>
       <c r="AH33" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI33" s="30"/>
       <c r="AJ33" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" s="30"/>
       <c r="AL33" s="30"/>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO33" s="17"/>
     </row>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
     <sheet name="2月" sheetId="27" r:id="rId2"/>
     <sheet name="3月" sheetId="30" r:id="rId3"/>
-    <sheet name="备份" sheetId="25" r:id="rId4"/>
-    <sheet name="隐藏" sheetId="28" state="hidden" r:id="rId5"/>
+    <sheet name="4月" sheetId="31" r:id="rId4"/>
+    <sheet name="备份" sheetId="25" r:id="rId5"/>
+    <sheet name="隐藏" sheetId="28" state="hidden" r:id="rId6"/>
+    <sheet name="工资" sheetId="32" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="274">
   <si>
     <t>工作日期 </t>
   </si>
@@ -624,14 +626,255 @@
   </si>
   <si>
     <t> 07:54,20:08 </t>
+  </si>
+  <si>
+    <t> 07:55,21:01 </t>
+  </si>
+  <si>
+    <t> 07:47,19:28 </t>
+  </si>
+  <si>
+    <t> 07:49,21:30 </t>
+  </si>
+  <si>
+    <t> 2019.04.02 </t>
+  </si>
+  <si>
+    <t> 2019.04.03 </t>
+  </si>
+  <si>
+    <t> 2019.04.04 </t>
+  </si>
+  <si>
+    <t> 2019.04.05 </t>
+  </si>
+  <si>
+    <t> 2019.04.06 </t>
+  </si>
+  <si>
+    <t> 2019.04.07 </t>
+  </si>
+  <si>
+    <t> 2019.04.08 </t>
+  </si>
+  <si>
+    <t> 2019.04.09 </t>
+  </si>
+  <si>
+    <t> 2019.04.10 </t>
+  </si>
+  <si>
+    <t> 2019.04.11 </t>
+  </si>
+  <si>
+    <t> 2019.04.12 </t>
+  </si>
+  <si>
+    <t> 2019.04.13 </t>
+  </si>
+  <si>
+    <t> 2019.04.14 </t>
+  </si>
+  <si>
+    <t> 2019.04.15 </t>
+  </si>
+  <si>
+    <t> 2019.04.16 </t>
+  </si>
+  <si>
+    <t> 2019.04.17 </t>
+  </si>
+  <si>
+    <t> 2019.04.18 </t>
+  </si>
+  <si>
+    <t> 2019.04.19 </t>
+  </si>
+  <si>
+    <t> 2019.04.20 </t>
+  </si>
+  <si>
+    <t> 2019.04.21 </t>
+  </si>
+  <si>
+    <t> 2019.04.22 </t>
+  </si>
+  <si>
+    <t> 2019.04.23 </t>
+  </si>
+  <si>
+    <t> 2019.04.24 </t>
+  </si>
+  <si>
+    <t> 2019.04.25 </t>
+  </si>
+  <si>
+    <t> 2019.04.26 </t>
+  </si>
+  <si>
+    <t> 2019.04.27 </t>
+  </si>
+  <si>
+    <t> 2019.04.28 </t>
+  </si>
+  <si>
+    <t> 2019.04.29 </t>
+  </si>
+  <si>
+    <t> 2019.04.30 </t>
+  </si>
+  <si>
+    <t> 07:42,20:56 </t>
+  </si>
+  <si>
+    <t> 07:47,20:10 </t>
+  </si>
+  <si>
+    <t> 07:53,20:35 </t>
+  </si>
+  <si>
+    <t> 07:43,21:30 </t>
+  </si>
+  <si>
+    <t> 07:44,21:22 </t>
+  </si>
+  <si>
+    <t> 07:55,20:53 </t>
+  </si>
+  <si>
+    <t>基本工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 07:54,21:08 </t>
+    <t>浮动工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 07:54,17:08 </t>
+    <t>应发工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位绩效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺勤扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 08:00,21:09 </t>
+  </si>
+  <si>
+    <t> 07:52,22:04 </t>
+  </si>
+  <si>
+    <t> 07:51,20:10 </t>
+  </si>
+  <si>
+    <t> 07:53,21:44 </t>
+  </si>
+  <si>
+    <t> 07:49,17:36 </t>
+  </si>
+  <si>
+    <t> 07:50,21:40 </t>
+  </si>
+  <si>
+    <t> 07:55,20:47 </t>
+  </si>
+  <si>
+    <t> 07:58,19:17 </t>
+  </si>
+  <si>
+    <t> 07:45,22:32 </t>
+  </si>
+  <si>
+    <t> 07:49,21:15 </t>
+  </si>
+  <si>
+    <t> 07:40,21:21 </t>
+  </si>
+  <si>
+    <t> 07:45,21:03 </t>
+  </si>
+  <si>
+    <t> 07:53,20:07 </t>
+  </si>
+  <si>
+    <t> 07:51,20:31 </t>
+  </si>
+  <si>
+    <t> 2019.04.01 </t>
+  </si>
+  <si>
+    <t> 07:48,17:56 </t>
+  </si>
+  <si>
+    <t> 07:45,21:02 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,8 +1359,20 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5043,7 +5298,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17:I20"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8768,11 +9023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8808,7 +9063,7 @@
       </c>
       <c r="B1" s="20">
         <f>ROUND(G1/60,2)</f>
-        <v>70.78</v>
+        <v>72.13</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>36</v>
@@ -8818,7 +9073,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="22">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>4247</v>
+        <v>4328</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="29"/>
@@ -11134,7 +11389,7 @@
       <c r="H29" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="30" t="s">
         <v>197</v>
       </c>
       <c r="J29" s="30" t="s">
@@ -11143,7 +11398,9 @@
       <c r="K29" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="30"/>
+      <c r="L29" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -11172,8 +11429,12 @@
       <c r="AJ29" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
+      <c r="AK29" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL29" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30" t="s">
         <v>47</v>
@@ -11183,11 +11444,11 @@
     <row r="30" spans="1:41" ht="15" thickBot="1">
       <c r="A30" s="25">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="B30" s="26">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C30" s="26">
         <f t="shared" si="2"/>
@@ -11195,11 +11456,11 @@
       </c>
       <c r="D30" s="26">
         <f t="shared" si="3"/>
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E30" s="26">
         <f t="shared" si="4"/>
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="5"/>
@@ -11207,12 +11468,12 @@
       </c>
       <c r="G30" s="27" t="str">
         <f t="shared" si="6"/>
-        <v>21:08</v>
+        <v>21:01</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="30" t="s">
         <v>198</v>
       </c>
       <c r="J30" s="30" t="s">
@@ -11221,7 +11482,9 @@
       <c r="K30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="30"/>
+      <c r="L30" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
@@ -11250,8 +11513,12 @@
       <c r="AJ30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
+      <c r="AK30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL30" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30" t="s">
         <v>47</v>
@@ -11261,11 +11528,11 @@
     <row r="31" spans="1:41" ht="15" thickBot="1">
       <c r="A31" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="B31" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C31" s="26">
         <f t="shared" si="2"/>
@@ -11273,11 +11540,11 @@
       </c>
       <c r="D31" s="26">
         <f t="shared" si="3"/>
-        <v>458</v>
+        <v>568</v>
       </c>
       <c r="E31" s="26">
         <f t="shared" si="4"/>
-        <v>1028</v>
+        <v>1168</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="5"/>
@@ -11285,12 +11552,12 @@
       </c>
       <c r="G31" s="27" t="str">
         <f t="shared" si="6"/>
-        <v>17:08</v>
+        <v>19:28</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="30" t="s">
         <v>199</v>
       </c>
       <c r="J31" s="30" t="s">
@@ -11299,7 +11566,9 @@
       <c r="K31" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="30"/>
+      <c r="L31" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
@@ -11328,7 +11597,9 @@
       <c r="AJ31" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AK31" s="30"/>
+      <c r="AK31" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30" t="s">
@@ -12474,11 +12745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="AE21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12514,7 +12785,7 @@
       </c>
       <c r="B1" s="20">
         <f>ROUND(G1/60,2)</f>
-        <v>0</v>
+        <v>71.63</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>36</v>
@@ -12524,7 +12795,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="22">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>4298</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="29"/>
@@ -12684,14 +12955,14 @@
       </c>
       <c r="AO2" s="17"/>
     </row>
-    <row r="3" spans="1:41" ht="14.25">
+    <row r="3" spans="1:41" ht="15" thickBot="1">
       <c r="A3" s="25">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="B3" s="26">
         <f>IF(AND(D3&gt;(8*60),F3=0),D3-(8*60),0)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C3" s="26">
         <f>IF(AND(F3=1,D3&gt;0),D3,0)</f>
@@ -12699,63 +12970,83 @@
       </c>
       <c r="D3" s="26">
         <f>IF(E3=0,0,IF(E3&lt;(11*60+30),(E3-(8*60+30)),IF(E3&lt;(17*60+30),E3-(12*60+30)+3*60,E3-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="E3" s="26">
         <f>IF(G3&gt;0,MID(G3,1,2)*60+MID(G3,4,2),0)</f>
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="F3" s="26">
         <f>IF(MID(AJ3,2,3)="工作日",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27" t="str">
         <f>IF(LEN(CLEAN(I3))=13,MID(I3,8,5),IF(LEN(CLEAN(I3))=19,MID(I3,14,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="6"/>
+        <v>21:30</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="AO3" s="17"/>
     </row>
-    <row r="4" spans="1:41" ht="14.25">
+    <row r="4" spans="1:41" ht="15" thickBot="1">
       <c r="A4" s="25">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="B4" s="26">
         <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),F4=0),D4-(8*60),0)</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C48" si="2">IF(AND(F4=1,D4&gt;0),D4,0)</f>
@@ -12763,1909 +13054,2391 @@
       </c>
       <c r="D4" s="26">
         <f t="shared" ref="D4:D48" si="3">IF(E4=0,0,IF(E4&lt;(11*60+30),(E4-(8*60+30)),IF(E4&lt;(17*60+30),E4-(12*60+30)+3*60,E4-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E4" s="26">
         <f t="shared" ref="E4:E48" si="4">IF(G4&gt;0,MID(G4,1,2)*60+MID(G4,4,2),0)</f>
-        <v>0</v>
+        <v>1256</v>
       </c>
       <c r="F4" s="26">
         <f t="shared" ref="F4:F48" si="5">IF(MID(AJ4,2,3)="工作日",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="27" t="str">
+        <f t="shared" ref="G4:G48" si="6">IF(LEN(CLEAN(I4))=13,MID(I4,8,5),IF(LEN(CLEAN(I4))=19,MID(I4,14,5),0))</f>
+        <v>20:56</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO4" s="17"/>
+    </row>
+    <row r="5" spans="1:41" ht="15" thickBot="1">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="B5" s="26">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="4"/>
+        <v>1210</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:10</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK5" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="17"/>
+    </row>
+    <row r="6" spans="1:41" ht="15" thickBot="1">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+      <c r="B6" s="26">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="3"/>
+        <v>635</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="4"/>
+        <v>1235</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:35</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK6" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO6" s="17"/>
+    </row>
+    <row r="7" spans="1:41" ht="15" thickBot="1">
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="4"/>
+        <v>1290</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G4" s="27">
-        <f t="shared" ref="G4:G48" si="6">IF(LEN(CLEAN(I4))=13,MID(I4,8,5),IF(LEN(CLEAN(I4))=19,MID(I4,14,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="17"/>
-    </row>
-    <row r="5" spans="1:41" ht="14.25">
-      <c r="A5" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B5" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
+      <c r="G7" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:30</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" ht="15" thickBot="1">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G5" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="17"/>
-    </row>
-    <row r="6" spans="1:41" ht="14.25">
-      <c r="A6" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B6" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
+      <c r="G8" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO8" s="17"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" thickBot="1">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G6" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="17"/>
-    </row>
-    <row r="7" spans="1:41" ht="14.25">
-      <c r="A7" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B7" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="G9" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO9" s="17"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" thickBot="1">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>3.37</v>
+      </c>
+      <c r="B10" s="26">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="3"/>
+        <v>682</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="4"/>
+        <v>1282</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:22</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:41" ht="15" thickBot="1">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="B11" s="26">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="3"/>
+        <v>653</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="4"/>
+        <v>1253</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:53</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO11" s="17"/>
+    </row>
+    <row r="12" spans="1:41" ht="15" thickBot="1">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="3"/>
+        <v>669</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="4"/>
+        <v>1269</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:09</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO12" s="17"/>
+    </row>
+    <row r="13" spans="1:41" ht="15" thickBot="1">
+      <c r="A13" s="25">
+        <f t="shared" si="0"/>
+        <v>4.07</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="3"/>
+        <v>724</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="4"/>
+        <v>1324</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>22:04</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO13" s="17"/>
+    </row>
+    <row r="14" spans="1:41" ht="15" thickBot="1">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="B14" s="26">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="4"/>
+        <v>1210</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:10</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO14" s="17"/>
+    </row>
+    <row r="15" spans="1:41" ht="15" thickBot="1">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G7" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="17"/>
-    </row>
-    <row r="8" spans="1:41" ht="14.25">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="G15" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO15" s="17"/>
+    </row>
+    <row r="16" spans="1:41" ht="15" thickBot="1">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G8" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="17"/>
-    </row>
-    <row r="9" spans="1:41" ht="14.25">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="G16" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO16" s="17"/>
+    </row>
+    <row r="17" spans="1:41" ht="15" thickBot="1">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>3.73</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="4"/>
+        <v>1304</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:44</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO17" s="17"/>
+    </row>
+    <row r="18" spans="1:41" ht="15" thickBot="1">
+      <c r="A18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>17:36</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK18" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="1:41" ht="15" thickBot="1">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:40</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO19" s="17"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" thickBot="1">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>2.78</v>
+      </c>
+      <c r="B20" s="26">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="3"/>
+        <v>647</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>1247</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:47</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO20" s="17"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" thickBot="1">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="4"/>
+        <v>1157</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>19:17</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK21" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO21" s="17"/>
+    </row>
+    <row r="22" spans="1:41" ht="15" thickBot="1">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G9" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="17"/>
-    </row>
-    <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="G22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO22" s="17"/>
+    </row>
+    <row r="23" spans="1:41" ht="15" thickBot="1">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G10" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="17"/>
-    </row>
-    <row r="11" spans="1:41" ht="14.25">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="G23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO23" s="17"/>
+    </row>
+    <row r="24" spans="1:41" ht="15" thickBot="1">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>4.53</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="4"/>
+        <v>1352</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>22:32</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK24" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO24" s="17"/>
+    </row>
+    <row r="25" spans="1:41" ht="15" thickBot="1">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="4"/>
+        <v>1275</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:15</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK25" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO25" s="17"/>
+    </row>
+    <row r="26" spans="1:41" ht="15" thickBot="1">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>3.35</v>
+      </c>
+      <c r="B26" s="26">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="3"/>
+        <v>681</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="4"/>
+        <v>1281</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:21</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO26" s="17"/>
+    </row>
+    <row r="27" spans="1:41" ht="15" thickBot="1">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>3.05</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="3"/>
+        <v>663</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="4"/>
+        <v>1263</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:03</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK27" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="1:41" ht="15" thickBot="1">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+      <c r="B28" s="26">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="3"/>
+        <v>607</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="4"/>
+        <v>1207</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:07</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK28" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO28" s="17"/>
+    </row>
+    <row r="29" spans="1:41" ht="15" thickBot="1">
+      <c r="A29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G11" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="17"/>
-    </row>
-    <row r="12" spans="1:41" ht="14.25">
-      <c r="A12" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="G29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO29" s="17"/>
+    </row>
+    <row r="30" spans="1:41" ht="15" thickBot="1">
+      <c r="A30" s="25">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="B30" s="26">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="3"/>
+        <v>631</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="4"/>
+        <v>1231</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:31</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO30" s="17"/>
+    </row>
+    <row r="31" spans="1:41" ht="15" thickBot="1">
+      <c r="A31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="4"/>
+        <v>1076</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>17:56</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK31" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="1:41" ht="15" thickBot="1">
+      <c r="A32" s="25">
+        <f t="shared" si="0"/>
+        <v>3.03</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="3"/>
+        <v>662</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="4"/>
+        <v>1262</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:02</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK32" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL32" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO32" s="17"/>
+    </row>
+    <row r="33" spans="1:41" ht="14.25" thickBot="1">
+      <c r="A33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="17"/>
-    </row>
-    <row r="13" spans="1:41" ht="14.25">
-      <c r="A13" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G13" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="17"/>
-    </row>
-    <row r="14" spans="1:41" ht="14.25">
-      <c r="A14" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="17"/>
-    </row>
-    <row r="15" spans="1:41" ht="14.25">
-      <c r="A15" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="17"/>
-    </row>
-    <row r="16" spans="1:41" ht="14.25">
-      <c r="A16" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="17"/>
-    </row>
-    <row r="17" spans="1:41" ht="14.25">
-      <c r="A17" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="17"/>
-    </row>
-    <row r="18" spans="1:41" ht="14.25">
-      <c r="A18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="17"/>
-    </row>
-    <row r="19" spans="1:41" ht="14.25">
-      <c r="A19" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="17"/>
-    </row>
-    <row r="20" spans="1:41" ht="14.25">
-      <c r="A20" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="17"/>
-    </row>
-    <row r="21" spans="1:41" ht="14.25">
-      <c r="A21" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="17"/>
-    </row>
-    <row r="22" spans="1:41" ht="14.25">
-      <c r="A22" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="17"/>
-    </row>
-    <row r="23" spans="1:41" ht="14.25">
-      <c r="A23" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="17"/>
-    </row>
-    <row r="24" spans="1:41" ht="14.25">
-      <c r="A24" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="17"/>
-    </row>
-    <row r="25" spans="1:41" ht="14.25">
-      <c r="A25" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="17"/>
-    </row>
-    <row r="26" spans="1:41" ht="14.25">
-      <c r="A26" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="17"/>
-    </row>
-    <row r="27" spans="1:41" ht="14.25">
-      <c r="A27" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="17"/>
-    </row>
-    <row r="28" spans="1:41" ht="14.25">
-      <c r="A28" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="17"/>
-    </row>
-    <row r="29" spans="1:41" ht="14.25">
-      <c r="A29" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="17"/>
-    </row>
-    <row r="30" spans="1:41" ht="14.25">
-      <c r="A30" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="17"/>
-    </row>
-    <row r="31" spans="1:41" ht="14.25">
-      <c r="A31" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="17"/>
-    </row>
-    <row r="32" spans="1:41" ht="14.25">
-      <c r="A32" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="17"/>
-    </row>
-    <row r="33" spans="1:41" ht="14.25">
-      <c r="A33" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="G33" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="9"/>
+      <c r="H33" s="32"/>
       <c r="AO33" s="17"/>
     </row>
     <row r="34" spans="1:41">
@@ -15687,10 +16460,10 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15699,10 +16472,12 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="12.125" customWidth="1"/>
     <col min="27" max="27" width="11.375" customWidth="1"/>
@@ -15711,6 +16486,7 @@
     <col min="30" max="30" width="14.375" customWidth="1"/>
     <col min="31" max="31" width="13.125" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
     <col min="35" max="35" width="12.25" customWidth="1"/>
     <col min="39" max="39" width="12.25" customWidth="1"/>
     <col min="40" max="40" width="14.25" customWidth="1"/>
@@ -18889,4 +19665,3842 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="11.375" customWidth="1"/>
+    <col min="28" max="28" width="13.25" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="14.375" customWidth="1"/>
+    <col min="31" max="31" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="35" max="35" width="12.25" customWidth="1"/>
+    <col min="39" max="39" width="12.25" customWidth="1"/>
+    <col min="40" max="40" width="14.25" customWidth="1"/>
+    <col min="41" max="41" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20">
+        <f>ROUND(G1/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="22">
+        <f>SUM(B3:B37)+SUM(C3:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="17"/>
+    </row>
+    <row r="2" spans="1:41" ht="15" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="17"/>
+    </row>
+    <row r="3" spans="1:41" ht="14.25">
+      <c r="A3" s="25">
+        <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="26">
+        <f>IF(AND(D3&gt;(8*60),F3=0),D3-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <f>IF(AND(F3=1,D3&gt;0),D3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <f>IF(E3=0,0,IF(E3&lt;(11*60+30),(E3-(8*60+30)),IF(E3&lt;(17*60+30),E3-(12*60+30)+3*60,E3-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>IF(G3&gt;0,MID(G3,1,2)*60+MID(G3,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>IF(MID(AJ3,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <f>IF(LEN(CLEAN(I3))=13,MID(I3,8,5),IF(LEN(CLEAN(I3))=19,MID(I3,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="17"/>
+    </row>
+    <row r="4" spans="1:41" ht="14.25">
+      <c r="A4" s="25">
+        <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),F4=0),D4-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" ref="C4:C48" si="2">IF(AND(F4=1,D4&gt;0),D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" ref="D4:D48" si="3">IF(E4=0,0,IF(E4&lt;(11*60+30),(E4-(8*60+30)),IF(E4&lt;(17*60+30),E4-(12*60+30)+3*60,E4-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E48" si="4">IF(G4&gt;0,MID(G4,1,2)*60+MID(G4,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f t="shared" ref="F4:F48" si="5">IF(MID(AJ4,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G48" si="6">IF(LEN(CLEAN(I4))=13,MID(I4,8,5),IF(LEN(CLEAN(I4))=19,MID(I4,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="17"/>
+    </row>
+    <row r="5" spans="1:41" ht="14.25">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="17"/>
+    </row>
+    <row r="6" spans="1:41" ht="14.25">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="17"/>
+    </row>
+    <row r="7" spans="1:41" ht="14.25">
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" ht="14.25">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="17"/>
+    </row>
+    <row r="9" spans="1:41" ht="14.25">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="17"/>
+    </row>
+    <row r="10" spans="1:41" ht="14.25">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:41" ht="14.25">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="17"/>
+    </row>
+    <row r="12" spans="1:41" ht="14.25">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="17"/>
+    </row>
+    <row r="13" spans="1:41" ht="14.25">
+      <c r="A13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="17"/>
+    </row>
+    <row r="14" spans="1:41" ht="14.25">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="17"/>
+    </row>
+    <row r="15" spans="1:41" ht="14.25">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="17"/>
+    </row>
+    <row r="16" spans="1:41" ht="14.25">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="17"/>
+    </row>
+    <row r="17" spans="1:41" ht="14.25">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="17"/>
+    </row>
+    <row r="18" spans="1:41" ht="14.25">
+      <c r="A18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="1:41" ht="14.25">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="17"/>
+    </row>
+    <row r="20" spans="1:41" ht="14.25">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="17"/>
+    </row>
+    <row r="21" spans="1:41" ht="14.25">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="17"/>
+    </row>
+    <row r="22" spans="1:41" ht="14.25">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="17"/>
+    </row>
+    <row r="23" spans="1:41" ht="14.25">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="17"/>
+    </row>
+    <row r="24" spans="1:41" ht="14.25">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="17"/>
+    </row>
+    <row r="25" spans="1:41" ht="14.25">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="17"/>
+    </row>
+    <row r="26" spans="1:41" ht="14.25">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="17"/>
+    </row>
+    <row r="27" spans="1:41" ht="14.25">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="1:41" ht="14.25">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="17"/>
+    </row>
+    <row r="29" spans="1:41" ht="14.25">
+      <c r="A29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="17"/>
+    </row>
+    <row r="30" spans="1:41" ht="14.25">
+      <c r="A30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="17"/>
+    </row>
+    <row r="31" spans="1:41" ht="14.25">
+      <c r="A31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="1:41" ht="14.25">
+      <c r="A32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="17"/>
+    </row>
+    <row r="33" spans="1:41" ht="14.25">
+      <c r="A33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="17"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="17"/>
+    </row>
+    <row r="35" spans="1:41" ht="14.25">
+      <c r="A35" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="17"/>
+    </row>
+    <row r="36" spans="1:41" ht="14.25">
+      <c r="A36" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="17"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="17"/>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="17"/>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="17"/>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="17"/>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="17"/>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="17"/>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B43" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="17"/>
+    </row>
+    <row r="44" spans="1:41">
+      <c r="A44" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="17"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="17"/>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="17"/>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="17"/>
+    </row>
+    <row r="48" spans="1:41" ht="14.25" thickBot="1">
+      <c r="A48" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="17"/>
+    </row>
+    <row r="49" spans="1:41">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="C6C6" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange sqref="H3:AN48" name="编辑"/>
+  </protectedRanges>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="37">
+        <v>43435</v>
+      </c>
+      <c r="B2" s="35">
+        <v>9480</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35">
+        <v>9480</v>
+      </c>
+      <c r="E2" s="36">
+        <v>6320</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1200</v>
+      </c>
+      <c r="K2" s="36">
+        <v>330</v>
+      </c>
+      <c r="L2" s="36">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <v>17330</v>
+      </c>
+      <c r="N2" s="36">
+        <v>758.4</v>
+      </c>
+      <c r="O2" s="36">
+        <v>16.7</v>
+      </c>
+      <c r="P2" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>850</v>
+      </c>
+      <c r="R2" s="36">
+        <v>0</v>
+      </c>
+      <c r="S2" s="36">
+        <v>0</v>
+      </c>
+      <c r="T2" s="36">
+        <v>320.95</v>
+      </c>
+      <c r="U2" s="36">
+        <v>15377.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="37">
+        <v>43466</v>
+      </c>
+      <c r="B3" s="35">
+        <v>9480</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <v>9480</v>
+      </c>
+      <c r="E3" s="36">
+        <v>6320</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1634.48</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="36">
+        <v>285</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36">
+        <v>18919.48</v>
+      </c>
+      <c r="N3" s="36">
+        <v>758.4</v>
+      </c>
+      <c r="O3" s="36">
+        <v>16.7</v>
+      </c>
+      <c r="P3" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>850</v>
+      </c>
+      <c r="R3" s="36">
+        <v>0</v>
+      </c>
+      <c r="S3" s="36">
+        <v>0</v>
+      </c>
+      <c r="T3" s="36">
+        <v>368.63</v>
+      </c>
+      <c r="U3" s="36">
+        <v>16919.150000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="37">
+        <v>43497</v>
+      </c>
+      <c r="B4" s="35">
+        <v>9480</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>9480</v>
+      </c>
+      <c r="E4" s="36">
+        <v>6320</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="36">
+        <v>255</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0</v>
+      </c>
+      <c r="M4" s="36">
+        <v>17255</v>
+      </c>
+      <c r="N4" s="36">
+        <v>758.4</v>
+      </c>
+      <c r="O4" s="36">
+        <v>16.7</v>
+      </c>
+      <c r="P4" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>850</v>
+      </c>
+      <c r="R4" s="36">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36">
+        <v>0</v>
+      </c>
+      <c r="T4" s="36">
+        <v>318.7</v>
+      </c>
+      <c r="U4" s="36">
+        <v>15304.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="37">
+        <v>43525</v>
+      </c>
+      <c r="B5" s="35">
+        <v>9480</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>9480</v>
+      </c>
+      <c r="E5" s="36">
+        <v>6320</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1200</v>
+      </c>
+      <c r="K5" s="36">
+        <v>382.5</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
+        <v>17382.5</v>
+      </c>
+      <c r="N5" s="36">
+        <v>758.4</v>
+      </c>
+      <c r="O5" s="36">
+        <v>16.7</v>
+      </c>
+      <c r="P5" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>850</v>
+      </c>
+      <c r="R5" s="36">
+        <v>0</v>
+      </c>
+      <c r="S5" s="36">
+        <v>0</v>
+      </c>
+      <c r="T5" s="36">
+        <v>907.4</v>
+      </c>
+      <c r="U5" s="36">
+        <v>14843.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="37">
+        <v>43556</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="37">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="37">
+        <v>43617</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="37">
+        <v>43647</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="37">
+        <v>43678</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="37">
+        <v>43709</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="37">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="37">
+        <v>43770</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="37">
+        <v>43800</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="37">
+        <v>43831</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="37">
+        <v>43862</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="37">
+        <v>43891</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="37">
+        <v>43922</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="37">
+        <v>43952</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="37">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="37">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="37">
+        <v>44044</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="37">
+        <v>44075</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="37">
+        <v>44105</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="37">
+        <v>44136</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="37">
+        <v>44166</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="37">
+        <v>44197</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="37">
+        <v>44228</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="37">
+        <v>44256</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="37">
+        <v>44287</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="37">
+        <v>44348</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="37">
+        <v>44378</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="37">
+        <v>44409</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="37">
+        <v>44440</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="37">
+        <v>44470</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
     <sheet name="2月" sheetId="27" r:id="rId2"/>
     <sheet name="3月" sheetId="30" r:id="rId3"/>
     <sheet name="4月" sheetId="31" r:id="rId4"/>
-    <sheet name="备份" sheetId="25" r:id="rId5"/>
-    <sheet name="隐藏" sheetId="28" state="hidden" r:id="rId6"/>
-    <sheet name="工资" sheetId="32" state="hidden" r:id="rId7"/>
+    <sheet name="5月" sheetId="33" r:id="rId5"/>
+    <sheet name="备份" sheetId="25" r:id="rId6"/>
+    <sheet name="隐藏" sheetId="28" state="hidden" r:id="rId7"/>
+    <sheet name="工资" sheetId="32" state="hidden" r:id="rId8"/>
+    <sheet name="temp" sheetId="34" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="320">
   <si>
     <t>工作日期 </t>
   </si>
@@ -868,13 +870,154 @@
     <t> 07:51,20:31 </t>
   </si>
   <si>
-    <t> 2019.04.01 </t>
-  </si>
-  <si>
     <t> 07:48,17:56 </t>
   </si>
   <si>
-    <t> 07:45,21:02 </t>
+    <t>2019.04.01 </t>
+  </si>
+  <si>
+    <t> 08:04,21:02 </t>
+  </si>
+  <si>
+    <t> 2019.05.02 </t>
+  </si>
+  <si>
+    <t> 2019.05.03 </t>
+  </si>
+  <si>
+    <t> 2019.05.04 </t>
+  </si>
+  <si>
+    <t> 2019.05.05 </t>
+  </si>
+  <si>
+    <t> 2019.05.06 </t>
+  </si>
+  <si>
+    <t> 2019.05.10 </t>
+  </si>
+  <si>
+    <t> 2019.05.11 </t>
+  </si>
+  <si>
+    <t> 2019.05.12 </t>
+  </si>
+  <si>
+    <t> 2019.05.17 </t>
+  </si>
+  <si>
+    <t> 2019.05.18 </t>
+  </si>
+  <si>
+    <t> 2019.05.19 </t>
+  </si>
+  <si>
+    <t> 2019.05.20 </t>
+  </si>
+  <si>
+    <t> 2019.05.21 </t>
+  </si>
+  <si>
+    <t> 2019.05.22 </t>
+  </si>
+  <si>
+    <t> 2019.05.23 </t>
+  </si>
+  <si>
+    <t> 2019.05.24 </t>
+  </si>
+  <si>
+    <t> 2019.05.25 </t>
+  </si>
+  <si>
+    <t> 2019.05.26 </t>
+  </si>
+  <si>
+    <t> 2019.05.27 </t>
+  </si>
+  <si>
+    <t> 2019.05.28 </t>
+  </si>
+  <si>
+    <t> 2019.05.29 </t>
+  </si>
+  <si>
+    <t> 2019.05.30 </t>
+  </si>
+  <si>
+    <t> 2019.05.31 </t>
+  </si>
+  <si>
+    <t> 07:52,20:58 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 07:49,21:17 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 2019.05.01 </t>
+  </si>
+  <si>
+    <t> 07:49,20:48 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.05.07 </t>
+  </si>
+  <si>
+    <t> 07:53,18:11 </t>
+  </si>
+  <si>
+    <t>2019.05.08 </t>
+  </si>
+  <si>
+    <t> 07:43,21:23 </t>
+  </si>
+  <si>
+    <t>2019.05.09 </t>
+  </si>
+  <si>
+    <t> 07:54,21:13 </t>
+  </si>
+  <si>
+    <t> 07:54,19:40 </t>
+  </si>
+  <si>
+    <t> 2018.12.03</t>
+  </si>
+  <si>
+    <t>2019.05.13 </t>
+  </si>
+  <si>
+    <t> 07:43,21:03 </t>
+  </si>
+  <si>
+    <t>2019.05.14 </t>
+  </si>
+  <si>
+    <t> 07:52,21:04 </t>
+  </si>
+  <si>
+    <t>2019.05.15 </t>
+  </si>
+  <si>
+    <t> 07:59,21:13 </t>
+  </si>
+  <si>
+    <t>2019.05.16 </t>
+  </si>
+  <si>
+    <t> 07:49,21:09 </t>
+  </si>
+  <si>
+    <t> 08:02,18:14 </t>
+  </si>
+  <si>
+    <t> 07:49,20:40 </t>
+  </si>
+  <si>
+    <t> 08:02,14:00 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +1025,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +1105,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1229,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,11 +1518,14 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12745,11 +12898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AE21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL32" sqref="AL32"/>
+      <selection pane="bottomRight" activeCell="I29" activeCellId="1" sqref="H3:AN33 I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12985,7 +13138,7 @@
         <v>21:30</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>200</v>
@@ -15276,7 +15429,7 @@
         <v>228</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>43</v>
@@ -15357,7 +15510,7 @@
       <c r="H32" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="30" t="s">
         <v>273</v>
       </c>
       <c r="J32" s="30" t="s">
@@ -15366,15 +15519,15 @@
       <c r="K32" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="31" t="s">
         <v>51</v>
       </c>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
-      <c r="O32" s="31"/>
+      <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
+      <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
@@ -15397,10 +15550,10 @@
       <c r="AJ32" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AK32" s="39" t="s">
+      <c r="AK32" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AL32" s="39" t="s">
+      <c r="AL32" s="31" t="s">
         <v>51</v>
       </c>
       <c r="AM32" s="30"/>
@@ -16459,11 +16612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16499,7 +16652,7 @@
       </c>
       <c r="B1" s="20">
         <f>ROUND(G1/60,2)</f>
-        <v>0</v>
+        <v>45.38</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>36</v>
@@ -16509,7 +16662,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="22">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>2723</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="29"/>
@@ -16669,10 +16822,10 @@
       </c>
       <c r="AO2" s="17"/>
     </row>
-    <row r="3" spans="1:41" ht="14.25">
+    <row r="3" spans="1:41" ht="15" thickBot="1">
       <c r="A3" s="25">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="B3" s="26">
         <f>IF(AND(D3&gt;(8*60),F3=0),D3-(8*60),0)</f>
@@ -16680,60 +16833,74 @@
       </c>
       <c r="C3" s="26">
         <f>IF(AND(F3=1,D3&gt;0),D3,0)</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="D3" s="26">
         <f>IF(E3=0,0,IF(E3&lt;(11*60+30),(E3-(8*60+30)),IF(E3&lt;(17*60+30),E3-(12*60+30)+3*60,E3-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="E3" s="26">
         <f>IF(G3&gt;0,MID(G3,1,2)*60+MID(G3,4,2),0)</f>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="F3" s="26">
         <f>IF(MID(AJ3,2,3)="工作日",0,1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="27" t="str">
         <f>IF(LEN(CLEAN(I3))=13,MID(I3,8,5),IF(LEN(CLEAN(I3))=19,MID(I3,14,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="6"/>
+        <v>20:58</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="AO3" s="17"/>
     </row>
-    <row r="4" spans="1:41" ht="14.25">
+    <row r="4" spans="1:41" ht="15" thickBot="1">
       <c r="A4" s="25">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
         <v>0</v>
@@ -16762,42 +16929,52 @@
         <f t="shared" ref="G4:G48" si="6">IF(LEN(CLEAN(I4))=13,MID(I4,8,5),IF(LEN(CLEAN(I4))=19,MID(I4,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="9"/>
+      <c r="H4" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="AO4" s="17"/>
     </row>
-    <row r="5" spans="1:41" ht="14.25">
+    <row r="5" spans="1:41" ht="15" thickBot="1">
       <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16826,42 +17003,54 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="9"/>
+      <c r="H5" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="AO5" s="17"/>
     </row>
-    <row r="6" spans="1:41" ht="14.25">
+    <row r="6" spans="1:41" ht="15" thickBot="1">
       <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16890,49 +17079,61 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="9"/>
+      <c r="H6" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="AO6" s="17"/>
     </row>
-    <row r="7" spans="1:41" ht="14.25">
+    <row r="7" spans="1:41" ht="15" thickBot="1">
       <c r="A7" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="B7" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="C7" s="26">
         <f t="shared" si="2"/>
@@ -16940,1781 +17141,2111 @@
       </c>
       <c r="D7" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:17</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" ht="15" thickBot="1">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="26">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="3"/>
+        <v>648</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="4"/>
+        <v>1248</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:48</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO8" s="17"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" thickBot="1">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="4"/>
+        <v>1091</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>18:11</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO9" s="17"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" thickBot="1">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>3.38</v>
+      </c>
+      <c r="B10" s="26">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="3"/>
+        <v>683</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="4"/>
+        <v>1283</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:23</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:41" ht="15" thickBot="1">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>3.22</v>
+      </c>
+      <c r="B11" s="26">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="3"/>
+        <v>673</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="4"/>
+        <v>1273</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:13</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO11" s="17"/>
+    </row>
+    <row r="12" spans="1:41" ht="15" thickBot="1">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="4"/>
+        <v>1180</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>19:40</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO12" s="17"/>
+    </row>
+    <row r="13" spans="1:41" ht="15" thickBot="1">
+      <c r="A13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G7" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="17"/>
-    </row>
-    <row r="8" spans="1:41" ht="14.25">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="G13" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO13" s="17"/>
+    </row>
+    <row r="14" spans="1:41" ht="15" thickBot="1">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G8" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="17"/>
-    </row>
-    <row r="9" spans="1:41" ht="14.25">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="G14" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO14" s="17"/>
+    </row>
+    <row r="15" spans="1:41" ht="15" thickBot="1">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.05</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="3"/>
+        <v>663</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="4"/>
+        <v>1263</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:03</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO15" s="17"/>
+    </row>
+    <row r="16" spans="1:41" ht="15" thickBot="1">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>3.07</v>
+      </c>
+      <c r="B16" s="26">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="3"/>
+        <v>664</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="4"/>
+        <v>1264</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:04</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO16" s="17"/>
+    </row>
+    <row r="17" spans="1:41" ht="15" thickBot="1">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>3.22</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="3"/>
+        <v>673</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="4"/>
+        <v>1273</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:13</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO17" s="17"/>
+    </row>
+    <row r="18" spans="1:41" ht="15" thickBot="1">
+      <c r="A18" s="25">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="3"/>
+        <v>669</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="4"/>
+        <v>1269</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>21:09</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="1:41" ht="15" thickBot="1">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>1094</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>18:14</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO19" s="17"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" thickBot="1">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="B20" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="F20" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G9" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="17"/>
-    </row>
-    <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>14:00</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO20" s="17"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" thickBot="1">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G10" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="17"/>
-    </row>
-    <row r="11" spans="1:41" ht="14.25">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="G21" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO21" s="17"/>
+    </row>
+    <row r="22" spans="1:41" ht="15" thickBot="1">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>2.67</v>
+      </c>
+      <c r="B22" s="26">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="4"/>
+        <v>1240</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v>20:40</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO22" s="17"/>
+    </row>
+    <row r="23" spans="1:41" ht="15" thickBot="1">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO23" s="17"/>
+    </row>
+    <row r="24" spans="1:41" ht="15" thickBot="1">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO24" s="17"/>
+    </row>
+    <row r="25" spans="1:41" ht="15" thickBot="1">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO25" s="17"/>
+    </row>
+    <row r="26" spans="1:41" ht="15" thickBot="1">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO26" s="17"/>
+    </row>
+    <row r="27" spans="1:41" ht="15" thickBot="1">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G11" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="17"/>
-    </row>
-    <row r="12" spans="1:41" ht="14.25">
-      <c r="A12" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="G27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="1:41" ht="15" thickBot="1">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="17"/>
-    </row>
-    <row r="13" spans="1:41" ht="14.25">
-      <c r="A13" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="26">
+      <c r="G28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO28" s="17"/>
+    </row>
+    <row r="29" spans="1:41" ht="15" thickBot="1">
+      <c r="A29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO29" s="17"/>
+    </row>
+    <row r="30" spans="1:41" ht="15" thickBot="1">
+      <c r="A30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO30" s="17"/>
+    </row>
+    <row r="31" spans="1:41" ht="15" thickBot="1">
+      <c r="A31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="1:41" ht="15" thickBot="1">
+      <c r="A32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO32" s="17"/>
+    </row>
+    <row r="33" spans="1:41" ht="15" thickBot="1">
+      <c r="A33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO33" s="17"/>
+    </row>
+    <row r="34" spans="1:41" ht="14.25" thickBot="1">
+      <c r="A34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="17"/>
-    </row>
-    <row r="14" spans="1:41" ht="14.25">
-      <c r="A14" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B14" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="17"/>
-    </row>
-    <row r="15" spans="1:41" ht="14.25">
-      <c r="A15" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="17"/>
-    </row>
-    <row r="16" spans="1:41" ht="14.25">
-      <c r="A16" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="17"/>
-    </row>
-    <row r="17" spans="1:41" ht="14.25">
-      <c r="A17" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="17"/>
-    </row>
-    <row r="18" spans="1:41" ht="14.25">
-      <c r="A18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B18" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="17"/>
-    </row>
-    <row r="19" spans="1:41" ht="14.25">
-      <c r="A19" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="17"/>
-    </row>
-    <row r="20" spans="1:41" ht="14.25">
-      <c r="A20" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B20" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="17"/>
-    </row>
-    <row r="21" spans="1:41" ht="14.25">
-      <c r="A21" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B21" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G21" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="17"/>
-    </row>
-    <row r="22" spans="1:41" ht="14.25">
-      <c r="A22" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="17"/>
-    </row>
-    <row r="23" spans="1:41" ht="14.25">
-      <c r="A23" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B23" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="17"/>
-    </row>
-    <row r="24" spans="1:41" ht="14.25">
-      <c r="A24" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B24" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="17"/>
-    </row>
-    <row r="25" spans="1:41" ht="14.25">
-      <c r="A25" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="17"/>
-    </row>
-    <row r="26" spans="1:41" ht="14.25">
-      <c r="A26" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B26" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G26" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="17"/>
-    </row>
-    <row r="27" spans="1:41" ht="14.25">
-      <c r="A27" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B27" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="17"/>
-    </row>
-    <row r="28" spans="1:41" ht="14.25">
-      <c r="A28" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="17"/>
-    </row>
-    <row r="29" spans="1:41" ht="14.25">
-      <c r="A29" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B29" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="17"/>
-    </row>
-    <row r="30" spans="1:41" ht="14.25">
-      <c r="A30" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B30" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="17"/>
-    </row>
-    <row r="31" spans="1:41" ht="14.25">
-      <c r="A31" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="17"/>
-    </row>
-    <row r="32" spans="1:41" ht="14.25">
-      <c r="A32" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="17"/>
-    </row>
-    <row r="33" spans="1:41" ht="14.25">
-      <c r="A33" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="17"/>
-    </row>
-    <row r="34" spans="1:41">
-      <c r="A34" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B34" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="G34" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="13"/>
+      <c r="H34" s="32"/>
       <c r="AO34" s="17"/>
     </row>
     <row r="35" spans="1:41" ht="14.25">
@@ -19672,10 +20203,10 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19684,10 +20215,12 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
     <col min="20" max="20" width="12.125" customWidth="1"/>
     <col min="27" max="27" width="11.375" customWidth="1"/>
@@ -19696,6 +20229,7 @@
     <col min="30" max="30" width="14.375" customWidth="1"/>
     <col min="31" max="31" width="13.125" customWidth="1"/>
     <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
     <col min="35" max="35" width="12.25" customWidth="1"/>
     <col min="39" max="39" width="12.25" customWidth="1"/>
     <col min="40" max="40" width="14.25" customWidth="1"/>
@@ -22878,10 +23412,3219 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AO49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AN4" sqref="AN4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="11.375" customWidth="1"/>
+    <col min="28" max="28" width="13.25" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="14.375" customWidth="1"/>
+    <col min="31" max="31" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="35" max="35" width="12.25" customWidth="1"/>
+    <col min="39" max="39" width="12.25" customWidth="1"/>
+    <col min="40" max="40" width="14.25" customWidth="1"/>
+    <col min="41" max="41" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="20">
+        <f>ROUND(G1/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="22">
+        <f>SUM(B3:B37)+SUM(C3:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="17"/>
+    </row>
+    <row r="2" spans="1:41" ht="15" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="17"/>
+    </row>
+    <row r="3" spans="1:41" ht="14.25">
+      <c r="A3" s="25">
+        <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="26">
+        <f>IF(AND(D3&gt;(8*60),F3=0),D3-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <f>IF(AND(F3=1,D3&gt;0),D3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <f>IF(E3=0,0,IF(E3&lt;(11*60+30),(E3-(8*60+30)),IF(E3&lt;(17*60+30),E3-(12*60+30)+3*60,E3-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>IF(G3&gt;0,MID(G3,1,2)*60+MID(G3,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>IF(MID(AJ3,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <f>IF(LEN(CLEAN(I3))=13,MID(I3,8,5),IF(LEN(CLEAN(I3))=19,MID(I3,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="17"/>
+    </row>
+    <row r="4" spans="1:41" ht="14.25">
+      <c r="A4" s="25">
+        <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),F4=0),D4-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" ref="C4:C48" si="2">IF(AND(F4=1,D4&gt;0),D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" ref="D4:D48" si="3">IF(E4=0,0,IF(E4&lt;(11*60+30),(E4-(8*60+30)),IF(E4&lt;(17*60+30),E4-(12*60+30)+3*60,E4-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E48" si="4">IF(G4&gt;0,MID(G4,1,2)*60+MID(G4,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f t="shared" ref="F4:F48" si="5">IF(MID(AJ4,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" ref="G4:G48" si="6">IF(LEN(CLEAN(I4))=13,MID(I4,8,5),IF(LEN(CLEAN(I4))=19,MID(I4,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="17"/>
+    </row>
+    <row r="5" spans="1:41" ht="14.25">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="17"/>
+    </row>
+    <row r="6" spans="1:41" ht="14.25">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="17"/>
+    </row>
+    <row r="7" spans="1:41" ht="14.25">
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" ht="14.25">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="17"/>
+    </row>
+    <row r="9" spans="1:41" ht="14.25">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="17"/>
+    </row>
+    <row r="10" spans="1:41" ht="14.25">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="17"/>
+    </row>
+    <row r="11" spans="1:41" ht="14.25">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="17"/>
+    </row>
+    <row r="12" spans="1:41" ht="14.25">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="17"/>
+    </row>
+    <row r="13" spans="1:41" ht="14.25">
+      <c r="A13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="17"/>
+    </row>
+    <row r="14" spans="1:41" ht="14.25">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="17"/>
+    </row>
+    <row r="15" spans="1:41" ht="14.25">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="17"/>
+    </row>
+    <row r="16" spans="1:41" ht="14.25">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="17"/>
+    </row>
+    <row r="17" spans="1:41" ht="14.25">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="17"/>
+    </row>
+    <row r="18" spans="1:41" ht="14.25">
+      <c r="A18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="17"/>
+    </row>
+    <row r="19" spans="1:41" ht="14.25">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="17"/>
+    </row>
+    <row r="20" spans="1:41" ht="14.25">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="17"/>
+    </row>
+    <row r="21" spans="1:41" ht="14.25">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="17"/>
+    </row>
+    <row r="22" spans="1:41" ht="14.25">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="17"/>
+    </row>
+    <row r="23" spans="1:41" ht="14.25">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="17"/>
+    </row>
+    <row r="24" spans="1:41" ht="14.25">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="17"/>
+    </row>
+    <row r="25" spans="1:41" ht="14.25">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="17"/>
+    </row>
+    <row r="26" spans="1:41" ht="14.25">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="17"/>
+    </row>
+    <row r="27" spans="1:41" ht="14.25">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="17"/>
+    </row>
+    <row r="28" spans="1:41" ht="14.25">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="17"/>
+    </row>
+    <row r="29" spans="1:41" ht="14.25">
+      <c r="A29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="17"/>
+    </row>
+    <row r="30" spans="1:41" ht="14.25">
+      <c r="A30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="17"/>
+    </row>
+    <row r="31" spans="1:41" ht="14.25">
+      <c r="A31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="17"/>
+    </row>
+    <row r="32" spans="1:41" ht="14.25">
+      <c r="A32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="17"/>
+    </row>
+    <row r="33" spans="1:41" ht="14.25">
+      <c r="A33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="17"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="17"/>
+    </row>
+    <row r="35" spans="1:41" ht="14.25">
+      <c r="A35" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="17"/>
+    </row>
+    <row r="36" spans="1:41" ht="14.25">
+      <c r="A36" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="17"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="17"/>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="17"/>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="17"/>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="17"/>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="17"/>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="17"/>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B43" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="17"/>
+    </row>
+    <row r="44" spans="1:41">
+      <c r="A44" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="17"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B45" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="17"/>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="17"/>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="17"/>
+    </row>
+    <row r="48" spans="1:41" ht="14.25" thickBot="1">
+      <c r="A48" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="17"/>
+    </row>
+    <row r="49" spans="1:41">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="C6C6" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange sqref="H3:AN48" name="编辑"/>
+  </protectedRanges>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23218,9 +26961,66 @@
       <c r="A6" s="37">
         <v>43556</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="35">
+        <v>9480</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>9480</v>
+      </c>
+      <c r="E6" s="36">
+        <v>6320</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>1634.48</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="36">
+        <v>400</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+      <c r="M6" s="36">
+        <v>19034.48</v>
+      </c>
+      <c r="N6" s="36">
+        <v>758.4</v>
+      </c>
+      <c r="O6" s="36">
+        <v>16.7</v>
+      </c>
+      <c r="P6" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>850</v>
+      </c>
+      <c r="R6" s="36">
+        <v>0</v>
+      </c>
+      <c r="S6" s="36">
+        <v>0</v>
+      </c>
+      <c r="T6" s="36">
+        <v>1240.28</v>
+      </c>
+      <c r="U6" s="36">
+        <v>16162.5</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="37">
@@ -23503,4 +27303,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="隐藏" sheetId="40" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1865,7 +1864,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12940,7 +12939,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I29" activeCellId="1" sqref="H3:AN33 I29"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16650,11 +16649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:AT33"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22112,11 +22111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK24" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -13,15 +13,16 @@
     <sheet name="4月" sheetId="31" r:id="rId4"/>
     <sheet name="5月" sheetId="39" r:id="rId5"/>
     <sheet name="工资" sheetId="32" state="hidden" r:id="rId6"/>
-    <sheet name="备份" sheetId="36" r:id="rId7"/>
-    <sheet name="隐藏" sheetId="40" state="hidden" r:id="rId8"/>
+    <sheet name="6月" sheetId="41" r:id="rId7"/>
+    <sheet name="备份" sheetId="36" r:id="rId8"/>
+    <sheet name="隐藏" sheetId="40" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="366">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1058,7 +1059,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 2019.05.01 </t>
+    <t>2019.05.01 </t>
+  </si>
+  <si>
+    <t> 07:56,21:15 </t>
+  </si>
+  <si>
+    <t> 07:40,18:34 </t>
+  </si>
+  <si>
+    <t>2019.06.01 </t>
+  </si>
+  <si>
+    <t> 2019.06.02 </t>
+  </si>
+  <si>
+    <t> 2019.06.03 </t>
+  </si>
+  <si>
+    <t> 07:50,21:39 </t>
+  </si>
+  <si>
+    <t> 2019.06.04 </t>
+  </si>
+  <si>
+    <t> 2019.06.05 </t>
+  </si>
+  <si>
+    <t> 2019.06.06 </t>
+  </si>
+  <si>
+    <t> 2019.06.07 </t>
+  </si>
+  <si>
+    <t> 2019.06.08 </t>
+  </si>
+  <si>
+    <t> 2019.06.09 </t>
+  </si>
+  <si>
+    <t> 2019.06.10 </t>
+  </si>
+  <si>
+    <t> 2019.06.11 </t>
+  </si>
+  <si>
+    <t> 2019.06.12 </t>
+  </si>
+  <si>
+    <t> 2019.06.13 </t>
+  </si>
+  <si>
+    <t> 2019.06.14 </t>
+  </si>
+  <si>
+    <t> 2019.06.15 </t>
+  </si>
+  <si>
+    <t> 2019.06.16 </t>
+  </si>
+  <si>
+    <t> 2019.06.17 </t>
+  </si>
+  <si>
+    <t> 2019.06.18 </t>
+  </si>
+  <si>
+    <t> 2019.06.19 </t>
+  </si>
+  <si>
+    <t> 2019.06.20 </t>
+  </si>
+  <si>
+    <t> 2019.06.21 </t>
+  </si>
+  <si>
+    <t> 2019.06.22 </t>
+  </si>
+  <si>
+    <t> 2019.06.23 </t>
+  </si>
+  <si>
+    <t> 2019.06.24 </t>
+  </si>
+  <si>
+    <t> 2019.06.25 </t>
+  </si>
+  <si>
+    <t> 2019.06.26 </t>
+  </si>
+  <si>
+    <t> 2019.06.27 </t>
+  </si>
+  <si>
+    <t> 2019.06.28 </t>
+  </si>
+  <si>
+    <t> 2019.06.29 </t>
+  </si>
+  <si>
+    <t> 2019.06.30 </t>
   </si>
 </sst>
 </file>
@@ -16650,10 +16750,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16691,7 +16791,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>72.67</v>
+        <v>76.48</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -16706,7 +16806,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>4360</v>
+        <v>4589</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -19879,11 +19979,11 @@
     <row r="32" spans="1:47" ht="15" thickBot="1">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="B32" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C32" s="22">
         <f t="shared" si="2"/>
@@ -19891,11 +19991,11 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="5"/>
@@ -19903,33 +20003,33 @@
       </c>
       <c r="G32" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="J32" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="23">
+        <v>07:56</v>
+      </c>
+      <c r="L32" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:15</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>291</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>43</v>
@@ -19937,17 +20037,15 @@
       <c r="P32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="26"/>
+      <c r="Q32" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
-      <c r="W32" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -19970,7 +20068,9 @@
       <c r="AO32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP32" s="26"/>
+      <c r="AP32" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ32" s="26"/>
       <c r="AR32" s="26" t="s">
         <v>48</v>
@@ -19984,11 +20084,11 @@
     <row r="33" spans="1:47" ht="15" thickBot="1">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B33" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C33" s="22">
         <f t="shared" si="2"/>
@@ -19996,11 +20096,11 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="5"/>
@@ -20008,33 +20108,33 @@
       </c>
       <c r="G33" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
+        <v>07:40</v>
+      </c>
+      <c r="L33" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18:34</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>292</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>43</v>
@@ -20086,7 +20186,7 @@
       </c>
       <c r="AU33" s="13"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" ht="14.25" thickBot="1">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20135,40 +20235,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
+      <c r="M34" s="28"/>
       <c r="AU34" s="13"/>
     </row>
     <row r="35" spans="1:47" ht="14.25">
@@ -22115,7 +22182,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22153,7 +22220,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -22168,7 +22235,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -22396,9 +22463,15 @@
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -22422,14 +22495,22 @@
       <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
       <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
+      <c r="AM3" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="27"/>
+      <c r="AO3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
+      <c r="AR3" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
+      <c r="AT3" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU3" s="13"/>
     </row>
     <row r="4" spans="1:47" ht="15" thickBot="1">
@@ -22481,9 +22562,15 @@
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="M4" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -22507,24 +22594,32 @@
       <c r="AJ4" s="26"/>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
+      <c r="AM4" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
+      <c r="AO4" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
+      <c r="AR4" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
+      <c r="AT4" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU4" s="13"/>
     </row>
     <row r="5" spans="1:47" ht="15" thickBot="1">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="B5" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="C5" s="22">
         <f t="shared" si="2"/>
@@ -22532,11 +22627,11 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="5"/>
@@ -22544,33 +22639,43 @@
       </c>
       <c r="G5" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+        <v>07:50</v>
+      </c>
+      <c r="L5" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+        <v>21:39</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
@@ -22592,14 +22697,26 @@
       <c r="AJ5" s="26"/>
       <c r="AK5" s="26"/>
       <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
+      <c r="AM5" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
+      <c r="AO5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR5" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
+      <c r="AT5" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU5" s="13"/>
     </row>
     <row r="6" spans="1:47" ht="15" thickBot="1">
@@ -22641,7 +22758,7 @@
       </c>
       <c r="J6" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="23">
         <f t="shared" si="10"/>
@@ -22651,17 +22768,29 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="M6" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
+      <c r="T6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
+      <c r="W6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="X6" s="26"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
@@ -22677,14 +22806,22 @@
       <c r="AJ6" s="26"/>
       <c r="AK6" s="26"/>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
+      <c r="AM6" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
+      <c r="AO6" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
+      <c r="AR6" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
+      <c r="AT6" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU6" s="13"/>
     </row>
     <row r="7" spans="1:47" ht="15" thickBot="1">
@@ -22726,7 +22863,7 @@
       </c>
       <c r="J7" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="23">
         <f t="shared" si="10"/>
@@ -22736,11 +22873,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="M7" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -22762,14 +22907,22 @@
       <c r="AJ7" s="26"/>
       <c r="AK7" s="26"/>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
+      <c r="AM7" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="27"/>
+      <c r="AO7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
+      <c r="AR7" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
+      <c r="AT7" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU7" s="13"/>
     </row>
     <row r="8" spans="1:47" ht="15" thickBot="1">
@@ -22811,7 +22964,7 @@
       </c>
       <c r="J8" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="10"/>
@@ -22821,11 +22974,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="M8" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
@@ -22847,14 +23008,22 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
+      <c r="AM8" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="27"/>
+      <c r="AO8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
+      <c r="AR8" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
+      <c r="AT8" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="1:47" ht="15" thickBot="1">
@@ -22906,11 +23075,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+      <c r="M9" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
@@ -22932,14 +23107,22 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
+      <c r="AM9" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="27"/>
+      <c r="AO9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
+      <c r="AR9" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
+      <c r="AT9" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU9" s="13"/>
     </row>
     <row r="10" spans="1:47" ht="15" thickBot="1">
@@ -22991,11 +23174,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="M10" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
@@ -23017,14 +23206,22 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="26"/>
       <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
+      <c r="AM10" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="27"/>
+      <c r="AO10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
+      <c r="AT10" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU10" s="13"/>
     </row>
     <row r="11" spans="1:47" ht="15" thickBot="1">
@@ -23076,11 +23273,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+      <c r="M11" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -23102,14 +23305,22 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="26"/>
       <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
+      <c r="AM11" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="27"/>
+      <c r="AO11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
+      <c r="AR11" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
+      <c r="AT11" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU11" s="13"/>
     </row>
     <row r="12" spans="1:47" ht="15" thickBot="1">
@@ -23151,7 +23362,7 @@
       </c>
       <c r="J12" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="10"/>
@@ -23161,11 +23372,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+      <c r="M12" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
@@ -23187,14 +23406,22 @@
       <c r="AJ12" s="26"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
+      <c r="AM12" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="27"/>
+      <c r="AO12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
+      <c r="AR12" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
+      <c r="AT12" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU12" s="13"/>
     </row>
     <row r="13" spans="1:47" ht="15" thickBot="1">
@@ -23236,7 +23463,7 @@
       </c>
       <c r="J13" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="10"/>
@@ -23246,10 +23473,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="M13" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
@@ -23272,14 +23507,22 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="26"/>
       <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
+      <c r="AM13" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
+      <c r="AO13" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
+      <c r="AR13" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
+      <c r="AT13" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU13" s="13"/>
     </row>
     <row r="14" spans="1:47" ht="15" thickBot="1">
@@ -23321,7 +23564,7 @@
       </c>
       <c r="J14" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="10"/>
@@ -23331,10 +23574,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="M14" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -23357,14 +23608,22 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
+      <c r="AM14" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
+      <c r="AO14" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
+      <c r="AR14" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
+      <c r="AT14" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU14" s="13"/>
     </row>
     <row r="15" spans="1:47" ht="15" thickBot="1">
@@ -23406,7 +23665,7 @@
       </c>
       <c r="J15" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="10"/>
@@ -23416,11 +23675,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="M15" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
@@ -23442,14 +23709,22 @@
       <c r="AJ15" s="26"/>
       <c r="AK15" s="26"/>
       <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
+      <c r="AM15" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="27"/>
+      <c r="AO15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
+      <c r="AR15" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
+      <c r="AT15" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU15" s="13"/>
     </row>
     <row r="16" spans="1:47" ht="15" thickBot="1">
@@ -23491,7 +23766,7 @@
       </c>
       <c r="J16" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="10"/>
@@ -23501,11 +23776,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="M16" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
@@ -23527,14 +23810,22 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
+      <c r="AM16" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="27"/>
+      <c r="AO16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
+      <c r="AR16" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
+      <c r="AT16" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU16" s="13"/>
     </row>
     <row r="17" spans="1:47" ht="15" thickBot="1">
@@ -23586,11 +23877,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="M17" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
@@ -23612,14 +23909,22 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
+      <c r="AM17" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="27"/>
+      <c r="AO17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP17" s="26"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
+      <c r="AR17" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
+      <c r="AT17" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU17" s="13"/>
     </row>
     <row r="18" spans="1:47" ht="15" thickBot="1">
@@ -23671,11 +23976,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="M18" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -23697,14 +24008,22 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
       <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
+      <c r="AM18" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="27"/>
+      <c r="AO18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP18" s="26"/>
       <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
+      <c r="AR18" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
+      <c r="AT18" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU18" s="13"/>
     </row>
     <row r="19" spans="1:47" ht="15" thickBot="1">
@@ -23746,7 +24065,7 @@
       </c>
       <c r="J19" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="10"/>
@@ -23756,11 +24075,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="M19" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
@@ -23782,14 +24109,22 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
+      <c r="AM19" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="27"/>
+      <c r="AO19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
+      <c r="AR19" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
+      <c r="AT19" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU19" s="13"/>
     </row>
     <row r="20" spans="1:47" ht="15" thickBot="1">
@@ -23831,7 +24166,7 @@
       </c>
       <c r="J20" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="23">
         <f t="shared" si="10"/>
@@ -23841,10 +24176,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="M20" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
@@ -23867,17 +24210,25 @@
       <c r="AJ20" s="26"/>
       <c r="AK20" s="26"/>
       <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
+      <c r="AM20" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="27"/>
+      <c r="AO20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
+      <c r="AR20" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
+      <c r="AT20" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU20" s="13"/>
     </row>
-    <row r="21" spans="1:47" ht="14.25">
+    <row r="21" spans="1:47" ht="15" thickBot="1">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23916,7 +24267,7 @@
       </c>
       <c r="J21" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="10"/>
@@ -23926,43 +24277,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
+      <c r="M21" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU21" s="13"/>
     </row>
-    <row r="22" spans="1:47" ht="14.25">
+    <row r="22" spans="1:47" ht="15" thickBot="1">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24001,7 +24368,7 @@
       </c>
       <c r="J22" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="23">
         <f t="shared" si="10"/>
@@ -24011,43 +24378,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
+      <c r="M22" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU22" s="13"/>
     </row>
-    <row r="23" spans="1:47" ht="14.25">
+    <row r="23" spans="1:47" ht="15" thickBot="1">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24086,7 +24469,7 @@
       </c>
       <c r="J23" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="23">
         <f t="shared" si="10"/>
@@ -24096,43 +24479,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
+      <c r="M23" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU23" s="13"/>
     </row>
-    <row r="24" spans="1:47" ht="14.25">
+    <row r="24" spans="1:47" ht="15" thickBot="1">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24181,43 +24580,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
+      <c r="M24" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU24" s="13"/>
     </row>
-    <row r="25" spans="1:47" ht="14.25">
+    <row r="25" spans="1:47" ht="15" thickBot="1">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24266,43 +24679,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="37"/>
-      <c r="AS25" s="37"/>
-      <c r="AT25" s="37"/>
+      <c r="M25" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU25" s="13"/>
     </row>
-    <row r="26" spans="1:47" ht="14.25">
+    <row r="26" spans="1:47" ht="15" thickBot="1">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24341,7 +24768,7 @@
       </c>
       <c r="J26" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="23">
         <f t="shared" si="10"/>
@@ -24351,43 +24778,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
+      <c r="M26" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU26" s="13"/>
     </row>
-    <row r="27" spans="1:47" ht="14.25">
+    <row r="27" spans="1:47" ht="15" thickBot="1">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24426,7 +24869,7 @@
       </c>
       <c r="J27" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="23">
         <f t="shared" si="10"/>
@@ -24436,43 +24879,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
+      <c r="M27" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU27" s="13"/>
     </row>
-    <row r="28" spans="1:47" ht="14.25">
+    <row r="28" spans="1:47" ht="15" thickBot="1">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24511,7 +24970,7 @@
       </c>
       <c r="J28" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" si="10"/>
@@ -24521,43 +24980,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
+      <c r="M28" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU28" s="13"/>
     </row>
-    <row r="29" spans="1:47" ht="14.25">
+    <row r="29" spans="1:47" ht="15" thickBot="1">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24596,7 +25071,7 @@
       </c>
       <c r="J29" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="23">
         <f t="shared" si="10"/>
@@ -24606,43 +25081,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
+      <c r="M29" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU29" s="13"/>
     </row>
-    <row r="30" spans="1:47" ht="14.25">
+    <row r="30" spans="1:47" ht="15" thickBot="1">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24681,7 +25172,7 @@
       </c>
       <c r="J30" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" si="10"/>
@@ -24691,43 +25182,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
+      <c r="M30" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU30" s="13"/>
     </row>
-    <row r="31" spans="1:47" ht="14.25">
+    <row r="31" spans="1:47" ht="15" thickBot="1">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24776,43 +25283,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
+      <c r="M31" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU31" s="13"/>
     </row>
-    <row r="32" spans="1:47" ht="14.25">
+    <row r="32" spans="1:47" ht="15" thickBot="1">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24861,43 +25382,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="37"/>
-      <c r="AT32" s="37"/>
+      <c r="M32" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU32" s="13"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25">
+    <row r="33" spans="1:47" ht="14.25" thickBot="1">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24946,40 +25481,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AS33" s="37"/>
-      <c r="AT33" s="37"/>
+      <c r="M33" s="28"/>
       <c r="AU33" s="13"/>
     </row>
     <row r="34" spans="1:47">
@@ -26322,10 +26824,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN19" sqref="AN19"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30525,4 +31027,4214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AU49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="12" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AN19" sqref="AN19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="6" width="11.125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="12.125" customWidth="1"/>
+    <col min="32" max="32" width="11.375" customWidth="1"/>
+    <col min="33" max="33" width="13.25" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="14.375" customWidth="1"/>
+    <col min="36" max="36" width="13.125" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="39" max="39" width="13.875" customWidth="1"/>
+    <col min="40" max="40" width="12.25" customWidth="1"/>
+    <col min="44" max="45" width="12.25" customWidth="1"/>
+    <col min="46" max="46" width="14.25" customWidth="1"/>
+    <col min="47" max="47" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="15.75" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="16">
+        <f>ROUND(L1/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="18">
+        <f>SUM(B3:B37)+SUM(C3:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="13"/>
+    </row>
+    <row r="2" spans="1:47" ht="15" thickBot="1">
+      <c r="A2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU2" s="13"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" thickBot="1">
+      <c r="A3" s="21">
+        <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="22">
+        <f>IF(AND(D3&gt;(8*60),J3=0),D3-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <f>IF(AND(J3=1,D3&gt;0),D3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <f>IF(E3&gt;0,E3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <f>H3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <f>IF(G3&lt;(8*60+30),0,IF(G3&lt;(11*60+30),G3-(8*60+30),IF(G3&lt;(12*60+30),3*60+30,IF(G3&lt;(17*60+30),G3-(12*60+30)+3*60+30,IF(G3&lt;(18*60),8*60,G3-(18*60)+8*60)))))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <f>IF(K3&gt;0,MID(K3,1,2)*60+MID(K3,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <f>IF(I3=0,0,IF(I3&lt;(11*60+30),(I3-(8*60+30)),IF(I3&lt;(17*60+30),I3-(12*60+30)+3*60,I3-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <f>IF(L3&gt;0,MID(L3,1,2)*60+MID(L3,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
+        <f>IF(LEN(CLEAN(N3))=13,MID(N3,2,5),IF(LEN(CLEAN(N3))=19,MID(N3,8,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="13"/>
+    </row>
+    <row r="4" spans="1:47" ht="15" thickBot="1">
+      <c r="A4" s="21">
+        <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),J4=0),D4-(8*60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" ref="C4:C48" si="2">IF(AND(J4=1,D4&gt;0),D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D48" si="3">IF(E4&gt;0,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E48" si="4">H4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" ref="F4:F48" si="5">IF(G4&lt;(8*60+30),0,IF(G4&lt;(11*60+30),G4-(8*60+30),IF(G4&lt;(12*60+30),3*60+30,IF(G4&lt;(17*60+30),G4-(12*60+30)+3*60+30,IF(G4&lt;(18*60),8*60,G4-(18*60)+8*60)))))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G48" si="6">IF(K4&gt;0,MID(K4,1,2)*60+MID(K4,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H48" si="7">IF(I4=0,0,IF(I4&lt;(11*60+30),(I4-(8*60+30)),IF(I4&lt;(17*60+30),I4-(12*60+30)+3*60,I4-(18*60)+8*60)))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I48" si="8">IF(L4&gt;0,MID(L4,1,2)*60+MID(L4,4,2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:K48" si="10">IF(LEN(CLEAN(N4))=13,MID(N4,2,5),IF(LEN(CLEAN(N4))=19,MID(N4,8,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="13"/>
+    </row>
+    <row r="5" spans="1:47" ht="15" thickBot="1">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="13"/>
+    </row>
+    <row r="6" spans="1:47" ht="15" thickBot="1">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="13"/>
+    </row>
+    <row r="7" spans="1:47" ht="15" thickBot="1">
+      <c r="A7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="13"/>
+    </row>
+    <row r="8" spans="1:47" ht="15" thickBot="1">
+      <c r="A8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="13"/>
+    </row>
+    <row r="9" spans="1:47" ht="15" thickBot="1">
+      <c r="A9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="13"/>
+    </row>
+    <row r="10" spans="1:47" ht="15" thickBot="1">
+      <c r="A10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="13"/>
+    </row>
+    <row r="11" spans="1:47" ht="15" thickBot="1">
+      <c r="A11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="13"/>
+    </row>
+    <row r="12" spans="1:47" ht="15" thickBot="1">
+      <c r="A12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="13"/>
+    </row>
+    <row r="13" spans="1:47" ht="15" thickBot="1">
+      <c r="A13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="13"/>
+    </row>
+    <row r="14" spans="1:47" ht="15" thickBot="1">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="13"/>
+    </row>
+    <row r="15" spans="1:47" ht="15" thickBot="1">
+      <c r="A15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="13"/>
+    </row>
+    <row r="16" spans="1:47" ht="15" thickBot="1">
+      <c r="A16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="13"/>
+    </row>
+    <row r="17" spans="1:47" ht="15" thickBot="1">
+      <c r="A17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="13"/>
+    </row>
+    <row r="18" spans="1:47" ht="15" thickBot="1">
+      <c r="A18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="13"/>
+    </row>
+    <row r="19" spans="1:47" ht="15" thickBot="1">
+      <c r="A19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="13"/>
+    </row>
+    <row r="20" spans="1:47" ht="15" thickBot="1">
+      <c r="A20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="13"/>
+    </row>
+    <row r="21" spans="1:47" ht="14.25">
+      <c r="A21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="13"/>
+    </row>
+    <row r="22" spans="1:47" ht="14.25">
+      <c r="A22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="13"/>
+    </row>
+    <row r="23" spans="1:47" ht="14.25">
+      <c r="A23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="13"/>
+    </row>
+    <row r="24" spans="1:47" ht="14.25">
+      <c r="A24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="13"/>
+    </row>
+    <row r="25" spans="1:47" ht="14.25">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="13"/>
+    </row>
+    <row r="26" spans="1:47" ht="14.25">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="13"/>
+    </row>
+    <row r="27" spans="1:47" ht="14.25">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="37"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="13"/>
+    </row>
+    <row r="28" spans="1:47" ht="14.25">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="13"/>
+    </row>
+    <row r="29" spans="1:47" ht="14.25">
+      <c r="A29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="13"/>
+    </row>
+    <row r="30" spans="1:47" ht="14.25">
+      <c r="A30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="13"/>
+    </row>
+    <row r="31" spans="1:47" ht="14.25">
+      <c r="A31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="13"/>
+    </row>
+    <row r="32" spans="1:47" ht="14.25">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="13"/>
+    </row>
+    <row r="33" spans="1:47" ht="14.25">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="13"/>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="40"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="13"/>
+    </row>
+    <row r="35" spans="1:47" ht="14.25">
+      <c r="A35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="13"/>
+    </row>
+    <row r="36" spans="1:47" ht="14.25">
+      <c r="A36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="13"/>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="A37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="13"/>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="13"/>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="A39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="13"/>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="A40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="13"/>
+    </row>
+    <row r="41" spans="1:47">
+      <c r="A41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="13"/>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="A42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="13"/>
+    </row>
+    <row r="43" spans="1:47">
+      <c r="A43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="13"/>
+    </row>
+    <row r="44" spans="1:47">
+      <c r="A44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="8"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="8"/>
+      <c r="AU44" s="13"/>
+    </row>
+    <row r="45" spans="1:47">
+      <c r="A45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
+      <c r="AU45" s="13"/>
+    </row>
+    <row r="46" spans="1:47">
+      <c r="A46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="13"/>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="8"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="13"/>
+    </row>
+    <row r="48" spans="1:47">
+      <c r="A48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="13"/>
+    </row>
+    <row r="49" spans="1:47">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="13"/>
+      <c r="AQ49" s="13"/>
+      <c r="AR49" s="13"/>
+      <c r="AS49" s="13"/>
+      <c r="AT49" s="13"/>
+      <c r="AU49" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <protectedRanges>
+    <protectedRange sqref="M3:AT48" name="编辑"/>
+  </protectedRanges>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="3月" sheetId="30" r:id="rId3"/>
     <sheet name="4月" sheetId="31" r:id="rId4"/>
     <sheet name="5月" sheetId="39" r:id="rId5"/>
-    <sheet name="工资" sheetId="32" state="hidden" r:id="rId6"/>
-    <sheet name="6月" sheetId="41" r:id="rId7"/>
-    <sheet name="备份" sheetId="36" r:id="rId8"/>
+    <sheet name="6月" sheetId="41" r:id="rId6"/>
+    <sheet name="备份" sheetId="36" r:id="rId7"/>
+    <sheet name="工资" sheetId="32" state="hidden" r:id="rId8"/>
     <sheet name="隐藏" sheetId="40" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="372">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1068,9 +1068,6 @@
     <t> 07:40,18:34 </t>
   </si>
   <si>
-    <t>2019.06.01 </t>
-  </si>
-  <si>
     <t> 2019.06.02 </t>
   </si>
   <si>
@@ -1089,9 +1086,6 @@
     <t> 2019.06.06 </t>
   </si>
   <si>
-    <t> 2019.06.07 </t>
-  </si>
-  <si>
     <t> 2019.06.08 </t>
   </si>
   <si>
@@ -1159,6 +1153,30 @@
   </si>
   <si>
     <t> 2019.06.30 </t>
+  </si>
+  <si>
+    <t> 2019.06.01 </t>
+  </si>
+  <si>
+    <t> 07:53,22:13 </t>
+  </si>
+  <si>
+    <t> 07:52,21:03 </t>
+  </si>
+  <si>
+    <t> 07:50,20:17 </t>
+  </si>
+  <si>
+    <t>2019.06.07 </t>
+  </si>
+  <si>
+    <t> 07:54,20:24 </t>
+  </si>
+  <si>
+    <t> 07:56,21:11 </t>
+  </si>
+  <si>
+    <t> 1.00</t>
   </si>
 </sst>
 </file>
@@ -16749,7 +16767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -21490,699 +21508,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U42"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="3" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="T1" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="33">
-        <v>43435</v>
-      </c>
-      <c r="B2" s="31">
-        <v>9480</v>
-      </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31">
-        <v>9480</v>
-      </c>
-      <c r="E2" s="32">
-        <v>6320</v>
-      </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32">
-        <v>0</v>
-      </c>
-      <c r="J2" s="32">
-        <v>1200</v>
-      </c>
-      <c r="K2" s="32">
-        <v>330</v>
-      </c>
-      <c r="L2" s="32">
-        <v>0</v>
-      </c>
-      <c r="M2" s="32">
-        <v>17330</v>
-      </c>
-      <c r="N2" s="32">
-        <v>758.4</v>
-      </c>
-      <c r="O2" s="32">
-        <v>16.7</v>
-      </c>
-      <c r="P2" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>850</v>
-      </c>
-      <c r="R2" s="32">
-        <v>0</v>
-      </c>
-      <c r="S2" s="32">
-        <v>0</v>
-      </c>
-      <c r="T2" s="32">
-        <v>320.95</v>
-      </c>
-      <c r="U2" s="32">
-        <v>15377.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="33">
-        <v>43466</v>
-      </c>
-      <c r="B3" s="31">
-        <v>9480</v>
-      </c>
-      <c r="C3" s="31">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31">
-        <v>9480</v>
-      </c>
-      <c r="E3" s="32">
-        <v>6320</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32">
-        <v>1634.48</v>
-      </c>
-      <c r="I3" s="32">
-        <v>0</v>
-      </c>
-      <c r="J3" s="32">
-        <v>1200</v>
-      </c>
-      <c r="K3" s="32">
-        <v>285</v>
-      </c>
-      <c r="L3" s="32">
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
-        <v>18919.48</v>
-      </c>
-      <c r="N3" s="32">
-        <v>758.4</v>
-      </c>
-      <c r="O3" s="32">
-        <v>16.7</v>
-      </c>
-      <c r="P3" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>850</v>
-      </c>
-      <c r="R3" s="32">
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <v>0</v>
-      </c>
-      <c r="T3" s="32">
-        <v>368.63</v>
-      </c>
-      <c r="U3" s="32">
-        <v>16919.150000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="33">
-        <v>43497</v>
-      </c>
-      <c r="B4" s="31">
-        <v>9480</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31">
-        <v>9480</v>
-      </c>
-      <c r="E4" s="32">
-        <v>6320</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32">
-        <v>0</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1200</v>
-      </c>
-      <c r="K4" s="32">
-        <v>255</v>
-      </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32">
-        <v>17255</v>
-      </c>
-      <c r="N4" s="32">
-        <v>758.4</v>
-      </c>
-      <c r="O4" s="32">
-        <v>16.7</v>
-      </c>
-      <c r="P4" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>850</v>
-      </c>
-      <c r="R4" s="32">
-        <v>0</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>318.7</v>
-      </c>
-      <c r="U4" s="32">
-        <v>15304.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="33">
-        <v>43525</v>
-      </c>
-      <c r="B5" s="31">
-        <v>9480</v>
-      </c>
-      <c r="C5" s="31">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>9480</v>
-      </c>
-      <c r="E5" s="32">
-        <v>6320</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <v>1200</v>
-      </c>
-      <c r="K5" s="32">
-        <v>382.5</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
-        <v>17382.5</v>
-      </c>
-      <c r="N5" s="32">
-        <v>758.4</v>
-      </c>
-      <c r="O5" s="32">
-        <v>16.7</v>
-      </c>
-      <c r="P5" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>850</v>
-      </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="32">
-        <v>0</v>
-      </c>
-      <c r="T5" s="32">
-        <v>907.4</v>
-      </c>
-      <c r="U5" s="32">
-        <v>14843.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="33">
-        <v>43556</v>
-      </c>
-      <c r="B6" s="31">
-        <v>9480</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31">
-        <v>9480</v>
-      </c>
-      <c r="E6" s="32">
-        <v>6320</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1634.48</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>1200</v>
-      </c>
-      <c r="K6" s="32">
-        <v>400</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <v>19034.48</v>
-      </c>
-      <c r="N6" s="32">
-        <v>758.4</v>
-      </c>
-      <c r="O6" s="32">
-        <v>16.7</v>
-      </c>
-      <c r="P6" s="32">
-        <v>6.6</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>850</v>
-      </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <v>0</v>
-      </c>
-      <c r="T6" s="32">
-        <v>1240.28</v>
-      </c>
-      <c r="U6" s="32">
-        <v>16162.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="33">
-        <v>43586</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="33">
-        <v>43617</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="33">
-        <v>43647</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="33">
-        <v>43678</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="33">
-        <v>43709</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="33">
-        <v>43739</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="33">
-        <v>43770</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="33">
-        <v>43800</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="33">
-        <v>43831</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="33">
-        <v>43862</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="33">
-        <v>43891</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="33">
-        <v>43922</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="33">
-        <v>43952</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="33">
-        <v>43983</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="33">
-        <v>44013</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="33">
-        <v>44044</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="33">
-        <v>44075</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="33">
-        <v>44105</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="33">
-        <v>44136</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="33">
-        <v>44166</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="33">
-        <v>44197</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="33">
-        <v>44228</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="33">
-        <v>44256</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="33">
-        <v>44287</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="33">
-        <v>44317</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="33">
-        <v>44348</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="33">
-        <v>44378</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="33">
-        <v>44409</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="33">
-        <v>44440</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="33">
-        <v>44470</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22220,7 +21552,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>3.65</v>
+        <v>26.78</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -22235,7 +21567,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>219</v>
+        <v>1607</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -22464,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>48</v>
@@ -22563,7 +21895,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>48</v>
@@ -22662,10 +21994,10 @@
         <v>21:39</v>
       </c>
       <c r="M5" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="N5" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="O5" s="26" t="s">
         <v>43</v>
@@ -22722,11 +22054,11 @@
     <row r="6" spans="1:47" ht="15" thickBot="1">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="B6" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C6" s="22">
         <f t="shared" si="2"/>
@@ -22734,11 +22066,11 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="5"/>
@@ -22746,33 +22078,33 @@
       </c>
       <c r="G6" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
+        <v>07:53</v>
+      </c>
+      <c r="L6" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22:13</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>48</v>
+        <v>365</v>
       </c>
       <c r="O6" s="26" t="s">
         <v>43</v>
@@ -22780,17 +22112,15 @@
       <c r="P6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
-      <c r="T6" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
-      <c r="W6" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="W6" s="26"/>
       <c r="X6" s="26"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="26"/>
@@ -22813,8 +22143,12 @@
       <c r="AO6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
+      <c r="AP6" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR6" s="26" t="s">
         <v>48</v>
       </c>
@@ -22827,11 +22161,11 @@
     <row r="7" spans="1:47" ht="15" thickBot="1">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="B7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C7" s="22">
         <f t="shared" si="2"/>
@@ -22839,11 +22173,11 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="5"/>
@@ -22851,33 +22185,33 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+        <v>07:52</v>
+      </c>
+      <c r="L7" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:03</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="O7" s="26" t="s">
         <v>43</v>
@@ -22885,7 +22219,9 @@
       <c r="P7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -22914,8 +22250,12 @@
       <c r="AO7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
+      <c r="AP7" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR7" s="26" t="s">
         <v>48</v>
       </c>
@@ -22928,11 +22268,11 @@
     <row r="8" spans="1:47" ht="15" thickBot="1">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B8" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C8" s="22">
         <f t="shared" si="2"/>
@@ -22940,11 +22280,11 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="5"/>
@@ -22952,33 +22292,33 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
+        <v>07:50</v>
+      </c>
+      <c r="L8" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:17</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>48</v>
+        <v>367</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>43</v>
@@ -22986,7 +22326,9 @@
       <c r="P8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
@@ -23015,8 +22357,12 @@
       <c r="AO8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
+      <c r="AP8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ8" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR8" s="26" t="s">
         <v>48</v>
       </c>
@@ -23029,7 +22375,7 @@
     <row r="9" spans="1:47" ht="15" thickBot="1">
       <c r="A9" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="B9" s="22">
         <f t="shared" si="1"/>
@@ -23037,15 +22383,15 @@
       </c>
       <c r="C9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="D9" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="F9" s="22">
         <f t="shared" si="5"/>
@@ -23053,33 +22399,33 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
+        <v>07:54</v>
+      </c>
+      <c r="L9" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:24</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="O9" s="26" t="s">
         <v>43</v>
@@ -23175,7 +22521,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>48</v>
@@ -23274,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>48</v>
@@ -23326,11 +22672,11 @@
     <row r="12" spans="1:47" ht="15" thickBot="1">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="B12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C12" s="22">
         <f t="shared" si="2"/>
@@ -23338,11 +22684,11 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="5"/>
@@ -23350,33 +22696,33 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>07:56</v>
+      </c>
+      <c r="L12" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:11</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>43</v>
@@ -23384,7 +22730,9 @@
       <c r="P12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="27" t="s">
+        <v>371</v>
+      </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
@@ -23474,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>48</v>
@@ -23575,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>48</v>
@@ -23676,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>48</v>
@@ -23777,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>48</v>
@@ -23878,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>48</v>
@@ -23977,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>48</v>
@@ -24076,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>48</v>
@@ -24177,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>48</v>
@@ -24278,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>48</v>
@@ -24379,7 +23727,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>48</v>
@@ -24480,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>48</v>
@@ -24581,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>48</v>
@@ -24680,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>48</v>
@@ -24779,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>48</v>
@@ -24880,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>48</v>
@@ -24981,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>48</v>
@@ -25082,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>48</v>
@@ -25183,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>48</v>
@@ -25284,7 +24632,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>48</v>
@@ -25383,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>48</v>
@@ -26819,7 +26167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
@@ -31029,6 +30377,749 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U42"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="33">
+        <v>43435</v>
+      </c>
+      <c r="B2" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E2" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K2" s="32">
+        <v>330</v>
+      </c>
+      <c r="L2" s="32">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32">
+        <v>17330</v>
+      </c>
+      <c r="N2" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O2" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P2" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>850</v>
+      </c>
+      <c r="R2" s="32">
+        <v>0</v>
+      </c>
+      <c r="S2" s="32">
+        <v>0</v>
+      </c>
+      <c r="T2" s="32">
+        <v>320.95</v>
+      </c>
+      <c r="U2" s="32">
+        <v>15377.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="33">
+        <v>43466</v>
+      </c>
+      <c r="B3" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E3" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1634.48</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="32">
+        <v>285</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>18919.48</v>
+      </c>
+      <c r="N3" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O3" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P3" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>850</v>
+      </c>
+      <c r="R3" s="32">
+        <v>0</v>
+      </c>
+      <c r="S3" s="32">
+        <v>0</v>
+      </c>
+      <c r="T3" s="32">
+        <v>368.63</v>
+      </c>
+      <c r="U3" s="32">
+        <v>16919.150000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="33">
+        <v>43497</v>
+      </c>
+      <c r="B4" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E4" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="32">
+        <v>255</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>17255</v>
+      </c>
+      <c r="N4" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O4" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P4" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>850</v>
+      </c>
+      <c r="R4" s="32">
+        <v>0</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>318.7</v>
+      </c>
+      <c r="U4" s="32">
+        <v>15304.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="33">
+        <v>43525</v>
+      </c>
+      <c r="B5" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E5" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K5" s="32">
+        <v>382.5</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>17382.5</v>
+      </c>
+      <c r="N5" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O5" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P5" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>850</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0</v>
+      </c>
+      <c r="S5" s="32">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
+        <v>907.4</v>
+      </c>
+      <c r="U5" s="32">
+        <v>14843.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="33">
+        <v>43556</v>
+      </c>
+      <c r="B6" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E6" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1634.48</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K6" s="32">
+        <v>400</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>19034.48</v>
+      </c>
+      <c r="N6" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O6" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P6" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>850</v>
+      </c>
+      <c r="R6" s="32">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
+        <v>1240.28</v>
+      </c>
+      <c r="U6" s="32">
+        <v>16162.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="33">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E7" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1634.48</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K7" s="32">
+        <v>412.5</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>19046.98</v>
+      </c>
+      <c r="N7" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O7" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P7" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>850</v>
+      </c>
+      <c r="R7" s="32">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32">
+        <v>0</v>
+      </c>
+      <c r="T7" s="32">
+        <v>1241.52</v>
+      </c>
+      <c r="U7" s="32">
+        <v>16173.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="33">
+        <v>43617</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="33">
+        <v>43647</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="33">
+        <v>43678</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="33">
+        <v>43709</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="33">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="33">
+        <v>43770</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="33">
+        <v>43800</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="33">
+        <v>43831</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="33">
+        <v>43862</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="33">
+        <v>43891</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="33">
+        <v>43922</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="33">
+        <v>43952</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="33">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="33">
+        <v>44044</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="33">
+        <v>44075</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="33">
+        <v>44105</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="33">
+        <v>44136</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="33">
+        <v>44166</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="33">
+        <v>44197</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="33">
+        <v>44228</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="33">
+        <v>44256</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="33">
+        <v>44287</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="33">
+        <v>44317</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="33">
+        <v>44348</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="33">
+        <v>44378</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="33">
+        <v>44409</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="33">
+        <v>44440</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="33">
+        <v>44470</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="433">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1232,9 +1232,6 @@
     <t> 08:26,20:59 </t>
   </si>
   <si>
-    <t>2019.07.01 </t>
-  </si>
-  <si>
     <t> 2019.07.02 </t>
   </si>
   <si>
@@ -1323,6 +1320,51 @@
   </si>
   <si>
     <t> 2019.07.31 </t>
+  </si>
+  <si>
+    <t> 07:58,20:45 </t>
+  </si>
+  <si>
+    <t> 07:56,20:47 </t>
+  </si>
+  <si>
+    <t> 08:00,20:00 </t>
+  </si>
+  <si>
+    <t> 08:05,21:06 </t>
+  </si>
+  <si>
+    <t> 07:48,17:41 </t>
+  </si>
+  <si>
+    <t> 08:58,17:22 </t>
+  </si>
+  <si>
+    <t> 08:00,21:04 </t>
+  </si>
+  <si>
+    <t> 07:57,20:33 </t>
+  </si>
+  <si>
+    <t> 07:59,20:15 </t>
+  </si>
+  <si>
+    <t> 2019.07.01 </t>
+  </si>
+  <si>
+    <t> 08:08,21:09 </t>
+  </si>
+  <si>
+    <t> 07:55,19:33 </t>
+  </si>
+  <si>
+    <t> 09:02,17:07 </t>
+  </si>
+  <si>
+    <t> 08:02,21:21 </t>
+  </si>
+  <si>
+    <t> 07:53,20:57 </t>
   </si>
 </sst>
 </file>
@@ -14172,7 +14214,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18378,8 +18420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18846,9 +18888,66 @@
       <c r="A8" s="33">
         <v>43617</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E8" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1634.48</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="32">
+        <v>392.5</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>19826.98</v>
+      </c>
+      <c r="N8" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O8" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P8" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>850</v>
+      </c>
+      <c r="R8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <v>1319.53</v>
+      </c>
+      <c r="U8" s="32">
+        <v>16875.75</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="33">
@@ -43960,7 +44059,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:AT34"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43998,7 +44097,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>0</v>
+        <v>43.98</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -44013,7 +44112,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>2639</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -44195,11 +44294,11 @@
     <row r="3" spans="1:47" ht="15" thickBot="1">
       <c r="A3" s="21">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="B3" s="22">
         <f>IF(AND(D3&gt;(8*60),J3=0),D3-(8*60),0)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C3" s="22">
         <f>IF(AND(J3=1,D3&gt;0),D3,0)</f>
@@ -44207,11 +44306,11 @@
       </c>
       <c r="D3" s="22">
         <f>IF(E3&gt;0,E3,0)</f>
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E3" s="22">
         <f>H3-F3</f>
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="F3" s="22">
         <f>IF(G3&lt;(8*60+30),0,IF(G3&lt;(11*60+30),G3-(8*60+30),IF(G3&lt;(12*60+30),3*60+30,IF(G3&lt;(17*60+30),G3-(12*60+30)+3*60+30,IF(G3&lt;(18*60),8*60,G3-(18*60)+8*60)))))</f>
@@ -44219,33 +44318,33 @@
       </c>
       <c r="G3" s="22">
         <f>IF(K3&gt;0,MID(K3,1,2)*60+MID(K3,4,2),0)</f>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="H3" s="22">
         <f>IF(I3=0,0,IF(I3&lt;(11*60+30),(I3-(8*60+30)),IF(I3&lt;(17*60+30),I3-(12*60+30)+3*60,I3-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="I3" s="22">
         <f>IF(L3&gt;0,MID(L3,1,2)*60+MID(L3,4,2),0)</f>
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="J3" s="22">
         <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,2,5),IF(LEN(CLEAN(N3))=19,MID(N3,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
+        <v>07:58</v>
+      </c>
+      <c r="L3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
-        <v>0</v>
+        <v>20:45</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>48</v>
+        <v>418</v>
       </c>
       <c r="O3" s="26" t="s">
         <v>43</v>
@@ -44253,17 +44352,15 @@
       <c r="P3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
-      <c r="T3" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="T3" s="26"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
-      <c r="W3" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
@@ -44286,8 +44383,12 @@
       <c r="AO3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
+      <c r="AP3" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ3" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR3" s="26" t="s">
         <v>48</v>
       </c>
@@ -44300,11 +44401,11 @@
     <row r="4" spans="1:47" ht="15" thickBot="1">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),J4=0),D4-(8*60),0)</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C4" s="22">
         <f t="shared" ref="C4:C48" si="2">IF(AND(J4=1,D4&gt;0),D4,0)</f>
@@ -44312,11 +44413,11 @@
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D48" si="3">IF(E4&gt;0,E4,0)</f>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E4" s="22">
         <f t="shared" ref="E4:E48" si="4">H4-F4</f>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F48" si="5">IF(G4&lt;(8*60+30),0,IF(G4&lt;(11*60+30),G4-(8*60+30),IF(G4&lt;(12*60+30),3*60+30,IF(G4&lt;(17*60+30),G4-(12*60+30)+3*60+30,IF(G4&lt;(18*60),8*60,G4-(18*60)+8*60)))))</f>
@@ -44324,33 +44425,33 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G48" si="6">IF(K4&gt;0,MID(K4,1,2)*60+MID(K4,4,2),0)</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" ref="H4:H48" si="7">IF(I4=0,0,IF(I4&lt;(11*60+30),(I4-(8*60+30)),IF(I4&lt;(17*60+30),I4-(12*60+30)+3*60,I4-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" ref="I4:I48" si="8">IF(L4&gt;0,MID(L4,1,2)*60+MID(L4,4,2),0)</f>
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="J4" s="22">
         <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="23" t="str">
         <f t="shared" ref="K4:K48" si="10">IF(LEN(CLEAN(N4))=13,MID(N4,2,5),IF(LEN(CLEAN(N4))=19,MID(N4,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+        <v>07:56</v>
+      </c>
+      <c r="L4" s="23" t="str">
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
-        <v>0</v>
+        <v>20:47</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>48</v>
+        <v>419</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>43</v>
@@ -44358,7 +44459,9 @@
       <c r="P4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
@@ -44387,8 +44490,12 @@
       <c r="AO4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
+      <c r="AP4" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ4" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR4" s="26" t="s">
         <v>48</v>
       </c>
@@ -44401,11 +44508,11 @@
     <row r="5" spans="1:47" ht="15" thickBot="1">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C5" s="22">
         <f t="shared" si="2"/>
@@ -44413,11 +44520,11 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="5"/>
@@ -44425,33 +44532,33 @@
       </c>
       <c r="G5" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L5" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:00</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="O5" s="26" t="s">
         <v>43</v>
@@ -44459,7 +44566,9 @@
       <c r="P5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
@@ -44488,8 +44597,12 @@
       <c r="AO5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
+      <c r="AP5" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR5" s="26" t="s">
         <v>48</v>
       </c>
@@ -44502,11 +44615,11 @@
     <row r="6" spans="1:47" ht="15" thickBot="1">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="B6" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C6" s="22">
         <f t="shared" si="2"/>
@@ -44514,11 +44627,11 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="5"/>
@@ -44526,33 +44639,33 @@
       </c>
       <c r="G6" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
+        <v>08:05</v>
+      </c>
+      <c r="L6" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:06</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="O6" s="26" t="s">
         <v>43</v>
@@ -44560,7 +44673,9 @@
       <c r="P6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
@@ -44589,8 +44704,12 @@
       <c r="AO6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
+      <c r="AP6" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ6" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR6" s="26" t="s">
         <v>48</v>
       </c>
@@ -44615,11 +44734,11 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="5"/>
@@ -44627,33 +44746,33 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+        <v>07:48</v>
+      </c>
+      <c r="L7" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17:41</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>48</v>
+        <v>422</v>
       </c>
       <c r="O7" s="26" t="s">
         <v>43</v>
@@ -44661,7 +44780,9 @@
       <c r="P7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -44690,7 +44811,9 @@
       <c r="AO7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP7" s="26"/>
+      <c r="AP7" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="26" t="s">
         <v>48</v>
@@ -44704,7 +44827,7 @@
     <row r="8" spans="1:47" ht="15" thickBot="1">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="B8" s="22">
         <f t="shared" si="1"/>
@@ -44712,49 +44835,49 @@
       </c>
       <c r="C8" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="D8" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
+        <v>08:58</v>
+      </c>
+      <c r="L8" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17:22</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>48</v>
+        <v>423</v>
       </c>
       <c r="O8" s="26" t="s">
         <v>43</v>
@@ -44789,7 +44912,9 @@
       <c r="AO8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AP8" s="26"/>
+      <c r="AP8" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ8" s="26"/>
       <c r="AR8" s="26" t="s">
         <v>48</v>
@@ -44850,7 +44975,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>48</v>
@@ -44902,11 +45027,11 @@
     <row r="10" spans="1:47" ht="15" thickBot="1">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" si="2"/>
@@ -44914,11 +45039,11 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" si="5"/>
@@ -44926,33 +45051,33 @@
       </c>
       <c r="G10" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L10" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:04</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>48</v>
+        <v>424</v>
       </c>
       <c r="O10" s="26" t="s">
         <v>43</v>
@@ -44960,7 +45085,9 @@
       <c r="P10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
@@ -44989,8 +45116,12 @@
       <c r="AO10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="26"/>
+      <c r="AP10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ10" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR10" s="26" t="s">
         <v>48</v>
       </c>
@@ -45003,11 +45134,11 @@
     <row r="11" spans="1:47" ht="15" thickBot="1">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C11" s="22">
         <f t="shared" si="2"/>
@@ -45015,11 +45146,11 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="5"/>
@@ -45027,33 +45158,33 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
+        <v>07:57</v>
+      </c>
+      <c r="L11" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:33</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>48</v>
+        <v>425</v>
       </c>
       <c r="O11" s="26" t="s">
         <v>43</v>
@@ -45061,7 +45192,9 @@
       <c r="P11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -45090,8 +45223,12 @@
       <c r="AO11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
+      <c r="AP11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ11" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR11" s="26" t="s">
         <v>48</v>
       </c>
@@ -45104,11 +45241,11 @@
     <row r="12" spans="1:47" ht="15" thickBot="1">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="B12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C12" s="22">
         <f t="shared" si="2"/>
@@ -45116,11 +45253,11 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="5"/>
@@ -45128,33 +45265,33 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>07:59</v>
+      </c>
+      <c r="L12" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:15</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>48</v>
+        <v>426</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>43</v>
@@ -45162,7 +45299,9 @@
       <c r="P12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
@@ -45191,8 +45330,12 @@
       <c r="AO12" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="26"/>
+      <c r="AP12" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ12" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR12" s="26" t="s">
         <v>48</v>
       </c>
@@ -45205,11 +45348,11 @@
     <row r="13" spans="1:47" ht="15" thickBot="1">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="B13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C13" s="22">
         <f t="shared" si="2"/>
@@ -45217,11 +45360,11 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="5"/>
@@ -45229,33 +45372,33 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="J13" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+        <v>08:08</v>
+      </c>
+      <c r="L13" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:09</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>43</v>
@@ -45263,7 +45406,9 @@
       <c r="P13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
@@ -45292,8 +45437,12 @@
       <c r="AO13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
+      <c r="AP13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ13" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR13" s="26" t="s">
         <v>48</v>
       </c>
@@ -45306,11 +45455,11 @@
     <row r="14" spans="1:47" ht="15" thickBot="1">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="B14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C14" s="22">
         <f t="shared" si="2"/>
@@ -45318,11 +45467,11 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="5"/>
@@ -45330,33 +45479,33 @@
       </c>
       <c r="G14" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
+        <v>07:55</v>
+      </c>
+      <c r="L14" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>19:33</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>48</v>
+        <v>429</v>
       </c>
       <c r="O14" s="26" t="s">
         <v>43</v>
@@ -45364,7 +45513,9 @@
       <c r="P14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
@@ -45393,7 +45544,9 @@
       <c r="AO14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP14" s="26"/>
+      <c r="AP14" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ14" s="26"/>
       <c r="AR14" s="26" t="s">
         <v>48</v>
@@ -45407,7 +45560,7 @@
     <row r="15" spans="1:47" ht="15" thickBot="1">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.08</v>
       </c>
       <c r="B15" s="22">
         <f t="shared" si="1"/>
@@ -45415,49 +45568,49 @@
       </c>
       <c r="C15" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="D15" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="23">
+        <v>09:02</v>
+      </c>
+      <c r="L15" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17:07</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>43</v>
@@ -45553,7 +45706,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>48</v>
@@ -45605,11 +45758,11 @@
     <row r="17" spans="1:47" ht="15" thickBot="1">
       <c r="A17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="B17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C17" s="22">
         <f t="shared" si="2"/>
@@ -45617,11 +45770,11 @@
       </c>
       <c r="D17" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="F17" s="22">
         <f t="shared" si="5"/>
@@ -45629,33 +45782,33 @@
       </c>
       <c r="G17" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
+        <v>08:02</v>
+      </c>
+      <c r="L17" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:21</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>48</v>
+        <v>431</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>43</v>
@@ -45663,7 +45816,9 @@
       <c r="P17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
@@ -45692,8 +45847,12 @@
       <c r="AO17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
+      <c r="AP17" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ17" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR17" s="26" t="s">
         <v>48</v>
       </c>
@@ -45706,11 +45865,11 @@
     <row r="18" spans="1:47" ht="15" thickBot="1">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="B18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" si="2"/>
@@ -45718,11 +45877,11 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="5"/>
@@ -45730,33 +45889,33 @@
       </c>
       <c r="G18" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
+        <v>07:53</v>
+      </c>
+      <c r="L18" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:57</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>43</v>
@@ -45764,7 +45923,9 @@
       <c r="P18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -45793,8 +45954,12 @@
       <c r="AO18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
+      <c r="AP18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ18" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR18" s="26" t="s">
         <v>48</v>
       </c>
@@ -45854,7 +46019,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>48</v>
@@ -45868,10 +46033,14 @@
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="T19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
+      <c r="W19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
@@ -45955,7 +46124,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>48</v>
@@ -46056,7 +46225,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>48</v>
@@ -46157,7 +46326,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>48</v>
@@ -46256,7 +46425,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>48</v>
@@ -46355,7 +46524,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>48</v>
@@ -46456,7 +46625,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>48</v>
@@ -46557,7 +46726,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>48</v>
@@ -46658,7 +46827,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>48</v>
@@ -46759,7 +46928,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>48</v>
@@ -46860,7 +47029,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>48</v>
@@ -46959,7 +47128,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>48</v>
@@ -47058,7 +47227,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>48</v>
@@ -47159,7 +47328,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>48</v>
@@ -47260,7 +47429,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N33" s="26" t="s">
         <v>48</v>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="444">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1349,9 +1349,6 @@
     <t> 07:59,20:15 </t>
   </si>
   <si>
-    <t> 2019.07.01 </t>
-  </si>
-  <si>
     <t> 08:08,21:09 </t>
   </si>
   <si>
@@ -1365,6 +1362,42 @@
   </si>
   <si>
     <t> 07:53,20:57 </t>
+  </si>
+  <si>
+    <t> 08:28,21:06 </t>
+  </si>
+  <si>
+    <t> 07:50,20:02 </t>
+  </si>
+  <si>
+    <t> 08:44,18:09 </t>
+  </si>
+  <si>
+    <t> 07:58,21:29 </t>
+  </si>
+  <si>
+    <t> 07:59,20:58 </t>
+  </si>
+  <si>
+    <t> 08:00,21:19 </t>
+  </si>
+  <si>
+    <t> 07:58,21:12 </t>
+  </si>
+  <si>
+    <t> 07:56,20:55 </t>
+  </si>
+  <si>
+    <t> 08:44,17:37 </t>
+  </si>
+  <si>
+    <t>2019.07.01 </t>
+  </si>
+  <si>
+    <t> 08:00,20:36 </t>
+  </si>
+  <si>
+    <t> 08:20,20:47 </t>
   </si>
 </sst>
 </file>
@@ -44056,10 +44089,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44097,7 +44130,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>43.98</v>
+        <v>91.78</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -44112,7 +44145,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>2639</v>
+        <v>5507</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -44341,7 +44374,7 @@
         <v>20:45</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>418</v>
@@ -45398,7 +45431,7 @@
         <v>397</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>43</v>
@@ -45505,7 +45538,7 @@
         <v>398</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O14" s="26" t="s">
         <v>43</v>
@@ -45610,7 +45643,7 @@
         <v>399</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>43</v>
@@ -45645,7 +45678,9 @@
       <c r="AO15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AP15" s="26"/>
+      <c r="AP15" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ15" s="26"/>
       <c r="AR15" s="26" t="s">
         <v>48</v>
@@ -45808,7 +45843,7 @@
         <v>401</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>43</v>
@@ -45915,7 +45950,7 @@
         <v>402</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>43</v>
@@ -45972,11 +46007,11 @@
     <row r="19" spans="1:47" ht="15" thickBot="1">
       <c r="A19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="B19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" si="2"/>
@@ -45984,11 +46019,11 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="5"/>
@@ -45996,33 +46031,33 @@
       </c>
       <c r="G19" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L19" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:04</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>403</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>48</v>
+        <v>424</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>43</v>
@@ -46030,17 +46065,15 @@
       <c r="P19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
-      <c r="W19" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
@@ -46063,8 +46096,12 @@
       <c r="AO19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
+      <c r="AP19" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR19" s="26" t="s">
         <v>48</v>
       </c>
@@ -46077,11 +46114,11 @@
     <row r="20" spans="1:47" ht="15" thickBot="1">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="B20" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" si="2"/>
@@ -46089,11 +46126,11 @@
       </c>
       <c r="D20" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" si="5"/>
@@ -46101,33 +46138,33 @@
       </c>
       <c r="G20" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="J20" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
+        <v>08:28</v>
+      </c>
+      <c r="L20" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:06</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>404</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>43</v>
@@ -46135,7 +46172,9 @@
       <c r="P20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
@@ -46164,8 +46203,12 @@
       <c r="AO20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
+      <c r="AP20" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR20" s="26" t="s">
         <v>48</v>
       </c>
@@ -46178,11 +46221,11 @@
     <row r="21" spans="1:47" ht="15" thickBot="1">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B21" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C21" s="22">
         <f t="shared" si="2"/>
@@ -46190,11 +46233,11 @@
       </c>
       <c r="D21" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="5"/>
@@ -46202,33 +46245,33 @@
       </c>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1202</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
+        <v>07:50</v>
+      </c>
+      <c r="L21" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:02</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>405</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>43</v>
@@ -46236,7 +46279,9 @@
       <c r="P21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
@@ -46265,8 +46310,12 @@
       <c r="AO21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
+      <c r="AP21" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR21" s="26" t="s">
         <v>48</v>
       </c>
@@ -46279,7 +46328,7 @@
     <row r="22" spans="1:47" ht="15" thickBot="1">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="B22" s="22">
         <f t="shared" si="1"/>
@@ -46287,49 +46336,49 @@
       </c>
       <c r="C22" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
+        <v>08:44</v>
+      </c>
+      <c r="L22" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18:09</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>406</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>48</v>
+        <v>434</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>43</v>
@@ -46364,7 +46413,9 @@
       <c r="AO22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AP22" s="26"/>
+      <c r="AP22" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ22" s="26"/>
       <c r="AR22" s="26" t="s">
         <v>48</v>
@@ -46477,11 +46528,11 @@
     <row r="24" spans="1:47" ht="15" thickBot="1">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="B24" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="C24" s="22">
         <f t="shared" si="2"/>
@@ -46489,11 +46540,11 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" si="5"/>
@@ -46501,33 +46552,33 @@
       </c>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
+        <v>07:58</v>
+      </c>
+      <c r="L24" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:29</v>
       </c>
       <c r="M24" s="26" t="s">
         <v>408</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
       <c r="O24" s="26" t="s">
         <v>43</v>
@@ -46535,7 +46586,9 @@
       <c r="P24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
@@ -46564,8 +46617,12 @@
       <c r="AO24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
+      <c r="AP24" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ24" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR24" s="26" t="s">
         <v>48</v>
       </c>
@@ -46578,11 +46635,11 @@
     <row r="25" spans="1:47" ht="15" thickBot="1">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="B25" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" si="2"/>
@@ -46590,11 +46647,11 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="5"/>
@@ -46602,33 +46659,33 @@
       </c>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
+        <v>07:59</v>
+      </c>
+      <c r="L25" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:58</v>
       </c>
       <c r="M25" s="26" t="s">
         <v>409</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>48</v>
+        <v>436</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>43</v>
@@ -46636,7 +46693,9 @@
       <c r="P25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
@@ -46665,8 +46724,12 @@
       <c r="AO25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
+      <c r="AP25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR25" s="26" t="s">
         <v>48</v>
       </c>
@@ -46679,11 +46742,11 @@
     <row r="26" spans="1:47" ht="15" thickBot="1">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="B26" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C26" s="22">
         <f t="shared" si="2"/>
@@ -46691,11 +46754,11 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" si="5"/>
@@ -46703,33 +46766,33 @@
       </c>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L26" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:19</v>
       </c>
       <c r="M26" s="26" t="s">
         <v>410</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>48</v>
+        <v>437</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>43</v>
@@ -46737,7 +46800,9 @@
       <c r="P26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
@@ -46766,8 +46831,12 @@
       <c r="AO26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
+      <c r="AP26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ26" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR26" s="26" t="s">
         <v>48</v>
       </c>
@@ -46780,11 +46849,11 @@
     <row r="27" spans="1:47" ht="15" thickBot="1">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="B27" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="2"/>
@@ -46792,11 +46861,11 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" si="5"/>
@@ -46804,33 +46873,33 @@
       </c>
       <c r="G27" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
+        <v>07:58</v>
+      </c>
+      <c r="L27" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:12</v>
       </c>
       <c r="M27" s="26" t="s">
         <v>411</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>48</v>
+        <v>438</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>43</v>
@@ -46838,7 +46907,9 @@
       <c r="P27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="26"/>
+      <c r="Q27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
@@ -46867,8 +46938,12 @@
       <c r="AO27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
+      <c r="AP27" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR27" s="26" t="s">
         <v>48</v>
       </c>
@@ -46881,11 +46956,11 @@
     <row r="28" spans="1:47" ht="15" thickBot="1">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="B28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C28" s="22">
         <f t="shared" si="2"/>
@@ -46893,11 +46968,11 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="5"/>
@@ -46905,33 +46980,33 @@
       </c>
       <c r="G28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="23">
+        <v>07:56</v>
+      </c>
+      <c r="L28" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:55</v>
       </c>
       <c r="M28" s="26" t="s">
         <v>412</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>48</v>
+        <v>439</v>
       </c>
       <c r="O28" s="26" t="s">
         <v>43</v>
@@ -46939,7 +47014,9 @@
       <c r="P28" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="26"/>
+      <c r="Q28" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
@@ -46968,8 +47045,12 @@
       <c r="AO28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="26"/>
+      <c r="AP28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ28" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR28" s="26" t="s">
         <v>48</v>
       </c>
@@ -46982,7 +47063,7 @@
     <row r="29" spans="1:47" ht="15" thickBot="1">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.38</v>
       </c>
       <c r="B29" s="22">
         <f t="shared" si="1"/>
@@ -46990,49 +47071,49 @@
       </c>
       <c r="C29" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D29" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="F29" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="J29" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="23">
+        <v>08:44</v>
+      </c>
+      <c r="L29" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17:37</v>
       </c>
       <c r="M29" s="26" t="s">
         <v>413</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>43</v>
@@ -47067,7 +47148,9 @@
       <c r="AO29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AP29" s="26"/>
+      <c r="AP29" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ29" s="26"/>
       <c r="AR29" s="26" t="s">
         <v>48</v>
@@ -47180,11 +47263,11 @@
     <row r="31" spans="1:47" ht="15" thickBot="1">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="B31" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="C31" s="22">
         <f t="shared" si="2"/>
@@ -47192,11 +47275,11 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="5"/>
@@ -47204,33 +47287,33 @@
       </c>
       <c r="G31" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="J31" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="23">
+        <v>08:04</v>
+      </c>
+      <c r="L31" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:02</v>
       </c>
       <c r="M31" s="26" t="s">
         <v>415</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>43</v>
@@ -47238,7 +47321,9 @@
       <c r="P31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
@@ -47267,8 +47352,12 @@
       <c r="AO31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="26"/>
+      <c r="AP31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ31" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR31" s="26" t="s">
         <v>48</v>
       </c>
@@ -47281,11 +47370,11 @@
     <row r="32" spans="1:47" ht="15" thickBot="1">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="B32" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C32" s="22">
         <f t="shared" si="2"/>
@@ -47293,11 +47382,11 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="5"/>
@@ -47305,33 +47394,33 @@
       </c>
       <c r="G32" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="J32" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L32" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:36</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>416</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>48</v>
+        <v>442</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>43</v>
@@ -47339,7 +47428,9 @@
       <c r="P32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="26"/>
+      <c r="Q32" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
@@ -47368,8 +47459,12 @@
       <c r="AO32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
+      <c r="AP32" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ32" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR32" s="26" t="s">
         <v>48</v>
       </c>
@@ -47382,11 +47477,11 @@
     <row r="33" spans="1:47" ht="15" thickBot="1">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="B33" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C33" s="22">
         <f t="shared" si="2"/>
@@ -47394,11 +47489,11 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="5"/>
@@ -47406,33 +47501,33 @@
       </c>
       <c r="G33" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
+        <v>08:20</v>
+      </c>
+      <c r="L33" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:47</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>417</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>43</v>
@@ -47440,7 +47535,9 @@
       <c r="P33" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="26"/>
+      <c r="Q33" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
@@ -47469,8 +47566,12 @@
       <c r="AO33" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
+      <c r="AP33" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ33" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR33" s="26" t="s">
         <v>48</v>
       </c>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="484">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1399,6 +1399,126 @@
   <si>
     <t> 08:20,20:47 </t>
   </si>
+  <si>
+    <t> 08:00,17:52 </t>
+  </si>
+  <si>
+    <t> 2019.08.02 </t>
+  </si>
+  <si>
+    <t> 07:39,17:38 </t>
+  </si>
+  <si>
+    <t> 2019.08.03 </t>
+  </si>
+  <si>
+    <t> 2019.08.04 </t>
+  </si>
+  <si>
+    <t> 2019.08.05 </t>
+  </si>
+  <si>
+    <t> 2019.08.06 </t>
+  </si>
+  <si>
+    <t> 2019.08.07 </t>
+  </si>
+  <si>
+    <t> 2019.08.08 </t>
+  </si>
+  <si>
+    <t> 2019.08.09 </t>
+  </si>
+  <si>
+    <t> 2019.08.10 </t>
+  </si>
+  <si>
+    <t> 2019.08.11 </t>
+  </si>
+  <si>
+    <t> 2019.08.12 </t>
+  </si>
+  <si>
+    <t> 2019.08.13 </t>
+  </si>
+  <si>
+    <t> 2019.08.14 </t>
+  </si>
+  <si>
+    <t> 2019.08.15 </t>
+  </si>
+  <si>
+    <t> 2019.08.16 </t>
+  </si>
+  <si>
+    <t> 2019.08.17 </t>
+  </si>
+  <si>
+    <t> 2019.08.18 </t>
+  </si>
+  <si>
+    <t> 2019.08.19 </t>
+  </si>
+  <si>
+    <t> 2019.08.20 </t>
+  </si>
+  <si>
+    <t> 2019.08.21 </t>
+  </si>
+  <si>
+    <t> 2019.08.22 </t>
+  </si>
+  <si>
+    <t> 2019.08.23 </t>
+  </si>
+  <si>
+    <t> 2019.08.24 </t>
+  </si>
+  <si>
+    <t> 2019.08.25 </t>
+  </si>
+  <si>
+    <t> 2019.08.26 </t>
+  </si>
+  <si>
+    <t> 2019.08.27 </t>
+  </si>
+  <si>
+    <t> 2019.08.28 </t>
+  </si>
+  <si>
+    <t> 2019.08.29 </t>
+  </si>
+  <si>
+    <t> 2019.08.30 </t>
+  </si>
+  <si>
+    <t> 2019.08.31 </t>
+  </si>
+  <si>
+    <t> 09:49,17:03 </t>
+  </si>
+  <si>
+    <t> 2019.08.01 </t>
+  </si>
+  <si>
+    <t> 08:00,20:55 </t>
+  </si>
+  <si>
+    <t> 07:54,21:49 </t>
+  </si>
+  <si>
+    <t> 08:03,19:40 </t>
+  </si>
+  <si>
+    <t> 07:54,20:50 </t>
+  </si>
+  <si>
+    <t> 07:50,22:15 </t>
+  </si>
+  <si>
+    <t> 11:08,18:37 </t>
+  </si>
 </sst>
 </file>
 
@@ -14247,7 +14367,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18454,7 +18574,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18986,9 +19106,66 @@
       <c r="A9" s="33">
         <v>43647</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="31">
+        <v>9480</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
+        <v>9480</v>
+      </c>
+      <c r="E9" s="32">
+        <v>6320</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="32">
+        <v>462.5</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>17462.5</v>
+      </c>
+      <c r="N9" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O9" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="P9" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>850</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <v>0</v>
+      </c>
+      <c r="T9" s="32">
+        <v>1082.8900000000001</v>
+      </c>
+      <c r="U9" s="32">
+        <v>14745.99</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="33">
@@ -44088,7 +44265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -48887,11 +49064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -48929,7 +49106,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -48944,7 +49121,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -49138,11 +49315,11 @@
       </c>
       <c r="D3" s="22">
         <f>IF(E3&gt;0,E3,0)</f>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="E3" s="22">
         <f>H3-F3</f>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="F3" s="22">
         <f>IF(G3&lt;(8*60+30),0,IF(G3&lt;(11*60+30),G3-(8*60+30),IF(G3&lt;(12*60+30),3*60+30,IF(G3&lt;(17*60+30),G3-(12*60+30)+3*60+30,IF(G3&lt;(18*60),8*60,G3-(18*60)+8*60)))))</f>
@@ -49150,33 +49327,43 @@
       </c>
       <c r="G3" s="22">
         <f>IF(K3&gt;0,MID(K3,1,2)*60+MID(K3,4,2),0)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H3" s="22">
         <f>IF(I3=0,0,IF(I3&lt;(11*60+30),(I3-(8*60+30)),IF(I3&lt;(17*60+30),I3-(12*60+30)+3*60,I3-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="I3" s="22">
         <f>IF(L3&gt;0,MID(L3,1,2)*60+MID(L3,4,2),0)</f>
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="J3" s="22">
         <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,2,5),IF(LEN(CLEAN(N3))=19,MID(N3,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+        <v>17:52</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
@@ -49198,14 +49385,24 @@
       <c r="AJ3" s="26"/>
       <c r="AK3" s="26"/>
       <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
+      <c r="AM3" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="27"/>
+      <c r="AO3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
+      <c r="AR3" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
+      <c r="AT3" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU3" s="13"/>
     </row>
     <row r="4" spans="1:47" ht="15" thickBot="1">
@@ -49223,11 +49420,11 @@
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D48" si="3">IF(E4&gt;0,E4,0)</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="E4" s="22">
         <f t="shared" ref="E4:E48" si="4">H4-F4</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F48" si="5">IF(G4&lt;(8*60+30),0,IF(G4&lt;(11*60+30),G4-(8*60+30),IF(G4&lt;(12*60+30),3*60+30,IF(G4&lt;(17*60+30),G4-(12*60+30)+3*60+30,IF(G4&lt;(18*60),8*60,G4-(18*60)+8*60)))))</f>
@@ -49235,33 +49432,43 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G48" si="6">IF(K4&gt;0,MID(K4,1,2)*60+MID(K4,4,2),0)</f>
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" ref="H4:H48" si="7">IF(I4=0,0,IF(I4&lt;(11*60+30),(I4-(8*60+30)),IF(I4&lt;(17*60+30),I4-(12*60+30)+3*60,I4-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" ref="I4:I48" si="8">IF(L4&gt;0,MID(L4,1,2)*60+MID(L4,4,2),0)</f>
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="J4" s="22">
         <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23" t="str">
         <f t="shared" ref="K4:K48" si="10">IF(LEN(CLEAN(N4))=13,MID(N4,2,5),IF(LEN(CLEAN(N4))=19,MID(N4,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+        <v>07:39</v>
+      </c>
+      <c r="L4" s="23" t="str">
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+        <v>17:38</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
@@ -49283,20 +49490,30 @@
       <c r="AJ4" s="26"/>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
+      <c r="AM4" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
+      <c r="AO4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
+      <c r="AR4" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
+      <c r="AT4" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU4" s="13"/>
     </row>
     <row r="5" spans="1:47" ht="15" thickBot="1">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="B5" s="22">
         <f t="shared" si="1"/>
@@ -49304,47 +49521,53 @@
       </c>
       <c r="C5" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+        <v>09:49</v>
+      </c>
+      <c r="L5" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+        <v>17:03</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
@@ -49368,14 +49591,22 @@
       <c r="AJ5" s="26"/>
       <c r="AK5" s="26"/>
       <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
+      <c r="AM5" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
+      <c r="AO5" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="AP5" s="26"/>
       <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
+      <c r="AR5" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
+      <c r="AT5" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU5" s="13"/>
     </row>
     <row r="6" spans="1:47" ht="15" thickBot="1">
@@ -49427,9 +49658,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="M6" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
@@ -49453,24 +49690,32 @@
       <c r="AJ6" s="26"/>
       <c r="AK6" s="26"/>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
+      <c r="AM6" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
+      <c r="AO6" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
+      <c r="AR6" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
+      <c r="AT6" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU6" s="13"/>
     </row>
     <row r="7" spans="1:47" ht="15" thickBot="1">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="B7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="C7" s="22">
         <f t="shared" si="2"/>
@@ -49478,11 +49723,11 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="5"/>
@@ -49490,33 +49735,43 @@
       </c>
       <c r="G7" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="J7" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
+        <v>08:00</v>
+      </c>
+      <c r="L7" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+        <v>20:55</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -49538,24 +49793,36 @@
       <c r="AJ7" s="26"/>
       <c r="AK7" s="26"/>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
+      <c r="AM7" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
+      <c r="AO7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR7" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
+      <c r="AT7" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU7" s="13"/>
     </row>
     <row r="8" spans="1:47" ht="15" thickBot="1">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="B8" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C8" s="22">
         <f t="shared" si="2"/>
@@ -49563,11 +49830,11 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="E8" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="5"/>
@@ -49575,33 +49842,43 @@
       </c>
       <c r="G8" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1309</v>
       </c>
       <c r="J8" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="23">
+        <v>07:54</v>
+      </c>
+      <c r="L8" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+        <v>21:49</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
@@ -49623,24 +49900,36 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
+      <c r="AM8" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
+      <c r="AO8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR8" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
+      <c r="AT8" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU8" s="13"/>
     </row>
     <row r="9" spans="1:47" ht="15" thickBot="1">
       <c r="A9" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="B9" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="22">
         <f t="shared" si="2"/>
@@ -49648,11 +49937,11 @@
       </c>
       <c r="D9" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="F9" s="22">
         <f t="shared" si="5"/>
@@ -49660,33 +49949,43 @@
       </c>
       <c r="G9" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="J9" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
+        <v>08:03</v>
+      </c>
+      <c r="L9" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
+        <v>19:40</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
@@ -49708,24 +50007,34 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26"/>
-      <c r="AM9" s="26"/>
+      <c r="AM9" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="27"/>
+      <c r="AO9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="26"/>
+      <c r="AR9" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
+      <c r="AT9" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU9" s="13"/>
     </row>
     <row r="10" spans="1:47" ht="15" thickBot="1">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" si="2"/>
@@ -49733,11 +50042,11 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" si="5"/>
@@ -49745,33 +50054,43 @@
       </c>
       <c r="G10" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+        <v>07:54</v>
+      </c>
+      <c r="L10" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+        <v>20:50</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
@@ -49793,24 +50112,36 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="26"/>
       <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
+      <c r="AM10" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
+      <c r="AO10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
+      <c r="AT10" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU10" s="13"/>
     </row>
     <row r="11" spans="1:47" ht="15" thickBot="1">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="B11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C11" s="22">
         <f t="shared" si="2"/>
@@ -49818,11 +50149,11 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="5"/>
@@ -49830,33 +50161,43 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
+        <v>07:50</v>
+      </c>
+      <c r="L11" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
+        <v>22:15</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -49878,20 +50219,32 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="26"/>
       <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
+      <c r="AM11" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="26"/>
+      <c r="AO11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP11" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR11" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
+      <c r="AT11" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU11" s="13"/>
     </row>
     <row r="12" spans="1:47" ht="15" thickBot="1">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="B12" s="22">
         <f t="shared" si="1"/>
@@ -49899,49 +50252,55 @@
       </c>
       <c r="C12" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>11:08</v>
+      </c>
+      <c r="L12" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
+        <v>18:37</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
@@ -49963,14 +50322,22 @@
       <c r="AJ12" s="26"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
+      <c r="AM12" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="27"/>
+      <c r="AO12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
+      <c r="AR12" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
+      <c r="AT12" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU12" s="13"/>
     </row>
     <row r="13" spans="1:47" ht="15" thickBot="1">
@@ -50022,9 +50389,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="M13" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
@@ -50048,14 +50421,22 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="26"/>
       <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
+      <c r="AM13" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
+      <c r="AO13" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="26"/>
+      <c r="AR13" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
+      <c r="AT13" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU13" s="13"/>
     </row>
     <row r="14" spans="1:47" ht="15" thickBot="1">
@@ -50097,7 +50478,7 @@
       </c>
       <c r="J14" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="10"/>
@@ -50107,17 +50488,29 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="M14" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
+      <c r="T14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
+      <c r="W14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
@@ -50133,14 +50526,22 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
+      <c r="AM14" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
+      <c r="AO14" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
+      <c r="AR14" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
+      <c r="AT14" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU14" s="13"/>
     </row>
     <row r="15" spans="1:47" ht="15" thickBot="1">
@@ -50182,7 +50583,7 @@
       </c>
       <c r="J15" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="10"/>
@@ -50192,11 +50593,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
+      <c r="M15" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
@@ -50218,14 +50627,22 @@
       <c r="AJ15" s="26"/>
       <c r="AK15" s="26"/>
       <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
+      <c r="AM15" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="27"/>
+      <c r="AO15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
+      <c r="AR15" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
+      <c r="AT15" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU15" s="13"/>
     </row>
     <row r="16" spans="1:47" ht="15" thickBot="1">
@@ -50267,7 +50684,7 @@
       </c>
       <c r="J16" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="10"/>
@@ -50277,11 +50694,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
+      <c r="M16" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
@@ -50303,14 +50728,22 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
+      <c r="AM16" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="27"/>
+      <c r="AO16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
+      <c r="AR16" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
+      <c r="AT16" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU16" s="13"/>
     </row>
     <row r="17" spans="1:47" ht="15" thickBot="1">
@@ -50352,7 +50785,7 @@
       </c>
       <c r="J17" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="23">
         <f t="shared" si="10"/>
@@ -50362,11 +50795,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
+      <c r="M17" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
@@ -50388,14 +50829,22 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
+      <c r="AM17" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="27"/>
+      <c r="AO17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP17" s="26"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
+      <c r="AR17" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
+      <c r="AT17" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU17" s="13"/>
     </row>
     <row r="18" spans="1:47" ht="15" thickBot="1">
@@ -50437,7 +50886,7 @@
       </c>
       <c r="J18" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="23">
         <f t="shared" si="10"/>
@@ -50447,11 +50896,19 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="M18" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -50473,14 +50930,22 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
       <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
+      <c r="AM18" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="27"/>
+      <c r="AO18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="26"/>
       <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
+      <c r="AR18" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
+      <c r="AT18" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU18" s="13"/>
     </row>
     <row r="19" spans="1:47" ht="15" thickBot="1">
@@ -50532,11 +50997,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="M19" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
@@ -50558,14 +51029,22 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
+      <c r="AM19" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="27"/>
+      <c r="AO19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
+      <c r="AR19" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
+      <c r="AT19" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU19" s="13"/>
     </row>
     <row r="20" spans="1:47" ht="15" thickBot="1">
@@ -50617,9 +51096,15 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="26"/>
+      <c r="M20" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
@@ -50643,17 +51128,25 @@
       <c r="AJ20" s="26"/>
       <c r="AK20" s="26"/>
       <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
+      <c r="AM20" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="27"/>
+      <c r="AO20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
+      <c r="AR20" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
+      <c r="AT20" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU20" s="13"/>
     </row>
-    <row r="21" spans="1:47" ht="14.25">
+    <row r="21" spans="1:47" ht="15" thickBot="1">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -50692,7 +51185,7 @@
       </c>
       <c r="J21" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="23">
         <f t="shared" si="10"/>
@@ -50702,43 +51195,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
+      <c r="M21" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU21" s="13"/>
     </row>
-    <row r="22" spans="1:47" ht="14.25">
+    <row r="22" spans="1:47" ht="15" thickBot="1">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -50777,7 +51286,7 @@
       </c>
       <c r="J22" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="23">
         <f t="shared" si="10"/>
@@ -50787,43 +51296,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
-      <c r="AT22" s="37"/>
+      <c r="M22" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU22" s="13"/>
     </row>
-    <row r="23" spans="1:47" ht="14.25">
+    <row r="23" spans="1:47" ht="15" thickBot="1">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -50862,7 +51387,7 @@
       </c>
       <c r="J23" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="23">
         <f t="shared" si="10"/>
@@ -50872,43 +51397,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
+      <c r="M23" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU23" s="13"/>
     </row>
-    <row r="24" spans="1:47" ht="14.25">
+    <row r="24" spans="1:47" ht="15" thickBot="1">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -50947,7 +51488,7 @@
       </c>
       <c r="J24" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="23">
         <f t="shared" si="10"/>
@@ -50957,43 +51498,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
+      <c r="M24" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU24" s="13"/>
     </row>
-    <row r="25" spans="1:47" ht="14.25">
+    <row r="25" spans="1:47" ht="15" thickBot="1">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51032,7 +51589,7 @@
       </c>
       <c r="J25" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="23">
         <f t="shared" si="10"/>
@@ -51042,43 +51599,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="37"/>
-      <c r="AO25" s="37"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="37"/>
-      <c r="AS25" s="37"/>
-      <c r="AT25" s="37"/>
+      <c r="M25" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU25" s="13"/>
     </row>
-    <row r="26" spans="1:47" ht="14.25">
+    <row r="26" spans="1:47" ht="15" thickBot="1">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51127,43 +51700,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="37"/>
-      <c r="AN26" s="37"/>
-      <c r="AO26" s="37"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="37"/>
-      <c r="AT26" s="37"/>
+      <c r="M26" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU26" s="13"/>
     </row>
-    <row r="27" spans="1:47" ht="14.25">
+    <row r="27" spans="1:47" ht="15" thickBot="1">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51212,43 +51799,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
+      <c r="M27" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU27" s="13"/>
     </row>
-    <row r="28" spans="1:47" ht="14.25">
+    <row r="28" spans="1:47" ht="15" thickBot="1">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51287,7 +51888,7 @@
       </c>
       <c r="J28" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="23">
         <f t="shared" si="10"/>
@@ -51297,43 +51898,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
+      <c r="M28" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU28" s="13"/>
     </row>
-    <row r="29" spans="1:47" ht="14.25">
+    <row r="29" spans="1:47" ht="15" thickBot="1">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51372,7 +51989,7 @@
       </c>
       <c r="J29" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="23">
         <f t="shared" si="10"/>
@@ -51382,43 +51999,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
+      <c r="M29" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU29" s="13"/>
     </row>
-    <row r="30" spans="1:47" ht="14.25">
+    <row r="30" spans="1:47" ht="15" thickBot="1">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51457,7 +52090,7 @@
       </c>
       <c r="J30" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="23">
         <f t="shared" si="10"/>
@@ -51467,43 +52100,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
+      <c r="M30" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU30" s="13"/>
     </row>
-    <row r="31" spans="1:47" ht="14.25">
+    <row r="31" spans="1:47" ht="15" thickBot="1">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51542,7 +52191,7 @@
       </c>
       <c r="J31" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="23">
         <f t="shared" si="10"/>
@@ -51552,43 +52201,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="37"/>
-      <c r="AS31" s="37"/>
-      <c r="AT31" s="37"/>
+      <c r="M31" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU31" s="13"/>
     </row>
-    <row r="32" spans="1:47" ht="14.25">
+    <row r="32" spans="1:47" ht="15" thickBot="1">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51627,7 +52292,7 @@
       </c>
       <c r="J32" s="22">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="23">
         <f t="shared" si="10"/>
@@ -51637,43 +52302,59 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
-      <c r="AO32" s="37"/>
-      <c r="AP32" s="37"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="37"/>
-      <c r="AS32" s="37"/>
-      <c r="AT32" s="37"/>
+      <c r="M32" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU32" s="13"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25">
+    <row r="33" spans="1:47" ht="15" thickBot="1">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51722,43 +52403,57 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="37"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="37"/>
-      <c r="AS33" s="37"/>
-      <c r="AT33" s="37"/>
+      <c r="M33" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26" t="s">
+        <v>47</v>
+      </c>
       <c r="AU33" s="13"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" ht="14.25" thickBot="1">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51807,40 +52502,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
+      <c r="M34" s="28"/>
       <c r="AU34" s="13"/>
     </row>
     <row r="35" spans="1:47" ht="14.25">

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="11月" sheetId="54" r:id="rId11"/>
     <sheet name="12月" sheetId="53" r:id="rId12"/>
     <sheet name="隐藏" sheetId="47" state="hidden" r:id="rId13"/>
-    <sheet name="工资" sheetId="32" state="hidden" r:id="rId14"/>
+    <sheet name="工资" sheetId="32" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -23345,8 +23345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23943,9 +23943,66 @@
       <c r="A10" s="33">
         <v>43678</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="32">
+        <v>10680</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>10680</v>
+      </c>
+      <c r="E10" s="32">
+        <v>7120</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="32">
+        <v>412.5</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>19412.5</v>
+      </c>
+      <c r="N10" s="32">
+        <v>758.4</v>
+      </c>
+      <c r="O10" s="32">
+        <v>18.62</v>
+      </c>
+      <c r="P10" s="32">
+        <v>6.6</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>850</v>
+      </c>
+      <c r="R10" s="32">
+        <v>0</v>
+      </c>
+      <c r="S10" s="32">
+        <v>0</v>
+      </c>
+      <c r="T10" s="32">
+        <v>1277.8900000000001</v>
+      </c>
+      <c r="U10" s="32">
+        <v>16500.990000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="33">
@@ -54337,7 +54394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -16,7 +16,7 @@
     <sheet name="7月" sheetId="42" r:id="rId7"/>
     <sheet name="8月" sheetId="46" r:id="rId8"/>
     <sheet name="9月_" sheetId="57" r:id="rId9"/>
-    <sheet name="当月" sheetId="58" state="hidden" r:id="rId10"/>
+    <sheet name="当月" sheetId="58" r:id="rId10"/>
     <sheet name="隐藏" sheetId="47" state="hidden" r:id="rId11"/>
     <sheet name="工资" sheetId="32" state="hidden" r:id="rId12"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="552">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1677,9 +1677,6 @@
     <t> 2019.09.30 </t>
   </si>
   <si>
-    <t> 2019.09.01 </t>
-  </si>
-  <si>
     <t> 08:26,21:43 </t>
   </si>
   <si>
@@ -1693,6 +1690,39 @@
   </si>
   <si>
     <t> 08:07,20:01 </t>
+  </si>
+  <si>
+    <t>2019.09.01 </t>
+  </si>
+  <si>
+    <t> 08:03,20:59 </t>
+  </si>
+  <si>
+    <t> 08:15,20:58 </t>
+  </si>
+  <si>
+    <t> 08:11,20:59 </t>
+  </si>
+  <si>
+    <t> 08:24,20:44 </t>
+  </si>
+  <si>
+    <t> 08:04,20:25 </t>
+  </si>
+  <si>
+    <t> 08:08,20:28 </t>
+  </si>
+  <si>
+    <t> 11:29,18:14 </t>
+  </si>
+  <si>
+    <t> 08:08,21:21 </t>
+  </si>
+  <si>
+    <t> 08:20,20:57 </t>
+  </si>
+  <si>
+    <t> 08:24,21:32 </t>
   </si>
 </sst>
 </file>
@@ -6114,7 +6144,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10305,7 +10335,7 @@
       <c r="AU49" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="M3:AT48" name="编辑"/>
   </protectedRanges>
@@ -45681,10 +45711,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45721,7 +45751,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>34.770000000000003</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -45736,7 +45766,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>2086</v>
+        <v>4464</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -45965,7 +45995,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>48</v>
@@ -46600,7 +46630,7 @@
         <v>512</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O9" s="26" t="s">
         <v>44</v>
@@ -46802,7 +46832,7 @@
         <v>514</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O11" s="26" t="s">
         <v>44</v>
@@ -46909,7 +46939,7 @@
         <v>515</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>44</v>
@@ -47016,7 +47046,7 @@
         <v>516</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>44</v>
@@ -47121,7 +47151,7 @@
         <v>517</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O14" s="26" t="s">
         <v>44</v>
@@ -47178,7 +47208,7 @@
     <row r="15" spans="1:47" ht="15" thickBot="1">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="B15" s="22">
         <f t="shared" si="1"/>
@@ -47186,15 +47216,15 @@
       </c>
       <c r="C15" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="D15" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="5"/>
@@ -47202,33 +47232,33 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="23">
+        <v>08:03</v>
+      </c>
+      <c r="L15" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:59</v>
       </c>
       <c r="M15" s="26" t="s">
         <v>518</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>48</v>
+        <v>542</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>44</v>
@@ -47263,8 +47293,12 @@
       <c r="AO15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
+      <c r="AP15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ15" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR15" s="26" t="s">
         <v>48</v>
       </c>
@@ -47475,11 +47509,11 @@
     <row r="18" spans="1:47" ht="15" thickBot="1">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="B18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" si="2"/>
@@ -47487,11 +47521,11 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="5"/>
@@ -47499,33 +47533,33 @@
       </c>
       <c r="G18" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1258</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
+        <v>08:15</v>
+      </c>
+      <c r="L18" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:58</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>521</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>48</v>
+        <v>543</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>44</v>
@@ -47536,7 +47570,9 @@
       <c r="Q18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="26"/>
+      <c r="R18" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
@@ -47562,8 +47598,12 @@
       <c r="AO18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
+      <c r="AP18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ18" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR18" s="26" t="s">
         <v>48</v>
       </c>
@@ -47576,11 +47616,11 @@
     <row r="19" spans="1:47" ht="15" thickBot="1">
       <c r="A19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="B19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" si="2"/>
@@ -47588,11 +47628,11 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="5"/>
@@ -47600,33 +47640,33 @@
       </c>
       <c r="G19" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
+        <v>08:11</v>
+      </c>
+      <c r="L19" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:59</v>
       </c>
       <c r="M19" s="26" t="s">
         <v>522</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>48</v>
+        <v>544</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>44</v>
@@ -47637,7 +47677,9 @@
       <c r="Q19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="26"/>
+      <c r="R19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -47663,8 +47705,12 @@
       <c r="AO19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
+      <c r="AP19" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR19" s="26" t="s">
         <v>48</v>
       </c>
@@ -47677,11 +47723,11 @@
     <row r="20" spans="1:47" ht="15" thickBot="1">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="B20" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" si="2"/>
@@ -47689,11 +47735,11 @@
       </c>
       <c r="D20" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" si="5"/>
@@ -47701,33 +47747,33 @@
       </c>
       <c r="G20" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1244</v>
       </c>
       <c r="J20" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
+        <v>08:24</v>
+      </c>
+      <c r="L20" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:44</v>
       </c>
       <c r="M20" s="26" t="s">
         <v>523</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>48</v>
+        <v>545</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>44</v>
@@ -47738,7 +47784,9 @@
       <c r="Q20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="26"/>
+      <c r="R20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
@@ -47764,8 +47812,12 @@
       <c r="AO20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
+      <c r="AP20" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR20" s="26" t="s">
         <v>48</v>
       </c>
@@ -47778,11 +47830,11 @@
     <row r="21" spans="1:47" ht="15" thickBot="1">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="B21" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C21" s="22">
         <f t="shared" si="2"/>
@@ -47790,11 +47842,11 @@
       </c>
       <c r="D21" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="5"/>
@@ -47802,33 +47854,33 @@
       </c>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
+        <v>08:04</v>
+      </c>
+      <c r="L21" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:25</v>
       </c>
       <c r="M21" s="26" t="s">
         <v>524</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>48</v>
+        <v>546</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>44</v>
@@ -47839,7 +47891,9 @@
       <c r="Q21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
@@ -47865,8 +47919,12 @@
       <c r="AO21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
+      <c r="AP21" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR21" s="26" t="s">
         <v>48</v>
       </c>
@@ -47879,11 +47937,11 @@
     <row r="22" spans="1:47" ht="15" thickBot="1">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="B22" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C22" s="22">
         <f t="shared" si="2"/>
@@ -47891,11 +47949,11 @@
       </c>
       <c r="D22" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="5"/>
@@ -47903,33 +47961,33 @@
       </c>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
+        <v>08:08</v>
+      </c>
+      <c r="L22" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:28</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>525</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>48</v>
+        <v>547</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>44</v>
@@ -47940,7 +47998,9 @@
       <c r="Q22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R22" s="26"/>
+      <c r="R22" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
@@ -47966,8 +48026,12 @@
       <c r="AO22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
+      <c r="AP22" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ22" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR22" s="26" t="s">
         <v>48</v>
       </c>
@@ -47980,7 +48044,7 @@
     <row r="23" spans="1:47" ht="15" thickBot="1">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="B23" s="22">
         <f t="shared" si="1"/>
@@ -47988,49 +48052,49 @@
       </c>
       <c r="C23" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D23" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
+        <v>11:29</v>
+      </c>
+      <c r="L23" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18:14</v>
       </c>
       <c r="M23" s="26" t="s">
         <v>526</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>48</v>
+        <v>548</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>44</v>
@@ -48065,7 +48129,9 @@
       <c r="AO23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AP23" s="26"/>
+      <c r="AP23" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AQ23" s="26"/>
       <c r="AR23" s="26" t="s">
         <v>48</v>
@@ -48178,11 +48244,11 @@
     <row r="25" spans="1:47" ht="15" thickBot="1">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="B25" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" si="2"/>
@@ -48190,11 +48256,11 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="5"/>
@@ -48202,33 +48268,33 @@
       </c>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
+        <v>08:08</v>
+      </c>
+      <c r="L25" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:21</v>
       </c>
       <c r="M25" s="26" t="s">
         <v>528</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>44</v>
@@ -48239,7 +48305,9 @@
       <c r="Q25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="26"/>
+      <c r="R25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -48265,8 +48333,12 @@
       <c r="AO25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
+      <c r="AP25" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR25" s="26" t="s">
         <v>48</v>
       </c>
@@ -48279,11 +48351,11 @@
     <row r="26" spans="1:47" ht="15" thickBot="1">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="B26" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C26" s="22">
         <f t="shared" si="2"/>
@@ -48291,11 +48363,11 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" si="5"/>
@@ -48303,33 +48375,33 @@
       </c>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
+        <v>08:20</v>
+      </c>
+      <c r="L26" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:57</v>
       </c>
       <c r="M26" s="26" t="s">
         <v>529</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>48</v>
+        <v>550</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>44</v>
@@ -48340,7 +48412,9 @@
       <c r="Q26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="26"/>
+      <c r="R26" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -48366,8 +48440,12 @@
       <c r="AO26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
+      <c r="AP26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ26" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR26" s="26" t="s">
         <v>48</v>
       </c>
@@ -48380,11 +48458,11 @@
     <row r="27" spans="1:47" ht="15" thickBot="1">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="B27" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="2"/>
@@ -48392,11 +48470,11 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" si="5"/>
@@ -48404,33 +48482,33 @@
       </c>
       <c r="G27" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
+        <v>08:24</v>
+      </c>
+      <c r="L27" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:32</v>
       </c>
       <c r="M27" s="26" t="s">
         <v>530</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>48</v>
+        <v>551</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>44</v>
@@ -48441,7 +48519,9 @@
       <c r="Q27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="26"/>
+      <c r="R27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -48467,8 +48547,12 @@
       <c r="AO27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="26"/>
+      <c r="AP27" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AR27" s="26" t="s">
         <v>48</v>
       </c>
@@ -48545,10 +48629,14 @@
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
+      <c r="U28" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
+      <c r="X28" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26"/>
       <c r="AA28" s="26"/>
@@ -50358,7 +50446,7 @@
       <c r="AU49" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="M3:AT48" name="编辑"/>
   </protectedRanges>

--- a/WorkTime/2019年加班.xlsx
+++ b/WorkTime/2019年加班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="29" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="640">
   <si>
     <t>工作日期 </t>
   </si>
@@ -1719,9 +1719,6 @@
     <t> 08:24,21:32 </t>
   </si>
   <si>
-    <t>2019.10.01 </t>
-  </si>
-  <si>
     <t> 2019.10.02 </t>
   </si>
   <si>
@@ -1909,6 +1906,87 @@
   </si>
   <si>
     <t> 2019.11.30 </t>
+  </si>
+  <si>
+    <t> 2019.10.01 </t>
+  </si>
+  <si>
+    <t> 08:07,20:59 </t>
+  </si>
+  <si>
+    <t> 08:09,20:52 </t>
+  </si>
+  <si>
+    <t> 08:34,21:23 </t>
+  </si>
+  <si>
+    <t> 08:07,21:15 </t>
+  </si>
+  <si>
+    <t> 08:03,20:17 </t>
+  </si>
+  <si>
+    <t> 08:12,20:24 </t>
+  </si>
+  <si>
+    <t> 08:08,20:23 </t>
+  </si>
+  <si>
+    <t> 08:22,20:14 </t>
+  </si>
+  <si>
+    <t> 07:28,21:24 </t>
+  </si>
+  <si>
+    <t> 08:25,22:19 </t>
+  </si>
+  <si>
+    <t> 08:07,20:39 </t>
+  </si>
+  <si>
+    <t> 08:05,20:52 </t>
+  </si>
+  <si>
+    <t> 08:18,18:12 </t>
+  </si>
+  <si>
+    <t> 10:29,20:25 </t>
+  </si>
+  <si>
+    <t> 15:59,21:09 </t>
+  </si>
+  <si>
+    <t> 08:34,20:29 </t>
+  </si>
+  <si>
+    <t> 08:25,20:33 </t>
+  </si>
+  <si>
+    <t> 08:54,18:57 </t>
+  </si>
+  <si>
+    <t> 08:30,20:27 </t>
+  </si>
+  <si>
+    <t> 08:16,19:16 </t>
+  </si>
+  <si>
+    <t> 12:12,21:01 </t>
+  </si>
+  <si>
+    <t> 15:14,21:19 </t>
+  </si>
+  <si>
+    <t> 08:27,21:03 </t>
+  </si>
+  <si>
+    <t> 08:06,21:07 </t>
+  </si>
+  <si>
+    <t> 08:11,20:52 </t>
+  </si>
+  <si>
+    <t> 08:16,21:23 </t>
   </si>
 </sst>
 </file>
@@ -6329,11 +6407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6370,7 +6448,7 @@
       </c>
       <c r="B1" s="16">
         <f>ROUND(L1/60,2)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>36</v>
@@ -6385,7 +6463,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="18">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
-        <v>0</v>
+        <v>6360</v>
       </c>
       <c r="M1" s="24"/>
       <c r="N1" s="25"/>
@@ -6567,7 +6645,7 @@
     <row r="3" spans="1:47" ht="15" thickBot="1">
       <c r="A3" s="21">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="B3" s="22">
         <f>IF(AND(D3&gt;(8*60),J3=0),D3-(8*60),0)</f>
@@ -6575,15 +6653,15 @@
       </c>
       <c r="C3" s="22">
         <f>IF(AND(J3=1,D3&gt;0),D3,0)</f>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="D3" s="22">
         <f>IF(E3&gt;0,E3,0)</f>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E3" s="22">
         <f>H3-F3</f>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="F3" s="22">
         <f>IF(G3&lt;(8*60+30),0,IF(G3&lt;(11*60+30),G3-(8*60+30),IF(G3&lt;(12*60+30),3*60+30,IF(G3&lt;(17*60+30),G3-(12*60+30)+3*60+30,IF(G3&lt;(18*60),8*60,G3-(18*60)+8*60)))))</f>
@@ -6591,33 +6669,33 @@
       </c>
       <c r="G3" s="22">
         <f>IF(K3&gt;0,MID(K3,1,2)*60+MID(K3,4,2),0)</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H3" s="22">
         <f>IF(I3=0,0,IF(I3&lt;(11*60+30),(I3-(8*60+30)),IF(I3&lt;(17*60+30),I3-(12*60+30)+3*60,I3-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="I3" s="22">
         <f>IF(L3&gt;0,MID(L3,1,2)*60+MID(L3,4,2),0)</f>
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="J3" s="22">
         <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,2,5),IF(LEN(CLEAN(N3))=19,MID(N3,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
+        <v>08:07</v>
+      </c>
+      <c r="L3" s="23" t="str">
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
-        <v>0</v>
+        <v>20:59</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>48</v>
+        <v>614</v>
       </c>
       <c r="O3" s="26" t="s">
         <v>44</v>
@@ -6648,14 +6726,18 @@
       <c r="AK3" s="26"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
+      <c r="AN3" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO3" s="34" t="s">
         <v>67</v>
       </c>
       <c r="AP3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AQ3" s="26"/>
+      <c r="AQ3" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR3" s="26" t="s">
         <v>48</v>
       </c>
@@ -6668,7 +6750,7 @@
     <row r="4" spans="1:47" ht="15" thickBot="1">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="B4" s="22">
         <f t="shared" ref="B4:B48" si="1">IF(AND(D4&gt;(8*60),J4=0),D4-(8*60),0)</f>
@@ -6676,15 +6758,15 @@
       </c>
       <c r="C4" s="22">
         <f t="shared" ref="C4:C48" si="2">IF(AND(J4=1,D4&gt;0),D4,0)</f>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D48" si="3">IF(E4&gt;0,E4,0)</f>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E4" s="22">
         <f t="shared" ref="E4:E48" si="4">H4-F4</f>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F48" si="5">IF(G4&lt;(8*60+30),0,IF(G4&lt;(11*60+30),G4-(8*60+30),IF(G4&lt;(12*60+30),3*60+30,IF(G4&lt;(17*60+30),G4-(12*60+30)+3*60+30,IF(G4&lt;(18*60),8*60,G4-(18*60)+8*60)))))</f>
@@ -6692,33 +6774,33 @@
       </c>
       <c r="G4" s="22">
         <f t="shared" ref="G4:G48" si="6">IF(K4&gt;0,MID(K4,1,2)*60+MID(K4,4,2),0)</f>
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" ref="H4:H48" si="7">IF(I4=0,0,IF(I4&lt;(11*60+30),(I4-(8*60+30)),IF(I4&lt;(17*60+30),I4-(12*60+30)+3*60,I4-(18*60)+8*60)))</f>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" ref="I4:I48" si="8">IF(L4&gt;0,MID(L4,1,2)*60+MID(L4,4,2),0)</f>
-        <v>0</v>
+        <v>1252</v>
       </c>
       <c r="J4" s="22">
         <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="23" t="str">
         <f t="shared" ref="K4:K48" si="10">IF(LEN(CLEAN(N4))=13,MID(N4,2,5),IF(LEN(CLEAN(N4))=19,MID(N4,8,5),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+        <v>08:09</v>
+      </c>
+      <c r="L4" s="23" t="str">
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
-        <v>0</v>
+        <v>20:52</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>48</v>
+        <v>615</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>44</v>
@@ -6749,14 +6831,18 @@
       <c r="AK4" s="26"/>
       <c r="AL4" s="26"/>
       <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
+      <c r="AN4" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO4" s="34" t="s">
         <v>67</v>
       </c>
       <c r="AP4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AQ4" s="26"/>
+      <c r="AQ4" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR4" s="26" t="s">
         <v>48</v>
       </c>
@@ -6769,7 +6855,7 @@
     <row r="5" spans="1:47" ht="15" thickBot="1">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="B5" s="22">
         <f t="shared" si="1"/>
@@ -6777,49 +6863,49 @@
       </c>
       <c r="C5" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="J5" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+        <v>08:34</v>
+      </c>
+      <c r="L5" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:23</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>48</v>
+        <v>616</v>
       </c>
       <c r="O5" s="26" t="s">
         <v>44</v>
@@ -6850,14 +6936,18 @@
       <c r="AK5" s="26"/>
       <c r="AL5" s="26"/>
       <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
+      <c r="AN5" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO5" s="34" t="s">
         <v>67</v>
       </c>
       <c r="AP5" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AQ5" s="26"/>
+      <c r="AQ5" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR5" s="26" t="s">
         <v>48</v>
       </c>
@@ -6917,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>48</v>
@@ -7018,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>48</v>
@@ -7119,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>48</v>
@@ -7220,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>48</v>
@@ -7274,11 +7364,11 @@
     <row r="10" spans="1:47" ht="15" thickBot="1">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="B10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" si="2"/>
@@ -7286,11 +7376,11 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" si="5"/>
@@ -7298,33 +7388,33 @@
       </c>
       <c r="G10" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
+        <v>08:07</v>
+      </c>
+      <c r="L10" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:15</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>48</v>
+        <v>617</v>
       </c>
       <c r="O10" s="26" t="s">
         <v>44</v>
@@ -7335,7 +7425,9 @@
       <c r="Q10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="26"/>
+      <c r="R10" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
@@ -7364,7 +7456,9 @@
       <c r="AP10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ10" s="26"/>
+      <c r="AQ10" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR10" s="26" t="s">
         <v>48</v>
       </c>
@@ -7377,11 +7471,11 @@
     <row r="11" spans="1:47" ht="15" thickBot="1">
       <c r="A11" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C11" s="22">
         <f t="shared" si="2"/>
@@ -7389,11 +7483,11 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="5"/>
@@ -7401,33 +7495,33 @@
       </c>
       <c r="G11" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="J11" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
+        <v>08:03</v>
+      </c>
+      <c r="L11" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:17</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>48</v>
+        <v>618</v>
       </c>
       <c r="O11" s="26" t="s">
         <v>44</v>
@@ -7438,7 +7532,9 @@
       <c r="Q11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
@@ -7467,7 +7563,9 @@
       <c r="AP11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ11" s="26"/>
+      <c r="AQ11" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR11" s="26" t="s">
         <v>48</v>
       </c>
@@ -7480,11 +7578,11 @@
     <row r="12" spans="1:47" ht="15" thickBot="1">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="B12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C12" s="22">
         <f t="shared" si="2"/>
@@ -7492,11 +7590,11 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="5"/>
@@ -7504,33 +7602,33 @@
       </c>
       <c r="G12" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
+        <v>08:12</v>
+      </c>
+      <c r="L12" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:24</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>48</v>
+        <v>619</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>44</v>
@@ -7541,7 +7639,9 @@
       <c r="Q12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="26"/>
+      <c r="R12" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
@@ -7570,7 +7670,9 @@
       <c r="AP12" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ12" s="26"/>
+      <c r="AQ12" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR12" s="26" t="s">
         <v>48</v>
       </c>
@@ -7583,11 +7685,11 @@
     <row r="13" spans="1:47" ht="15" thickBot="1">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="B13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C13" s="22">
         <f t="shared" si="2"/>
@@ -7595,11 +7697,11 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="5"/>
@@ -7607,33 +7709,33 @@
       </c>
       <c r="G13" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="J13" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+        <v>08:08</v>
+      </c>
+      <c r="L13" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:23</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>48</v>
+        <v>620</v>
       </c>
       <c r="O13" s="26" t="s">
         <v>44</v>
@@ -7644,7 +7746,9 @@
       <c r="Q13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="26"/>
+      <c r="R13" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -7673,7 +7777,9 @@
       <c r="AP13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ13" s="26"/>
+      <c r="AQ13" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR13" s="26" t="s">
         <v>48</v>
       </c>
@@ -7686,11 +7792,11 @@
     <row r="14" spans="1:47" ht="15" thickBot="1">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="B14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C14" s="22">
         <f t="shared" si="2"/>
@@ -7698,11 +7804,11 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="5"/>
@@ -7710,33 +7816,33 @@
       </c>
       <c r="G14" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
+        <v>08:22</v>
+      </c>
+      <c r="L14" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:14</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>48</v>
+        <v>621</v>
       </c>
       <c r="O14" s="26" t="s">
         <v>44</v>
@@ -7747,7 +7853,9 @@
       <c r="Q14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="26"/>
+      <c r="R14" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
@@ -7776,7 +7884,9 @@
       <c r="AP14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ14" s="26"/>
+      <c r="AQ14" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR14" s="26" t="s">
         <v>48</v>
       </c>
@@ -7836,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>48</v>
@@ -7890,11 +8000,11 @@
     <row r="16" spans="1:47" ht="15" thickBot="1">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="B16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C16" s="22">
         <f t="shared" si="2"/>
@@ -7902,11 +8012,11 @@
       </c>
       <c r="D16" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="F16" s="22">
         <f t="shared" si="5"/>
@@ -7914,33 +8024,33 @@
       </c>
       <c r="G16" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="J16" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="23">
+        <v>07:28</v>
+      </c>
+      <c r="L16" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:24</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>48</v>
+        <v>622</v>
       </c>
       <c r="O16" s="26" t="s">
         <v>44</v>
@@ -7951,7 +8061,9 @@
       <c r="Q16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="26"/>
+      <c r="R16" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
@@ -7980,7 +8092,9 @@
       <c r="AP16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ16" s="26"/>
+      <c r="AQ16" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR16" s="26" t="s">
         <v>48</v>
       </c>
@@ -7993,11 +8107,11 @@
     <row r="17" spans="1:47" ht="15" thickBot="1">
       <c r="A17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="B17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C17" s="22">
         <f t="shared" si="2"/>
@@ -8005,11 +8119,11 @@
       </c>
       <c r="D17" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="F17" s="22">
         <f t="shared" si="5"/>
@@ -8017,33 +8131,33 @@
       </c>
       <c r="G17" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
+        <v>08:25</v>
+      </c>
+      <c r="L17" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22:19</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>44</v>
@@ -8054,7 +8168,9 @@
       <c r="Q17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -8083,7 +8199,9 @@
       <c r="AP17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ17" s="26"/>
+      <c r="AQ17" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR17" s="26" t="s">
         <v>48</v>
       </c>
@@ -8096,11 +8214,11 @@
     <row r="18" spans="1:47" ht="15" thickBot="1">
       <c r="A18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="B18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" si="2"/>
@@ -8108,11 +8226,11 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="5"/>
@@ -8120,33 +8238,33 @@
       </c>
       <c r="G18" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="J18" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
+        <v>08:07</v>
+      </c>
+      <c r="L18" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:39</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>48</v>
+        <v>624</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>44</v>
@@ -8157,7 +8275,9 @@
       <c r="Q18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="26"/>
+      <c r="R18" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
@@ -8186,7 +8306,9 @@
       <c r="AP18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ18" s="26"/>
+      <c r="AQ18" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR18" s="26" t="s">
         <v>48</v>
       </c>
@@ -8199,11 +8321,11 @@
     <row r="19" spans="1:47" ht="15" thickBot="1">
       <c r="A19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="B19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" si="2"/>
@@ -8211,11 +8333,11 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="5"/>
@@ -8223,33 +8345,33 @@
       </c>
       <c r="G19" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1252</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
+        <v>08:05</v>
+      </c>
+      <c r="L19" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:52</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>48</v>
+        <v>625</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>44</v>
@@ -8260,7 +8382,9 @@
       <c r="Q19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="26"/>
+      <c r="R19" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -8289,7 +8413,9 @@
       <c r="AP19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ19" s="26"/>
+      <c r="AQ19" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR19" s="26" t="s">
         <v>48</v>
       </c>
@@ -8302,11 +8428,11 @@
     <row r="20" spans="1:47" ht="15" thickBot="1">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B20" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" si="2"/>
@@ -8314,11 +8440,11 @@
       </c>
       <c r="D20" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" si="5"/>
@@ -8326,33 +8452,33 @@
       </c>
       <c r="G20" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="J20" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
+        <v>08:18</v>
+      </c>
+      <c r="L20" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18:12</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>48</v>
+        <v>626</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>44</v>
@@ -8363,7 +8489,9 @@
       <c r="Q20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="26"/>
+      <c r="R20" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
@@ -8392,7 +8520,9 @@
       <c r="AP20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ20" s="26"/>
+      <c r="AQ20" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR20" s="26" t="s">
         <v>48</v>
       </c>
@@ -8405,7 +8535,7 @@
     <row r="21" spans="1:47" ht="15" thickBot="1">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.43</v>
       </c>
       <c r="B21" s="22">
         <f t="shared" si="1"/>
@@ -8413,49 +8543,49 @@
       </c>
       <c r="C21" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="D21" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
+        <v>10:29</v>
+      </c>
+      <c r="L21" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:25</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>48</v>
+        <v>627</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>44</v>
@@ -8486,14 +8616,18 @@
       <c r="AK21" s="26"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
+      <c r="AN21" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO21" s="34" t="s">
         <v>45</v>
       </c>
       <c r="AP21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AQ21" s="26"/>
+      <c r="AQ21" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR21" s="26" t="s">
         <v>48</v>
       </c>
@@ -8506,7 +8640,7 @@
     <row r="22" spans="1:47" ht="15" thickBot="1">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="B22" s="22">
         <f t="shared" si="1"/>
@@ -8514,49 +8648,49 @@
       </c>
       <c r="C22" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
+        <v>15:59</v>
+      </c>
+      <c r="L22" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:09</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>48</v>
+        <v>628</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>44</v>
@@ -8587,14 +8721,18 @@
       <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
+      <c r="AN22" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO22" s="34" t="s">
         <v>45</v>
       </c>
       <c r="AP22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AQ22" s="26"/>
+      <c r="AQ22" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR22" s="26" t="s">
         <v>48</v>
       </c>
@@ -8607,11 +8745,11 @@
     <row r="23" spans="1:47" ht="15" thickBot="1">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="B23" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C23" s="22">
         <f t="shared" si="2"/>
@@ -8619,45 +8757,45 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
+        <v>08:34</v>
+      </c>
+      <c r="L23" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:29</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>48</v>
+        <v>629</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>44</v>
@@ -8668,7 +8806,9 @@
       <c r="Q23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="26"/>
+      <c r="R23" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
@@ -8697,7 +8837,9 @@
       <c r="AP23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ23" s="26"/>
+      <c r="AQ23" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR23" s="26" t="s">
         <v>48</v>
       </c>
@@ -8710,11 +8852,11 @@
     <row r="24" spans="1:47" ht="15" thickBot="1">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B24" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="C24" s="22">
         <f t="shared" si="2"/>
@@ -8722,11 +8864,11 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" si="5"/>
@@ -8734,33 +8876,33 @@
       </c>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
+        <v>08:25</v>
+      </c>
+      <c r="L24" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:33</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>48</v>
+        <v>630</v>
       </c>
       <c r="O24" s="26" t="s">
         <v>44</v>
@@ -8771,7 +8913,9 @@
       <c r="Q24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R24" s="26"/>
+      <c r="R24" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
@@ -8800,7 +8944,9 @@
       <c r="AP24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ24" s="26"/>
+      <c r="AQ24" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR24" s="26" t="s">
         <v>48</v>
       </c>
@@ -8813,11 +8959,11 @@
     <row r="25" spans="1:47" ht="15" thickBot="1">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B25" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" si="2"/>
@@ -8825,45 +8971,45 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
+        <v>08:54</v>
+      </c>
+      <c r="L25" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18:57</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>48</v>
+        <v>631</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>44</v>
@@ -8874,7 +9020,9 @@
       <c r="Q25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="26"/>
+      <c r="R25" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -8903,7 +9051,9 @@
       <c r="AP25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ25" s="26"/>
+      <c r="AQ25" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR25" s="26" t="s">
         <v>48</v>
       </c>
@@ -8916,11 +9066,11 @@
     <row r="26" spans="1:47" ht="15" thickBot="1">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B26" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C26" s="22">
         <f t="shared" si="2"/>
@@ -8928,11 +9078,11 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" si="5"/>
@@ -8940,33 +9090,33 @@
       </c>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
+        <v>08:30</v>
+      </c>
+      <c r="L26" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:27</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>48</v>
+        <v>632</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>44</v>
@@ -8977,7 +9127,9 @@
       <c r="Q26" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R26" s="26"/>
+      <c r="R26" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
@@ -9006,7 +9158,9 @@
       <c r="AP26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ26" s="26"/>
+      <c r="AQ26" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR26" s="26" t="s">
         <v>48</v>
       </c>
@@ -9019,11 +9173,11 @@
     <row r="27" spans="1:47" ht="15" thickBot="1">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="B27" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="2"/>
@@ -9031,11 +9185,11 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" si="5"/>
@@ -9043,33 +9197,33 @@
       </c>
       <c r="G27" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
+        <v>08:16</v>
+      </c>
+      <c r="L27" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>19:16</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>48</v>
+        <v>633</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>44</v>
@@ -9080,7 +9234,9 @@
       <c r="Q27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="26"/>
+      <c r="R27" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -9109,7 +9265,9 @@
       <c r="AP27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ27" s="26"/>
+      <c r="AQ27" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR27" s="26" t="s">
         <v>48</v>
       </c>
@@ -9122,7 +9280,7 @@
     <row r="28" spans="1:47" ht="15" thickBot="1">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="B28" s="22">
         <f t="shared" si="1"/>
@@ -9130,49 +9288,49 @@
       </c>
       <c r="C28" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="E28" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="23">
+        <v>12:12</v>
+      </c>
+      <c r="L28" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:01</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N28" s="26" t="s">
-        <v>48</v>
+        <v>634</v>
       </c>
       <c r="O28" s="26" t="s">
         <v>44</v>
@@ -9203,14 +9361,18 @@
       <c r="AK28" s="26"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
+      <c r="AN28" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO28" s="34" t="s">
         <v>45</v>
       </c>
       <c r="AP28" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AQ28" s="26"/>
+      <c r="AQ28" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR28" s="26" t="s">
         <v>48</v>
       </c>
@@ -9223,7 +9385,7 @@
     <row r="29" spans="1:47" ht="15" thickBot="1">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="B29" s="22">
         <f t="shared" si="1"/>
@@ -9231,49 +9393,49 @@
       </c>
       <c r="C29" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D29" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="F29" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="J29" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="23">
+        <v>15:14</v>
+      </c>
+      <c r="L29" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:19</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>48</v>
+        <v>635</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>44</v>
@@ -9304,14 +9466,18 @@
       <c r="AK29" s="26"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
+      <c r="AN29" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="AO29" s="34" t="s">
         <v>45</v>
       </c>
       <c r="AP29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AQ29" s="26"/>
+      <c r="AQ29" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="AR29" s="26" t="s">
         <v>48</v>
       </c>
@@ -9324,11 +9490,11 @@
     <row r="30" spans="1:47" ht="15" thickBot="1">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="B30" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="C30" s="22">
         <f t="shared" si="2"/>
@@ -9336,11 +9502,11 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="E30" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="F30" s="22">
         <f t="shared" si="5"/>
@@ -9348,33 +9514,33 @@
       </c>
       <c r="G30" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="I30" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="J30" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="23">
+        <v>08:27</v>
+      </c>
+      <c r="L30" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:03</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>48</v>
+        <v>636</v>
       </c>
       <c r="O30" s="26" t="s">
         <v>44</v>
@@ -9385,7 +9551,9 @@
       <c r="Q30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="26"/>
+      <c r="R30" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
@@ -9414,7 +9582,9 @@
       <c r="AP30" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ30" s="26"/>
+      <c r="AQ30" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR30" s="26" t="s">
         <v>48</v>
       </c>
@@ -9427,11 +9597,11 @@
     <row r="31" spans="1:47" ht="15" thickBot="1">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="B31" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C31" s="22">
         <f t="shared" si="2"/>
@@ -9439,11 +9609,11 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="E31" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="5"/>
@@ -9451,33 +9621,33 @@
       </c>
       <c r="G31" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="J31" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="23">
+        <v>08:06</v>
+      </c>
+      <c r="L31" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:07</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N31" s="26" t="s">
-        <v>48</v>
+        <v>637</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>44</v>
@@ -9488,7 +9658,9 @@
       <c r="Q31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R31" s="26"/>
+      <c r="R31" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
@@ -9517,7 +9689,9 @@
       <c r="AP31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ31" s="26"/>
+      <c r="AQ31" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR31" s="26" t="s">
         <v>48</v>
       </c>
@@ -9530,11 +9704,11 @@
     <row r="32" spans="1:47" ht="15" thickBot="1">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="B32" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C32" s="22">
         <f t="shared" si="2"/>
@@ -9542,11 +9716,11 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="5"/>
@@ -9554,33 +9728,33 @@
       </c>
       <c r="G32" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1252</v>
       </c>
       <c r="J32" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="23">
+        <v>08:11</v>
+      </c>
+      <c r="L32" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20:52</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>48</v>
+        <v>638</v>
       </c>
       <c r="O32" s="26" t="s">
         <v>44</v>
@@ -9591,7 +9765,9 @@
       <c r="Q32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R32" s="26"/>
+      <c r="R32" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
@@ -9620,7 +9796,9 @@
       <c r="AP32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ32" s="26"/>
+      <c r="AQ32" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR32" s="26" t="s">
         <v>48</v>
       </c>
@@ -9633,11 +9811,11 @@
     <row r="33" spans="1:47" ht="15" thickBot="1">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="B33" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="C33" s="22">
         <f t="shared" si="2"/>
@@ -9645,11 +9823,11 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E33" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="5"/>
@@ -9657,33 +9835,33 @@
       </c>
       <c r="G33" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
+        <v>08:16</v>
+      </c>
+      <c r="L33" s="23" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21:23</v>
       </c>
       <c r="M33" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>48</v>
+        <v>639</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>44</v>
@@ -9694,7 +9872,9 @@
       <c r="Q33" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="R33" s="26"/>
+      <c r="R33" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
@@ -9723,7 +9903,9 @@
       <c r="AP33" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AQ33" s="26"/>
+      <c r="AQ33" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="AR33" s="26" t="s">
         <v>48</v>
       </c>
@@ -11039,11 +11221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11324,10 +11506,10 @@
         <v>19:52</v>
       </c>
       <c r="M3" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>581</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>582</v>
       </c>
       <c r="O3" s="26" t="s">
         <v>44</v>
@@ -11431,10 +11613,10 @@
         <v>17:45</v>
       </c>
       <c r="M4" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="N4" s="26" t="s">
         <v>583</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>584</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>44</v>
@@ -11442,7 +11624,7 @@
       <c r="P4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="40"/>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
@@ -11532,10 +11714,10 @@
         <v>17:37</v>
       </c>
       <c r="M5" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="N5" s="26" t="s">
         <v>585</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>586</v>
       </c>
       <c r="O5" s="26" t="s">
         <v>44</v>
@@ -11633,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>48</v>
@@ -11740,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>48</v>
@@ -11843,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N8" s="26" t="s">
         <v>48</v>
@@ -11946,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N9" s="26" t="s">
         <v>48</v>
@@ -12049,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N10" s="26" t="s">
         <v>48</v>
@@ -12152,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N11" s="26" t="s">
         <v>48</v>
@@ -12253,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N12" s="26" t="s">
         <v>48</v>
@@ -12354,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>48</v>
@@ -12457,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N14" s="26" t="s">
         <v>48</v>
@@ -12560,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N15" s="26" t="s">
         <v>48</v>
@@ -12663,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>48</v>
@@ -12766,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N17" s="26" t="s">
         <v>48</v>
@@ -12869,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>48</v>
@@ -12970,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N19" s="26" t="s">
         <v>48</v>
@@ -13071,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>48</v>
@@ -13174,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>48</v>
@@ -13277,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>48</v>
@@ -13380,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>48</v>
@@ -13483,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>48</v>
@@ -13586,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>48</v>
@@ -13687,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>48</v>
@@ -13788,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>48</v>
@@ -13891,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>48</v>
@@ -13994,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>48</v>
@@ -14097,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>48</v>
@@ -14200,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>48</v>
@@ -14303,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N32" s="26" t="s">
         <v>48</v>
